--- a/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
+++ b/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
@@ -14,9 +14,9 @@
     <sheet name="UC005-Associar Tags a um Livro" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'UC003-Excluir Livro'!$B$1:$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'UC003-Excluir Livro'!$B$1:$L$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'UC004-Browse'!$B$1:$S$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'UC005-Associar Tags a um Livro'!$B$1:$L$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'UC005-Associar Tags a um Livro'!$B$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'UC003-Excluir Livro'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'UC004-Browse'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'UC005-Associar Tags a um Livro'!$1:$6</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="163">
   <si>
     <t>CAMPO</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Marcelo</t>
   </si>
   <si>
-    <t>O sistema deverá excluir o Livro.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Selecionar a opção </t>
     </r>
@@ -508,9 +505,6 @@
     </r>
   </si>
   <si>
-    <t>Está na Tela de Livros Cadastrados</t>
-  </si>
-  <si>
     <t>Testar as funcionalidades “Excluir Livro"</t>
   </si>
   <si>
@@ -523,15 +517,6 @@
     <t>Excluir Livro</t>
   </si>
   <si>
-    <t>Cancelar a exclusão do Livro.</t>
-  </si>
-  <si>
-    <t>Opção Sim</t>
-  </si>
-  <si>
-    <t>Opção Não</t>
-  </si>
-  <si>
     <t>Mensagem</t>
   </si>
   <si>
@@ -541,29 +526,10 @@
     <t>Testar as funcionalidades “Associar Tags a um Livro”</t>
   </si>
   <si>
-    <t>Ter o Livro cadastrado</t>
-  </si>
-  <si>
-    <t>Clicar duas vezes sobre o Livro.</t>
-  </si>
-  <si>
     <t>Opções Tags</t>
   </si>
   <si>
-    <t>O sistema deverá atualizar informações de Tags</t>
-  </si>
-  <si>
-    <t>O sistema deverá abrir Arquivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá ir ao Cadatro de Livro para editar informações.
-</t>
-  </si>
-  <si>
     <t>Associar Tags a um Livro</t>
-  </si>
-  <si>
-    <t>Selecionar um Arquivo</t>
   </si>
   <si>
     <t>Selecionar uma Tag</t>
@@ -576,15 +542,6 @@
   </si>
   <si>
     <t>Arquivos associados</t>
-  </si>
-  <si>
-    <t>Tag atualizada com sucesso</t>
-  </si>
-  <si>
-    <t>Tags atualizadas com sucesso</t>
-  </si>
-  <si>
-    <t>Livro excluido com sucesso</t>
   </si>
   <si>
     <t>Operação cancelada, Livro não excluido</t>
@@ -615,9 +572,6 @@
   </si>
   <si>
     <t>Selecionar qualquer uma das Categorias</t>
-  </si>
-  <si>
-    <t>Verificar Livros de uma Categoria</t>
   </si>
   <si>
     <t>Apresentar Detalhes sobre o Livro</t>
@@ -654,6 +608,480 @@
   </si>
   <si>
     <t>Filtro de Pesquisa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aparição de mensagem de solicitação de confirmação, apresentando o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Título do Livro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Acessar Livro</t>
+  </si>
+  <si>
+    <t>Opção Yes</t>
+  </si>
+  <si>
+    <t>Opção No</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ter Livro cadastrado, e estar na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Relação de Livros</t>
+    </r>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>Applying Uml and Patters: Na Introductio...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estar na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Informações do Livro</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancelar Exclução de Livro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Confirmar opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Confirmar opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cancelar a exclusão do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excluir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a ser excluído</t>
+    </r>
+  </si>
+  <si>
+    <t>Deseja excluir Livro de ISBN [número] e título [nome do título]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Informações sobre o Livro</t>
+    </r>
+  </si>
+  <si>
+    <t>Livro excluído com sucesso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar apenas um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estrutura de Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, e clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Tags</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar mais de um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estrutura de Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, e clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Tags</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aparição de mensagem informando a atualização da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estrutura de Tags</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Não selecionar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, e clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Tags</t>
+    </r>
+  </si>
+  <si>
+    <t>Estrutura de Tags atualizada com sucesso</t>
+  </si>
+  <si>
+    <t>Visualizar Arquivos Associados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arquivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estrutura de Arquivos Associados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, e clicar duas vezes,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abrir o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arquivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionado, em uma Tela independente, e apresentar a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Informações do Livro</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Meus Documentos\Livros\8712389213.txt</t>
+  </si>
+  <si>
+    <t>Editar dados do Livro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clica no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edit Book Info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Executar Edição conforme </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UC002-Editar Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema deve redirecionar para a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Informações do Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema deve redirecionar para a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela de Edição do Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tela Principal</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -796,7 +1224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1118,11 +1546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1256,35 +1697,44 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -1331,15 +1781,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,41 +1799,428 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="170">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3077,11 +3905,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -3090,9 +3918,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -3112,11 +3940,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -3125,9 +3953,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -3383,13 +4211,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:IA10"/>
+  <dimension ref="A1:IB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3399,37 +4227,37 @@
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" customWidth="1"/>
     <col min="5" max="5" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4" style="14" customWidth="1"/>
-    <col min="11" max="11" width="4" style="11" customWidth="1"/>
-    <col min="12" max="19" width="4" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="4" style="12"/>
+    <col min="6" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4" style="14" customWidth="1"/>
+    <col min="12" max="12" width="4" style="11" customWidth="1"/>
+    <col min="13" max="20" width="4" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="4" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:235" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:236" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="89" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="89"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3654,29 +4482,32 @@
       <c r="HY1" s="1"/>
       <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
     </row>
-    <row r="2" spans="1:235" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:236" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="93"/>
+      <c r="J2" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3901,23 +4732,24 @@
       <c r="HY2" s="1"/>
       <c r="HZ2" s="1"/>
       <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
     </row>
-    <row r="3" spans="1:235" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4142,19 +4974,20 @@
       <c r="HY3" s="1"/>
       <c r="HZ3" s="1"/>
       <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
     </row>
-    <row r="4" spans="1:235" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4379,8 +5212,9 @@
       <c r="HY4" s="1"/>
       <c r="HZ4" s="1"/>
       <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
     </row>
-    <row r="5" spans="1:235" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:236" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -4388,10 +5222,10 @@
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4616,8 +5450,9 @@
       <c r="HY5" s="1"/>
       <c r="HZ5" s="1"/>
       <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
     </row>
-    <row r="6" spans="1:235" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:236" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
@@ -4635,10 +5470,10 @@
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -4863,33 +5698,32 @@
       <c r="HY6" s="1"/>
       <c r="HZ6" s="1"/>
       <c r="IA6" s="1"/>
+      <c r="IB6" s="1"/>
     </row>
-    <row r="7" spans="1:235" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+    <row r="7" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -5114,539 +5948,2337 @@
       <c r="HY7" s="13"/>
       <c r="HZ7" s="13"/>
       <c r="IA7" s="13"/>
+      <c r="IB7" s="13"/>
     </row>
-    <row r="8" spans="1:235" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="13"/>
-      <c r="BY8" s="13"/>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="13"/>
-      <c r="CI8" s="13"/>
-      <c r="CJ8" s="13"/>
-      <c r="CK8" s="13"/>
-      <c r="CL8" s="13"/>
-      <c r="CM8" s="13"/>
-      <c r="CN8" s="13"/>
-      <c r="CO8" s="13"/>
-      <c r="CP8" s="13"/>
-      <c r="CQ8" s="13"/>
-      <c r="CR8" s="13"/>
-      <c r="CS8" s="13"/>
-      <c r="CT8" s="13"/>
-      <c r="CU8" s="13"/>
-      <c r="CV8" s="13"/>
-      <c r="CW8" s="13"/>
-      <c r="CX8" s="13"/>
-      <c r="CY8" s="13"/>
-      <c r="CZ8" s="13"/>
-      <c r="DA8" s="13"/>
-      <c r="DB8" s="13"/>
-      <c r="DC8" s="13"/>
-      <c r="DD8" s="13"/>
-      <c r="DE8" s="13"/>
-      <c r="DF8" s="13"/>
-      <c r="DG8" s="13"/>
-      <c r="DH8" s="13"/>
-      <c r="DI8" s="13"/>
-      <c r="DJ8" s="13"/>
-      <c r="DK8" s="13"/>
-      <c r="DL8" s="13"/>
-      <c r="DM8" s="13"/>
-      <c r="DN8" s="13"/>
-      <c r="DO8" s="13"/>
-      <c r="DP8" s="13"/>
-      <c r="DQ8" s="13"/>
-      <c r="DR8" s="13"/>
-      <c r="DS8" s="13"/>
-      <c r="DT8" s="13"/>
-      <c r="DU8" s="13"/>
-      <c r="DV8" s="13"/>
-      <c r="DW8" s="13"/>
-      <c r="DX8" s="13"/>
-      <c r="DY8" s="13"/>
-      <c r="DZ8" s="13"/>
-      <c r="EA8" s="13"/>
-      <c r="EB8" s="13"/>
-      <c r="EC8" s="13"/>
-      <c r="ED8" s="13"/>
-      <c r="EE8" s="13"/>
-      <c r="EF8" s="13"/>
-      <c r="EG8" s="13"/>
-      <c r="EH8" s="13"/>
-      <c r="EI8" s="13"/>
-      <c r="EJ8" s="13"/>
-      <c r="EK8" s="13"/>
-      <c r="EL8" s="13"/>
-      <c r="EM8" s="13"/>
-      <c r="EN8" s="13"/>
-      <c r="EO8" s="13"/>
-      <c r="EP8" s="13"/>
-      <c r="EQ8" s="13"/>
-      <c r="ER8" s="13"/>
-      <c r="ES8" s="13"/>
-      <c r="ET8" s="13"/>
-      <c r="EU8" s="13"/>
-      <c r="EV8" s="13"/>
-      <c r="EW8" s="13"/>
-      <c r="EX8" s="13"/>
-      <c r="EY8" s="13"/>
-      <c r="EZ8" s="13"/>
-      <c r="FA8" s="13"/>
-      <c r="FB8" s="13"/>
-      <c r="FC8" s="13"/>
-      <c r="FD8" s="13"/>
-      <c r="FE8" s="13"/>
-      <c r="FF8" s="13"/>
-      <c r="FG8" s="13"/>
-      <c r="FH8" s="13"/>
-      <c r="FI8" s="13"/>
-      <c r="FJ8" s="13"/>
-      <c r="FK8" s="13"/>
-      <c r="FL8" s="13"/>
-      <c r="FM8" s="13"/>
-      <c r="FN8" s="13"/>
-      <c r="FO8" s="13"/>
-      <c r="FP8" s="13"/>
-      <c r="FQ8" s="13"/>
-      <c r="FR8" s="13"/>
-      <c r="FS8" s="13"/>
-      <c r="FT8" s="13"/>
-      <c r="FU8" s="13"/>
-      <c r="FV8" s="13"/>
-      <c r="FW8" s="13"/>
-      <c r="FX8" s="13"/>
-      <c r="FY8" s="13"/>
-      <c r="FZ8" s="13"/>
-      <c r="GA8" s="13"/>
-      <c r="GB8" s="13"/>
-      <c r="GC8" s="13"/>
-      <c r="GD8" s="13"/>
-      <c r="GE8" s="13"/>
-      <c r="GF8" s="13"/>
-      <c r="GG8" s="13"/>
-      <c r="GH8" s="13"/>
-      <c r="GI8" s="13"/>
-      <c r="GJ8" s="13"/>
-      <c r="GK8" s="13"/>
-      <c r="GL8" s="13"/>
-      <c r="GM8" s="13"/>
-      <c r="GN8" s="13"/>
-      <c r="GO8" s="13"/>
-      <c r="GP8" s="13"/>
-      <c r="GQ8" s="13"/>
-      <c r="GR8" s="13"/>
-      <c r="GS8" s="13"/>
-      <c r="GT8" s="13"/>
-      <c r="GU8" s="13"/>
-      <c r="GV8" s="13"/>
-      <c r="GW8" s="13"/>
-      <c r="GX8" s="13"/>
-      <c r="GY8" s="13"/>
-      <c r="GZ8" s="13"/>
-      <c r="HA8" s="13"/>
-      <c r="HB8" s="13"/>
-      <c r="HC8" s="13"/>
-      <c r="HD8" s="13"/>
-      <c r="HE8" s="13"/>
-      <c r="HF8" s="13"/>
-      <c r="HG8" s="13"/>
-      <c r="HH8" s="13"/>
-      <c r="HI8" s="13"/>
-      <c r="HJ8" s="13"/>
-      <c r="HK8" s="13"/>
-      <c r="HL8" s="13"/>
-      <c r="HM8" s="13"/>
-      <c r="HN8" s="13"/>
-      <c r="HO8" s="13"/>
-      <c r="HP8" s="13"/>
-      <c r="HQ8" s="13"/>
-      <c r="HR8" s="13"/>
-      <c r="HS8" s="13"/>
-      <c r="HT8" s="13"/>
-      <c r="HU8" s="13"/>
-      <c r="HV8" s="13"/>
-      <c r="HW8" s="13"/>
-      <c r="HX8" s="13"/>
-      <c r="HY8" s="13"/>
-      <c r="HZ8" s="13"/>
-      <c r="IA8" s="13"/>
+    <row r="8" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GC8"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GF8"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GI8"/>
+      <c r="GJ8"/>
+      <c r="GK8"/>
+      <c r="GL8"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GO8"/>
+      <c r="GP8"/>
+      <c r="GQ8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="GT8"/>
+      <c r="GU8"/>
+      <c r="GV8"/>
+      <c r="GW8"/>
+      <c r="GX8"/>
+      <c r="GY8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HB8"/>
+      <c r="HC8"/>
+      <c r="HD8"/>
+      <c r="HE8"/>
+      <c r="HF8"/>
+      <c r="HG8"/>
+      <c r="HH8"/>
+      <c r="HI8"/>
+      <c r="HJ8"/>
+      <c r="HK8"/>
+      <c r="HL8"/>
+      <c r="HM8"/>
+      <c r="HN8"/>
+      <c r="HO8"/>
+      <c r="HP8"/>
+      <c r="HQ8"/>
+      <c r="HR8"/>
+      <c r="HS8"/>
+      <c r="HT8"/>
+      <c r="HU8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
+      <c r="HX8"/>
+      <c r="HY8"/>
+      <c r="HZ8"/>
+      <c r="IA8"/>
+      <c r="IB8"/>
     </row>
-    <row r="9" spans="1:235" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-      <c r="CQ9"/>
-      <c r="CR9"/>
-      <c r="CS9"/>
-      <c r="CT9"/>
-      <c r="CU9"/>
-      <c r="CV9"/>
-      <c r="CW9"/>
-      <c r="CX9"/>
-      <c r="CY9"/>
-      <c r="CZ9"/>
-      <c r="DA9"/>
-      <c r="DB9"/>
-      <c r="DC9"/>
-      <c r="DD9"/>
-      <c r="DE9"/>
-      <c r="DF9"/>
-      <c r="DG9"/>
-      <c r="DH9"/>
-      <c r="DI9"/>
-      <c r="DJ9"/>
-      <c r="DK9"/>
-      <c r="DL9"/>
-      <c r="DM9"/>
-      <c r="DN9"/>
-      <c r="DO9"/>
-      <c r="DP9"/>
-      <c r="DQ9"/>
-      <c r="DR9"/>
-      <c r="DS9"/>
-      <c r="DT9"/>
-      <c r="DU9"/>
-      <c r="DV9"/>
-      <c r="DW9"/>
-      <c r="DX9"/>
-      <c r="DY9"/>
-      <c r="DZ9"/>
-      <c r="EA9"/>
-      <c r="EB9"/>
-      <c r="EC9"/>
-      <c r="ED9"/>
-      <c r="EE9"/>
-      <c r="EF9"/>
-      <c r="EG9"/>
-      <c r="EH9"/>
-      <c r="EI9"/>
-      <c r="EJ9"/>
-      <c r="EK9"/>
-      <c r="EL9"/>
-      <c r="EM9"/>
-      <c r="EN9"/>
-      <c r="EO9"/>
-      <c r="EP9"/>
-      <c r="EQ9"/>
-      <c r="ER9"/>
-      <c r="ES9"/>
-      <c r="ET9"/>
-      <c r="EU9"/>
-      <c r="EV9"/>
-      <c r="EW9"/>
-      <c r="EX9"/>
-      <c r="EY9"/>
-      <c r="EZ9"/>
-      <c r="FA9"/>
-      <c r="FB9"/>
-      <c r="FC9"/>
-      <c r="FD9"/>
-      <c r="FE9"/>
-      <c r="FF9"/>
-      <c r="FG9"/>
-      <c r="FH9"/>
-      <c r="FI9"/>
-      <c r="FJ9"/>
-      <c r="FK9"/>
-      <c r="FL9"/>
-      <c r="FM9"/>
-      <c r="FN9"/>
-      <c r="FO9"/>
-      <c r="FP9"/>
-      <c r="FQ9"/>
-      <c r="FR9"/>
-      <c r="FS9"/>
-      <c r="FT9"/>
-      <c r="FU9"/>
-      <c r="FV9"/>
-      <c r="FW9"/>
-      <c r="FX9"/>
-      <c r="FY9"/>
-      <c r="FZ9"/>
-      <c r="GA9"/>
-      <c r="GB9"/>
-      <c r="GC9"/>
-      <c r="GD9"/>
-      <c r="GE9"/>
-      <c r="GF9"/>
-      <c r="GG9"/>
-      <c r="GH9"/>
-      <c r="GI9"/>
-      <c r="GJ9"/>
-      <c r="GK9"/>
-      <c r="GL9"/>
-      <c r="GM9"/>
-      <c r="GN9"/>
-      <c r="GO9"/>
-      <c r="GP9"/>
-      <c r="GQ9"/>
-      <c r="GR9"/>
-      <c r="GS9"/>
-      <c r="GT9"/>
-      <c r="GU9"/>
-      <c r="GV9"/>
-      <c r="GW9"/>
-      <c r="GX9"/>
-      <c r="GY9"/>
-      <c r="GZ9"/>
-      <c r="HA9"/>
-      <c r="HB9"/>
-      <c r="HC9"/>
-      <c r="HD9"/>
-      <c r="HE9"/>
-      <c r="HF9"/>
-      <c r="HG9"/>
-      <c r="HH9"/>
-      <c r="HI9"/>
-      <c r="HJ9"/>
-      <c r="HK9"/>
-      <c r="HL9"/>
-      <c r="HM9"/>
-      <c r="HN9"/>
-      <c r="HO9"/>
-      <c r="HP9"/>
-      <c r="HQ9"/>
-      <c r="HR9"/>
-      <c r="HS9"/>
-      <c r="HT9"/>
-      <c r="HU9"/>
-      <c r="HV9"/>
-      <c r="HW9"/>
-      <c r="HX9"/>
-      <c r="HY9"/>
-      <c r="HZ9"/>
-      <c r="IA9"/>
+    <row r="9" spans="1:236" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
+      <c r="ES9" s="1"/>
+      <c r="ET9" s="1"/>
+      <c r="EU9" s="1"/>
+      <c r="EV9" s="1"/>
+      <c r="EW9" s="1"/>
+      <c r="EX9" s="1"/>
+      <c r="EY9" s="1"/>
+      <c r="EZ9" s="1"/>
+      <c r="FA9" s="1"/>
+      <c r="FB9" s="1"/>
+      <c r="FC9" s="1"/>
+      <c r="FD9" s="1"/>
+      <c r="FE9" s="1"/>
+      <c r="FF9" s="1"/>
+      <c r="FG9" s="1"/>
+      <c r="FH9" s="1"/>
+      <c r="FI9" s="1"/>
+      <c r="FJ9" s="1"/>
+      <c r="FK9" s="1"/>
+      <c r="FL9" s="1"/>
+      <c r="FM9" s="1"/>
+      <c r="FN9" s="1"/>
+      <c r="FO9" s="1"/>
+      <c r="FP9" s="1"/>
+      <c r="FQ9" s="1"/>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+      <c r="FZ9" s="1"/>
+      <c r="GA9" s="1"/>
+      <c r="GB9" s="1"/>
+      <c r="GC9" s="1"/>
+      <c r="GD9" s="1"/>
+      <c r="GE9" s="1"/>
+      <c r="GF9" s="1"/>
+      <c r="GG9" s="1"/>
+      <c r="GH9" s="1"/>
+      <c r="GI9" s="1"/>
+      <c r="GJ9" s="1"/>
+      <c r="GK9" s="1"/>
+      <c r="GL9" s="1"/>
+      <c r="GM9" s="1"/>
+      <c r="GN9" s="1"/>
+      <c r="GO9" s="1"/>
+      <c r="GP9" s="1"/>
+      <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
+      <c r="GZ9" s="1"/>
+      <c r="HA9" s="1"/>
+      <c r="HB9" s="1"/>
+      <c r="HC9" s="1"/>
+      <c r="HD9" s="1"/>
+      <c r="HE9" s="1"/>
+      <c r="HF9" s="1"/>
+      <c r="HG9" s="1"/>
+      <c r="HH9" s="1"/>
+      <c r="HI9" s="1"/>
+      <c r="HJ9" s="1"/>
+      <c r="HK9" s="1"/>
+      <c r="HL9" s="1"/>
+      <c r="HM9" s="1"/>
+      <c r="HN9" s="1"/>
+      <c r="HO9" s="1"/>
+      <c r="HP9" s="1"/>
+      <c r="HQ9" s="1"/>
+      <c r="HR9" s="1"/>
+      <c r="HS9" s="1"/>
+      <c r="HT9" s="1"/>
+      <c r="HU9" s="1"/>
+      <c r="HV9" s="1"/>
+      <c r="HW9" s="1"/>
+      <c r="HX9" s="1"/>
+      <c r="HY9" s="1"/>
+      <c r="HZ9" s="1"/>
+      <c r="IA9" s="1"/>
+      <c r="IB9" s="1"/>
     </row>
-    <row r="10" spans="1:235" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+    <row r="10" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="71">
+        <v>2</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="13"/>
+      <c r="CM10" s="13"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="13"/>
+      <c r="DK10" s="13"/>
+      <c r="DL10" s="13"/>
+      <c r="DM10" s="13"/>
+      <c r="DN10" s="13"/>
+      <c r="DO10" s="13"/>
+      <c r="DP10" s="13"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="13"/>
+      <c r="DS10" s="13"/>
+      <c r="DT10" s="13"/>
+      <c r="DU10" s="13"/>
+      <c r="DV10" s="13"/>
+      <c r="DW10" s="13"/>
+      <c r="DX10" s="13"/>
+      <c r="DY10" s="13"/>
+      <c r="DZ10" s="13"/>
+      <c r="EA10" s="13"/>
+      <c r="EB10" s="13"/>
+      <c r="EC10" s="13"/>
+      <c r="ED10" s="13"/>
+      <c r="EE10" s="13"/>
+      <c r="EF10" s="13"/>
+      <c r="EG10" s="13"/>
+      <c r="EH10" s="13"/>
+      <c r="EI10" s="13"/>
+      <c r="EJ10" s="13"/>
+      <c r="EK10" s="13"/>
+      <c r="EL10" s="13"/>
+      <c r="EM10" s="13"/>
+      <c r="EN10" s="13"/>
+      <c r="EO10" s="13"/>
+      <c r="EP10" s="13"/>
+      <c r="EQ10" s="13"/>
+      <c r="ER10" s="13"/>
+      <c r="ES10" s="13"/>
+      <c r="ET10" s="13"/>
+      <c r="EU10" s="13"/>
+      <c r="EV10" s="13"/>
+      <c r="EW10" s="13"/>
+      <c r="EX10" s="13"/>
+      <c r="EY10" s="13"/>
+      <c r="EZ10" s="13"/>
+      <c r="FA10" s="13"/>
+      <c r="FB10" s="13"/>
+      <c r="FC10" s="13"/>
+      <c r="FD10" s="13"/>
+      <c r="FE10" s="13"/>
+      <c r="FF10" s="13"/>
+      <c r="FG10" s="13"/>
+      <c r="FH10" s="13"/>
+      <c r="FI10" s="13"/>
+      <c r="FJ10" s="13"/>
+      <c r="FK10" s="13"/>
+      <c r="FL10" s="13"/>
+      <c r="FM10" s="13"/>
+      <c r="FN10" s="13"/>
+      <c r="FO10" s="13"/>
+      <c r="FP10" s="13"/>
+      <c r="FQ10" s="13"/>
+      <c r="FR10" s="13"/>
+      <c r="FS10" s="13"/>
+      <c r="FT10" s="13"/>
+      <c r="FU10" s="13"/>
+      <c r="FV10" s="13"/>
+      <c r="FW10" s="13"/>
+      <c r="FX10" s="13"/>
+      <c r="FY10" s="13"/>
+      <c r="FZ10" s="13"/>
+      <c r="GA10" s="13"/>
+      <c r="GB10" s="13"/>
+      <c r="GC10" s="13"/>
+      <c r="GD10" s="13"/>
+      <c r="GE10" s="13"/>
+      <c r="GF10" s="13"/>
+      <c r="GG10" s="13"/>
+      <c r="GH10" s="13"/>
+      <c r="GI10" s="13"/>
+      <c r="GJ10" s="13"/>
+      <c r="GK10" s="13"/>
+      <c r="GL10" s="13"/>
+      <c r="GM10" s="13"/>
+      <c r="GN10" s="13"/>
+      <c r="GO10" s="13"/>
+      <c r="GP10" s="13"/>
+      <c r="GQ10" s="13"/>
+      <c r="GR10" s="13"/>
+      <c r="GS10" s="13"/>
+      <c r="GT10" s="13"/>
+      <c r="GU10" s="13"/>
+      <c r="GV10" s="13"/>
+      <c r="GW10" s="13"/>
+      <c r="GX10" s="13"/>
+      <c r="GY10" s="13"/>
+      <c r="GZ10" s="13"/>
+      <c r="HA10" s="13"/>
+      <c r="HB10" s="13"/>
+      <c r="HC10" s="13"/>
+      <c r="HD10" s="13"/>
+      <c r="HE10" s="13"/>
+      <c r="HF10" s="13"/>
+      <c r="HG10" s="13"/>
+      <c r="HH10" s="13"/>
+      <c r="HI10" s="13"/>
+      <c r="HJ10" s="13"/>
+      <c r="HK10" s="13"/>
+      <c r="HL10" s="13"/>
+      <c r="HM10" s="13"/>
+      <c r="HN10" s="13"/>
+      <c r="HO10" s="13"/>
+      <c r="HP10" s="13"/>
+      <c r="HQ10" s="13"/>
+      <c r="HR10" s="13"/>
+      <c r="HS10" s="13"/>
+      <c r="HT10" s="13"/>
+      <c r="HU10" s="13"/>
+      <c r="HV10" s="13"/>
+      <c r="HW10" s="13"/>
+      <c r="HX10" s="13"/>
+      <c r="HY10" s="13"/>
+      <c r="HZ10" s="13"/>
+      <c r="IA10" s="13"/>
+      <c r="IB10" s="13"/>
+    </row>
+    <row r="11" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="13"/>
+      <c r="CM11" s="13"/>
+      <c r="CN11" s="13"/>
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="13"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
+      <c r="CU11" s="13"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="13"/>
+      <c r="DG11" s="13"/>
+      <c r="DH11" s="13"/>
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="13"/>
+      <c r="DK11" s="13"/>
+      <c r="DL11" s="13"/>
+      <c r="DM11" s="13"/>
+      <c r="DN11" s="13"/>
+      <c r="DO11" s="13"/>
+      <c r="DP11" s="13"/>
+      <c r="DQ11" s="13"/>
+      <c r="DR11" s="13"/>
+      <c r="DS11" s="13"/>
+      <c r="DT11" s="13"/>
+      <c r="DU11" s="13"/>
+      <c r="DV11" s="13"/>
+      <c r="DW11" s="13"/>
+      <c r="DX11" s="13"/>
+      <c r="DY11" s="13"/>
+      <c r="DZ11" s="13"/>
+      <c r="EA11" s="13"/>
+      <c r="EB11" s="13"/>
+      <c r="EC11" s="13"/>
+      <c r="ED11" s="13"/>
+      <c r="EE11" s="13"/>
+      <c r="EF11" s="13"/>
+      <c r="EG11" s="13"/>
+      <c r="EH11" s="13"/>
+      <c r="EI11" s="13"/>
+      <c r="EJ11" s="13"/>
+      <c r="EK11" s="13"/>
+      <c r="EL11" s="13"/>
+      <c r="EM11" s="13"/>
+      <c r="EN11" s="13"/>
+      <c r="EO11" s="13"/>
+      <c r="EP11" s="13"/>
+      <c r="EQ11" s="13"/>
+      <c r="ER11" s="13"/>
+      <c r="ES11" s="13"/>
+      <c r="ET11" s="13"/>
+      <c r="EU11" s="13"/>
+      <c r="EV11" s="13"/>
+      <c r="EW11" s="13"/>
+      <c r="EX11" s="13"/>
+      <c r="EY11" s="13"/>
+      <c r="EZ11" s="13"/>
+      <c r="FA11" s="13"/>
+      <c r="FB11" s="13"/>
+      <c r="FC11" s="13"/>
+      <c r="FD11" s="13"/>
+      <c r="FE11" s="13"/>
+      <c r="FF11" s="13"/>
+      <c r="FG11" s="13"/>
+      <c r="FH11" s="13"/>
+      <c r="FI11" s="13"/>
+      <c r="FJ11" s="13"/>
+      <c r="FK11" s="13"/>
+      <c r="FL11" s="13"/>
+      <c r="FM11" s="13"/>
+      <c r="FN11" s="13"/>
+      <c r="FO11" s="13"/>
+      <c r="FP11" s="13"/>
+      <c r="FQ11" s="13"/>
+      <c r="FR11" s="13"/>
+      <c r="FS11" s="13"/>
+      <c r="FT11" s="13"/>
+      <c r="FU11" s="13"/>
+      <c r="FV11" s="13"/>
+      <c r="FW11" s="13"/>
+      <c r="FX11" s="13"/>
+      <c r="FY11" s="13"/>
+      <c r="FZ11" s="13"/>
+      <c r="GA11" s="13"/>
+      <c r="GB11" s="13"/>
+      <c r="GC11" s="13"/>
+      <c r="GD11" s="13"/>
+      <c r="GE11" s="13"/>
+      <c r="GF11" s="13"/>
+      <c r="GG11" s="13"/>
+      <c r="GH11" s="13"/>
+      <c r="GI11" s="13"/>
+      <c r="GJ11" s="13"/>
+      <c r="GK11" s="13"/>
+      <c r="GL11" s="13"/>
+      <c r="GM11" s="13"/>
+      <c r="GN11" s="13"/>
+      <c r="GO11" s="13"/>
+      <c r="GP11" s="13"/>
+      <c r="GQ11" s="13"/>
+      <c r="GR11" s="13"/>
+      <c r="GS11" s="13"/>
+      <c r="GT11" s="13"/>
+      <c r="GU11" s="13"/>
+      <c r="GV11" s="13"/>
+      <c r="GW11" s="13"/>
+      <c r="GX11" s="13"/>
+      <c r="GY11" s="13"/>
+      <c r="GZ11" s="13"/>
+      <c r="HA11" s="13"/>
+      <c r="HB11" s="13"/>
+      <c r="HC11" s="13"/>
+      <c r="HD11" s="13"/>
+      <c r="HE11" s="13"/>
+      <c r="HF11" s="13"/>
+      <c r="HG11" s="13"/>
+      <c r="HH11" s="13"/>
+      <c r="HI11" s="13"/>
+      <c r="HJ11" s="13"/>
+      <c r="HK11" s="13"/>
+      <c r="HL11" s="13"/>
+      <c r="HM11" s="13"/>
+      <c r="HN11" s="13"/>
+      <c r="HO11" s="13"/>
+      <c r="HP11" s="13"/>
+      <c r="HQ11" s="13"/>
+      <c r="HR11" s="13"/>
+      <c r="HS11" s="13"/>
+      <c r="HT11" s="13"/>
+      <c r="HU11" s="13"/>
+      <c r="HV11" s="13"/>
+      <c r="HW11" s="13"/>
+      <c r="HX11" s="13"/>
+      <c r="HY11" s="13"/>
+      <c r="HZ11" s="13"/>
+      <c r="IA11" s="13"/>
+      <c r="IB11" s="13"/>
+    </row>
+    <row r="12" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
+      <c r="GB12"/>
+      <c r="GC12"/>
+      <c r="GD12"/>
+      <c r="GE12"/>
+      <c r="GF12"/>
+      <c r="GG12"/>
+      <c r="GH12"/>
+      <c r="GI12"/>
+      <c r="GJ12"/>
+      <c r="GK12"/>
+      <c r="GL12"/>
+      <c r="GM12"/>
+      <c r="GN12"/>
+      <c r="GO12"/>
+      <c r="GP12"/>
+      <c r="GQ12"/>
+      <c r="GR12"/>
+      <c r="GS12"/>
+      <c r="GT12"/>
+      <c r="GU12"/>
+      <c r="GV12"/>
+      <c r="GW12"/>
+      <c r="GX12"/>
+      <c r="GY12"/>
+      <c r="GZ12"/>
+      <c r="HA12"/>
+      <c r="HB12"/>
+      <c r="HC12"/>
+      <c r="HD12"/>
+      <c r="HE12"/>
+      <c r="HF12"/>
+      <c r="HG12"/>
+      <c r="HH12"/>
+      <c r="HI12"/>
+      <c r="HJ12"/>
+      <c r="HK12"/>
+      <c r="HL12"/>
+      <c r="HM12"/>
+      <c r="HN12"/>
+      <c r="HO12"/>
+      <c r="HP12"/>
+      <c r="HQ12"/>
+      <c r="HR12"/>
+      <c r="HS12"/>
+      <c r="HT12"/>
+      <c r="HU12"/>
+      <c r="HV12"/>
+      <c r="HW12"/>
+      <c r="HX12"/>
+      <c r="HY12"/>
+      <c r="HZ12"/>
+      <c r="IA12"/>
+      <c r="IB12"/>
+    </row>
+    <row r="13" spans="1:236" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
+      <c r="ES13" s="1"/>
+      <c r="ET13" s="1"/>
+      <c r="EU13" s="1"/>
+      <c r="EV13" s="1"/>
+      <c r="EW13" s="1"/>
+      <c r="EX13" s="1"/>
+      <c r="EY13" s="1"/>
+      <c r="EZ13" s="1"/>
+      <c r="FA13" s="1"/>
+      <c r="FB13" s="1"/>
+      <c r="FC13" s="1"/>
+      <c r="FD13" s="1"/>
+      <c r="FE13" s="1"/>
+      <c r="FF13" s="1"/>
+      <c r="FG13" s="1"/>
+      <c r="FH13" s="1"/>
+      <c r="FI13" s="1"/>
+      <c r="FJ13" s="1"/>
+      <c r="FK13" s="1"/>
+      <c r="FL13" s="1"/>
+      <c r="FM13" s="1"/>
+      <c r="FN13" s="1"/>
+      <c r="FO13" s="1"/>
+      <c r="FP13" s="1"/>
+      <c r="FQ13" s="1"/>
+      <c r="FR13" s="1"/>
+      <c r="FS13" s="1"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" s="1"/>
+      <c r="FW13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="FY13" s="1"/>
+      <c r="FZ13" s="1"/>
+      <c r="GA13" s="1"/>
+      <c r="GB13" s="1"/>
+      <c r="GC13" s="1"/>
+      <c r="GD13" s="1"/>
+      <c r="GE13" s="1"/>
+      <c r="GF13" s="1"/>
+      <c r="GG13" s="1"/>
+      <c r="GH13" s="1"/>
+      <c r="GI13" s="1"/>
+      <c r="GJ13" s="1"/>
+      <c r="GK13" s="1"/>
+      <c r="GL13" s="1"/>
+      <c r="GM13" s="1"/>
+      <c r="GN13" s="1"/>
+      <c r="GO13" s="1"/>
+      <c r="GP13" s="1"/>
+      <c r="GQ13" s="1"/>
+      <c r="GR13" s="1"/>
+      <c r="GS13" s="1"/>
+      <c r="GT13" s="1"/>
+      <c r="GU13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
+      <c r="GY13" s="1"/>
+      <c r="GZ13" s="1"/>
+      <c r="HA13" s="1"/>
+      <c r="HB13" s="1"/>
+      <c r="HC13" s="1"/>
+      <c r="HD13" s="1"/>
+      <c r="HE13" s="1"/>
+      <c r="HF13" s="1"/>
+      <c r="HG13" s="1"/>
+      <c r="HH13" s="1"/>
+      <c r="HI13" s="1"/>
+      <c r="HJ13" s="1"/>
+      <c r="HK13" s="1"/>
+      <c r="HL13" s="1"/>
+      <c r="HM13" s="1"/>
+      <c r="HN13" s="1"/>
+      <c r="HO13" s="1"/>
+      <c r="HP13" s="1"/>
+      <c r="HQ13" s="1"/>
+      <c r="HR13" s="1"/>
+      <c r="HS13" s="1"/>
+      <c r="HT13" s="1"/>
+      <c r="HU13" s="1"/>
+      <c r="HV13" s="1"/>
+      <c r="HW13" s="1"/>
+      <c r="HX13" s="1"/>
+      <c r="HY13" s="1"/>
+      <c r="HZ13" s="1"/>
+      <c r="IA13" s="1"/>
+      <c r="IB13" s="1"/>
+    </row>
+    <row r="14" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
+        <v>3</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="13"/>
+      <c r="CI14" s="13"/>
+      <c r="CJ14" s="13"/>
+      <c r="CK14" s="13"/>
+      <c r="CL14" s="13"/>
+      <c r="CM14" s="13"/>
+      <c r="CN14" s="13"/>
+      <c r="CO14" s="13"/>
+      <c r="CP14" s="13"/>
+      <c r="CQ14" s="13"/>
+      <c r="CR14" s="13"/>
+      <c r="CS14" s="13"/>
+      <c r="CT14" s="13"/>
+      <c r="CU14" s="13"/>
+      <c r="CV14" s="13"/>
+      <c r="CW14" s="13"/>
+      <c r="CX14" s="13"/>
+      <c r="CY14" s="13"/>
+      <c r="CZ14" s="13"/>
+      <c r="DA14" s="13"/>
+      <c r="DB14" s="13"/>
+      <c r="DC14" s="13"/>
+      <c r="DD14" s="13"/>
+      <c r="DE14" s="13"/>
+      <c r="DF14" s="13"/>
+      <c r="DG14" s="13"/>
+      <c r="DH14" s="13"/>
+      <c r="DI14" s="13"/>
+      <c r="DJ14" s="13"/>
+      <c r="DK14" s="13"/>
+      <c r="DL14" s="13"/>
+      <c r="DM14" s="13"/>
+      <c r="DN14" s="13"/>
+      <c r="DO14" s="13"/>
+      <c r="DP14" s="13"/>
+      <c r="DQ14" s="13"/>
+      <c r="DR14" s="13"/>
+      <c r="DS14" s="13"/>
+      <c r="DT14" s="13"/>
+      <c r="DU14" s="13"/>
+      <c r="DV14" s="13"/>
+      <c r="DW14" s="13"/>
+      <c r="DX14" s="13"/>
+      <c r="DY14" s="13"/>
+      <c r="DZ14" s="13"/>
+      <c r="EA14" s="13"/>
+      <c r="EB14" s="13"/>
+      <c r="EC14" s="13"/>
+      <c r="ED14" s="13"/>
+      <c r="EE14" s="13"/>
+      <c r="EF14" s="13"/>
+      <c r="EG14" s="13"/>
+      <c r="EH14" s="13"/>
+      <c r="EI14" s="13"/>
+      <c r="EJ14" s="13"/>
+      <c r="EK14" s="13"/>
+      <c r="EL14" s="13"/>
+      <c r="EM14" s="13"/>
+      <c r="EN14" s="13"/>
+      <c r="EO14" s="13"/>
+      <c r="EP14" s="13"/>
+      <c r="EQ14" s="13"/>
+      <c r="ER14" s="13"/>
+      <c r="ES14" s="13"/>
+      <c r="ET14" s="13"/>
+      <c r="EU14" s="13"/>
+      <c r="EV14" s="13"/>
+      <c r="EW14" s="13"/>
+      <c r="EX14" s="13"/>
+      <c r="EY14" s="13"/>
+      <c r="EZ14" s="13"/>
+      <c r="FA14" s="13"/>
+      <c r="FB14" s="13"/>
+      <c r="FC14" s="13"/>
+      <c r="FD14" s="13"/>
+      <c r="FE14" s="13"/>
+      <c r="FF14" s="13"/>
+      <c r="FG14" s="13"/>
+      <c r="FH14" s="13"/>
+      <c r="FI14" s="13"/>
+      <c r="FJ14" s="13"/>
+      <c r="FK14" s="13"/>
+      <c r="FL14" s="13"/>
+      <c r="FM14" s="13"/>
+      <c r="FN14" s="13"/>
+      <c r="FO14" s="13"/>
+      <c r="FP14" s="13"/>
+      <c r="FQ14" s="13"/>
+      <c r="FR14" s="13"/>
+      <c r="FS14" s="13"/>
+      <c r="FT14" s="13"/>
+      <c r="FU14" s="13"/>
+      <c r="FV14" s="13"/>
+      <c r="FW14" s="13"/>
+      <c r="FX14" s="13"/>
+      <c r="FY14" s="13"/>
+      <c r="FZ14" s="13"/>
+      <c r="GA14" s="13"/>
+      <c r="GB14" s="13"/>
+      <c r="GC14" s="13"/>
+      <c r="GD14" s="13"/>
+      <c r="GE14" s="13"/>
+      <c r="GF14" s="13"/>
+      <c r="GG14" s="13"/>
+      <c r="GH14" s="13"/>
+      <c r="GI14" s="13"/>
+      <c r="GJ14" s="13"/>
+      <c r="GK14" s="13"/>
+      <c r="GL14" s="13"/>
+      <c r="GM14" s="13"/>
+      <c r="GN14" s="13"/>
+      <c r="GO14" s="13"/>
+      <c r="GP14" s="13"/>
+      <c r="GQ14" s="13"/>
+      <c r="GR14" s="13"/>
+      <c r="GS14" s="13"/>
+      <c r="GT14" s="13"/>
+      <c r="GU14" s="13"/>
+      <c r="GV14" s="13"/>
+      <c r="GW14" s="13"/>
+      <c r="GX14" s="13"/>
+      <c r="GY14" s="13"/>
+      <c r="GZ14" s="13"/>
+      <c r="HA14" s="13"/>
+      <c r="HB14" s="13"/>
+      <c r="HC14" s="13"/>
+      <c r="HD14" s="13"/>
+      <c r="HE14" s="13"/>
+      <c r="HF14" s="13"/>
+      <c r="HG14" s="13"/>
+      <c r="HH14" s="13"/>
+      <c r="HI14" s="13"/>
+      <c r="HJ14" s="13"/>
+      <c r="HK14" s="13"/>
+      <c r="HL14" s="13"/>
+      <c r="HM14" s="13"/>
+      <c r="HN14" s="13"/>
+      <c r="HO14" s="13"/>
+      <c r="HP14" s="13"/>
+      <c r="HQ14" s="13"/>
+      <c r="HR14" s="13"/>
+      <c r="HS14" s="13"/>
+      <c r="HT14" s="13"/>
+      <c r="HU14" s="13"/>
+      <c r="HV14" s="13"/>
+      <c r="HW14" s="13"/>
+      <c r="HX14" s="13"/>
+      <c r="HY14" s="13"/>
+      <c r="HZ14" s="13"/>
+      <c r="IA14" s="13"/>
+      <c r="IB14" s="13"/>
+    </row>
+    <row r="15" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="13"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+      <c r="CK15" s="13"/>
+      <c r="CL15" s="13"/>
+      <c r="CM15" s="13"/>
+      <c r="CN15" s="13"/>
+      <c r="CO15" s="13"/>
+      <c r="CP15" s="13"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="13"/>
+      <c r="CS15" s="13"/>
+      <c r="CT15" s="13"/>
+      <c r="CU15" s="13"/>
+      <c r="CV15" s="13"/>
+      <c r="CW15" s="13"/>
+      <c r="CX15" s="13"/>
+      <c r="CY15" s="13"/>
+      <c r="CZ15" s="13"/>
+      <c r="DA15" s="13"/>
+      <c r="DB15" s="13"/>
+      <c r="DC15" s="13"/>
+      <c r="DD15" s="13"/>
+      <c r="DE15" s="13"/>
+      <c r="DF15" s="13"/>
+      <c r="DG15" s="13"/>
+      <c r="DH15" s="13"/>
+      <c r="DI15" s="13"/>
+      <c r="DJ15" s="13"/>
+      <c r="DK15" s="13"/>
+      <c r="DL15" s="13"/>
+      <c r="DM15" s="13"/>
+      <c r="DN15" s="13"/>
+      <c r="DO15" s="13"/>
+      <c r="DP15" s="13"/>
+      <c r="DQ15" s="13"/>
+      <c r="DR15" s="13"/>
+      <c r="DS15" s="13"/>
+      <c r="DT15" s="13"/>
+      <c r="DU15" s="13"/>
+      <c r="DV15" s="13"/>
+      <c r="DW15" s="13"/>
+      <c r="DX15" s="13"/>
+      <c r="DY15" s="13"/>
+      <c r="DZ15" s="13"/>
+      <c r="EA15" s="13"/>
+      <c r="EB15" s="13"/>
+      <c r="EC15" s="13"/>
+      <c r="ED15" s="13"/>
+      <c r="EE15" s="13"/>
+      <c r="EF15" s="13"/>
+      <c r="EG15" s="13"/>
+      <c r="EH15" s="13"/>
+      <c r="EI15" s="13"/>
+      <c r="EJ15" s="13"/>
+      <c r="EK15" s="13"/>
+      <c r="EL15" s="13"/>
+      <c r="EM15" s="13"/>
+      <c r="EN15" s="13"/>
+      <c r="EO15" s="13"/>
+      <c r="EP15" s="13"/>
+      <c r="EQ15" s="13"/>
+      <c r="ER15" s="13"/>
+      <c r="ES15" s="13"/>
+      <c r="ET15" s="13"/>
+      <c r="EU15" s="13"/>
+      <c r="EV15" s="13"/>
+      <c r="EW15" s="13"/>
+      <c r="EX15" s="13"/>
+      <c r="EY15" s="13"/>
+      <c r="EZ15" s="13"/>
+      <c r="FA15" s="13"/>
+      <c r="FB15" s="13"/>
+      <c r="FC15" s="13"/>
+      <c r="FD15" s="13"/>
+      <c r="FE15" s="13"/>
+      <c r="FF15" s="13"/>
+      <c r="FG15" s="13"/>
+      <c r="FH15" s="13"/>
+      <c r="FI15" s="13"/>
+      <c r="FJ15" s="13"/>
+      <c r="FK15" s="13"/>
+      <c r="FL15" s="13"/>
+      <c r="FM15" s="13"/>
+      <c r="FN15" s="13"/>
+      <c r="FO15" s="13"/>
+      <c r="FP15" s="13"/>
+      <c r="FQ15" s="13"/>
+      <c r="FR15" s="13"/>
+      <c r="FS15" s="13"/>
+      <c r="FT15" s="13"/>
+      <c r="FU15" s="13"/>
+      <c r="FV15" s="13"/>
+      <c r="FW15" s="13"/>
+      <c r="FX15" s="13"/>
+      <c r="FY15" s="13"/>
+      <c r="FZ15" s="13"/>
+      <c r="GA15" s="13"/>
+      <c r="GB15" s="13"/>
+      <c r="GC15" s="13"/>
+      <c r="GD15" s="13"/>
+      <c r="GE15" s="13"/>
+      <c r="GF15" s="13"/>
+      <c r="GG15" s="13"/>
+      <c r="GH15" s="13"/>
+      <c r="GI15" s="13"/>
+      <c r="GJ15" s="13"/>
+      <c r="GK15" s="13"/>
+      <c r="GL15" s="13"/>
+      <c r="GM15" s="13"/>
+      <c r="GN15" s="13"/>
+      <c r="GO15" s="13"/>
+      <c r="GP15" s="13"/>
+      <c r="GQ15" s="13"/>
+      <c r="GR15" s="13"/>
+      <c r="GS15" s="13"/>
+      <c r="GT15" s="13"/>
+      <c r="GU15" s="13"/>
+      <c r="GV15" s="13"/>
+      <c r="GW15" s="13"/>
+      <c r="GX15" s="13"/>
+      <c r="GY15" s="13"/>
+      <c r="GZ15" s="13"/>
+      <c r="HA15" s="13"/>
+      <c r="HB15" s="13"/>
+      <c r="HC15" s="13"/>
+      <c r="HD15" s="13"/>
+      <c r="HE15" s="13"/>
+      <c r="HF15" s="13"/>
+      <c r="HG15" s="13"/>
+      <c r="HH15" s="13"/>
+      <c r="HI15" s="13"/>
+      <c r="HJ15" s="13"/>
+      <c r="HK15" s="13"/>
+      <c r="HL15" s="13"/>
+      <c r="HM15" s="13"/>
+      <c r="HN15" s="13"/>
+      <c r="HO15" s="13"/>
+      <c r="HP15" s="13"/>
+      <c r="HQ15" s="13"/>
+      <c r="HR15" s="13"/>
+      <c r="HS15" s="13"/>
+      <c r="HT15" s="13"/>
+      <c r="HU15" s="13"/>
+      <c r="HV15" s="13"/>
+      <c r="HW15" s="13"/>
+      <c r="HX15" s="13"/>
+      <c r="HY15" s="13"/>
+      <c r="HZ15" s="13"/>
+      <c r="IA15" s="13"/>
+      <c r="IB15" s="13"/>
+    </row>
+    <row r="16" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+      <c r="ED16"/>
+      <c r="EE16"/>
+      <c r="EF16"/>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16"/>
+      <c r="EJ16"/>
+      <c r="EK16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="EQ16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="ET16"/>
+      <c r="EU16"/>
+      <c r="EV16"/>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16"/>
+      <c r="EZ16"/>
+      <c r="FA16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
+      <c r="FF16"/>
+      <c r="FG16"/>
+      <c r="FH16"/>
+      <c r="FI16"/>
+      <c r="FJ16"/>
+      <c r="FK16"/>
+      <c r="FL16"/>
+      <c r="FM16"/>
+      <c r="FN16"/>
+      <c r="FO16"/>
+      <c r="FP16"/>
+      <c r="FQ16"/>
+      <c r="FR16"/>
+      <c r="FS16"/>
+      <c r="FT16"/>
+      <c r="FU16"/>
+      <c r="FV16"/>
+      <c r="FW16"/>
+      <c r="FX16"/>
+      <c r="FY16"/>
+      <c r="FZ16"/>
+      <c r="GA16"/>
+      <c r="GB16"/>
+      <c r="GC16"/>
+      <c r="GD16"/>
+      <c r="GE16"/>
+      <c r="GF16"/>
+      <c r="GG16"/>
+      <c r="GH16"/>
+      <c r="GI16"/>
+      <c r="GJ16"/>
+      <c r="GK16"/>
+      <c r="GL16"/>
+      <c r="GM16"/>
+      <c r="GN16"/>
+      <c r="GO16"/>
+      <c r="GP16"/>
+      <c r="GQ16"/>
+      <c r="GR16"/>
+      <c r="GS16"/>
+      <c r="GT16"/>
+      <c r="GU16"/>
+      <c r="GV16"/>
+      <c r="GW16"/>
+      <c r="GX16"/>
+      <c r="GY16"/>
+      <c r="GZ16"/>
+      <c r="HA16"/>
+      <c r="HB16"/>
+      <c r="HC16"/>
+      <c r="HD16"/>
+      <c r="HE16"/>
+      <c r="HF16"/>
+      <c r="HG16"/>
+      <c r="HH16"/>
+      <c r="HI16"/>
+      <c r="HJ16"/>
+      <c r="HK16"/>
+      <c r="HL16"/>
+      <c r="HM16"/>
+      <c r="HN16"/>
+      <c r="HO16"/>
+      <c r="HP16"/>
+      <c r="HQ16"/>
+      <c r="HR16"/>
+      <c r="HS16"/>
+      <c r="HT16"/>
+      <c r="HU16"/>
+      <c r="HV16"/>
+      <c r="HW16"/>
+      <c r="HX16"/>
+      <c r="HY16"/>
+      <c r="HZ16"/>
+      <c r="IA16"/>
+      <c r="IB16"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="17">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F8 I6:I8 G6">
-    <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F7 J6:J7 H6">
+    <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="272" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 I10">
-    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F17 J17">
+    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="78" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11 J9:J11 H9">
+    <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="18" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="14" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11">
+    <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="10" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15 J13 H13 J15">
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="4" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5669,10 +8301,10 @@
   <dimension ref="A1:II104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5696,12 +8328,12 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="89" t="s">
@@ -5714,12 +8346,12 @@
       <c r="K1" s="89"/>
       <c r="L1" s="89"/>
       <c r="M1" s="93"/>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="88"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="107"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -5951,44 +8583,44 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="71" t="s">
-        <v>145</v>
+      <c r="H2" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>130</v>
       </c>
       <c r="M2" s="93"/>
       <c r="N2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="101" t="s">
         <v>39</v>
       </c>
       <c r="R2" s="38"/>
@@ -6219,27 +8851,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="B3" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="93"/>
       <c r="N3" s="91"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -6468,23 +9100,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="94"/>
       <c r="N4" s="92"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -7213,23 +9845,23 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="A7" s="71">
         <v>1</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="98" t="s">
+      <c r="B7" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>132</v>
+      <c r="E7" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -7470,13 +10102,13 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="98" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="49"/>
@@ -7719,13 +10351,13 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="98" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="63" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="50"/>
@@ -8215,20 +10847,20 @@
       <c r="II10"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="98" t="s">
+      <c r="B11" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>134</v>
+      <c r="E11" s="62" t="s">
+        <v>119</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -8470,14 +11102,14 @@
       <c r="II11" s="13"/>
     </row>
     <row r="12" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="98" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>135</v>
+      <c r="E12" s="62" t="s">
+        <v>120</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>19</v>
@@ -8729,14 +11361,14 @@
       <c r="II12" s="13"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="98" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="97" t="s">
-        <v>136</v>
+      <c r="E13" s="62" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -8984,14 +11616,14 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="98" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="97" t="s">
-        <v>137</v>
+      <c r="E14" s="62" t="s">
+        <v>122</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>19</v>
@@ -9243,14 +11875,14 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="98" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="97" t="s">
-        <v>138</v>
+      <c r="E15" s="62" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
@@ -9743,20 +12375,20 @@
       <c r="II16"/>
     </row>
     <row r="17" spans="1:243" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64">
+      <c r="A17" s="71">
         <v>3</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>126</v>
+      <c r="B17" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>112</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
@@ -9998,9 +12630,9 @@
       <c r="II17" s="13"/>
     </row>
     <row r="18" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="48" t="s">
         <v>46</v>
       </c>
@@ -10257,9 +12889,9 @@
       <c r="II18" s="13"/>
     </row>
     <row r="19" spans="1:243" s="9" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="48" t="s">
         <v>48</v>
       </c>
@@ -10755,13 +13387,13 @@
       <c r="II20"/>
     </row>
     <row r="21" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="64">
+      <c r="A21" s="71">
         <v>4</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -11010,9 +13642,9 @@
       <c r="II21" s="13"/>
     </row>
     <row r="22" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="48" t="s">
         <v>46</v>
       </c>
@@ -11269,9 +13901,9 @@
       <c r="II22" s="13"/>
     </row>
     <row r="23" spans="1:243" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="48" t="s">
         <v>48</v>
       </c>
@@ -11773,13 +14405,13 @@
       <c r="II24"/>
     </row>
     <row r="25" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="48" t="s">
@@ -11803,9 +14435,9 @@
       <c r="R25" s="38"/>
     </row>
     <row r="26" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="48" t="s">
         <v>46</v>
       </c>
@@ -11837,9 +14469,9 @@
       <c r="R26" s="38"/>
     </row>
     <row r="27" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="48" t="s">
         <v>48</v>
       </c>
@@ -11885,13 +14517,13 @@
       <c r="R28" s="58"/>
     </row>
     <row r="29" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -11915,9 +14547,9 @@
       <c r="R29" s="38"/>
     </row>
     <row r="30" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="48" t="s">
         <v>46</v>
       </c>
@@ -11949,9 +14581,9 @@
       <c r="R30" s="38"/>
     </row>
     <row r="31" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
@@ -11999,13 +14631,13 @@
       <c r="R32" s="58"/>
     </row>
     <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -12029,9 +14661,9 @@
       <c r="R33" s="38"/>
     </row>
     <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="48" t="s">
         <v>46</v>
       </c>
@@ -12063,9 +14695,9 @@
       <c r="R34" s="38"/>
     </row>
     <row r="35" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="48" t="s">
         <v>48</v>
       </c>
@@ -12111,13 +14743,13 @@
       <c r="R36" s="58"/>
     </row>
     <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="48" t="s">
@@ -12141,9 +14773,9 @@
       <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="48" t="s">
         <v>46</v>
       </c>
@@ -12175,9 +14807,9 @@
       <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="48" t="s">
         <v>48</v>
       </c>
@@ -12229,13 +14861,13 @@
       <c r="R40" s="58"/>
     </row>
     <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="48" t="s">
@@ -12259,9 +14891,9 @@
       <c r="R41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="48" t="s">
         <v>46</v>
       </c>
@@ -12293,9 +14925,9 @@
       <c r="R42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="48" t="s">
         <v>48</v>
       </c>
@@ -12341,13 +14973,13 @@
       <c r="R44" s="58"/>
     </row>
     <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="48" t="s">
@@ -12371,9 +15003,9 @@
       <c r="R45" s="38"/>
     </row>
     <row r="46" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="48" t="s">
         <v>46</v>
       </c>
@@ -12405,9 +15037,9 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="48" t="s">
         <v>48</v>
       </c>
@@ -12455,13 +15087,13 @@
       <c r="R48" s="58"/>
     </row>
     <row r="49" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="48" t="s">
@@ -12485,9 +15117,9 @@
       <c r="R49" s="38"/>
     </row>
     <row r="50" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="48" t="s">
         <v>46</v>
       </c>
@@ -12519,9 +15151,9 @@
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="48" t="s">
         <v>48</v>
       </c>
@@ -12567,13 +15199,13 @@
       <c r="R52" s="58"/>
     </row>
     <row r="53" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -12597,9 +15229,9 @@
       <c r="R53" s="38"/>
     </row>
     <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="48" t="s">
         <v>46</v>
       </c>
@@ -12631,9 +15263,9 @@
       <c r="R54" s="38"/>
     </row>
     <row r="55" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="48" t="s">
         <v>48</v>
       </c>
@@ -12685,13 +15317,13 @@
       <c r="R56" s="58"/>
     </row>
     <row r="57" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="48" t="s">
@@ -12715,9 +15347,9 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="64"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="48" t="s">
         <v>46</v>
       </c>
@@ -12749,9 +15381,9 @@
       <c r="R58" s="38"/>
     </row>
     <row r="59" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="48" t="s">
         <v>48</v>
       </c>
@@ -12797,13 +15429,13 @@
       <c r="R60" s="58"/>
     </row>
     <row r="61" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="48" t="s">
@@ -12827,9 +15459,9 @@
       <c r="R61" s="38"/>
     </row>
     <row r="62" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="48" t="s">
         <v>46</v>
       </c>
@@ -12861,9 +15493,9 @@
       <c r="R62" s="38"/>
     </row>
     <row r="63" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="48" t="s">
         <v>48</v>
       </c>
@@ -12911,13 +15543,13 @@
       <c r="R64" s="58"/>
     </row>
     <row r="65" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="48" t="s">
@@ -12941,9 +15573,9 @@
       <c r="R65" s="38"/>
     </row>
     <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="48" t="s">
         <v>46</v>
       </c>
@@ -12975,9 +15607,9 @@
       <c r="R66" s="38"/>
     </row>
     <row r="67" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
       <c r="D67" s="48" t="s">
         <v>48</v>
       </c>
@@ -13023,13 +15655,13 @@
       <c r="R68" s="58"/>
     </row>
     <row r="69" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="48" t="s">
@@ -13053,9 +15685,9 @@
       <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="64"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="98"/>
       <c r="D70" s="48" t="s">
         <v>46</v>
       </c>
@@ -13087,9 +15719,9 @@
       <c r="R70" s="38"/>
     </row>
     <row r="71" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
       <c r="D71" s="48" t="s">
         <v>48</v>
       </c>
@@ -13141,13 +15773,13 @@
       <c r="R72" s="58"/>
     </row>
     <row r="73" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="48" t="s">
@@ -13171,9 +15803,9 @@
       <c r="R73" s="38"/>
     </row>
     <row r="74" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="64"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
       <c r="D74" s="48" t="s">
         <v>46</v>
       </c>
@@ -13205,9 +15837,9 @@
       <c r="R74" s="38"/>
     </row>
     <row r="75" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="48" t="s">
         <v>48</v>
       </c>
@@ -13253,13 +15885,13 @@
       <c r="R76" s="58"/>
     </row>
     <row r="77" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="63" t="s">
+      <c r="A77" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="65" t="s">
+      <c r="C77" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="48" t="s">
@@ -13283,9 +15915,9 @@
       <c r="R77" s="38"/>
     </row>
     <row r="78" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="48" t="s">
         <v>46</v>
       </c>
@@ -13317,9 +15949,9 @@
       <c r="R78" s="38"/>
     </row>
     <row r="79" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="48" t="s">
         <v>48</v>
       </c>
@@ -13367,13 +15999,13 @@
       <c r="R80" s="58"/>
     </row>
     <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="48" t="s">
@@ -13397,9 +16029,9 @@
       <c r="R81" s="38"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="64"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="48" t="s">
         <v>46</v>
       </c>
@@ -13431,9 +16063,9 @@
       <c r="R82" s="38"/>
     </row>
     <row r="83" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
       <c r="D83" s="48" t="s">
         <v>48</v>
       </c>
@@ -13479,13 +16111,13 @@
       <c r="R84" s="58"/>
     </row>
     <row r="85" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="48" t="s">
@@ -13509,9 +16141,9 @@
       <c r="R85" s="38"/>
     </row>
     <row r="86" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="98"/>
       <c r="D86" s="48" t="s">
         <v>46</v>
       </c>
@@ -13543,9 +16175,9 @@
       <c r="R86" s="38"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
       <c r="D87" s="48" t="s">
         <v>48</v>
       </c>
@@ -13597,13 +16229,13 @@
       <c r="R88" s="58"/>
     </row>
     <row r="89" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="63" t="s">
+      <c r="A89" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="65" t="s">
+      <c r="B89" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="48" t="s">
@@ -13627,9 +16259,9 @@
       <c r="R89" s="38"/>
     </row>
     <row r="90" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="98"/>
       <c r="D90" s="48" t="s">
         <v>46</v>
       </c>
@@ -13661,9 +16293,9 @@
       <c r="R90" s="38"/>
     </row>
     <row r="91" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
+      <c r="A91" s="71"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="98"/>
       <c r="D91" s="48" t="s">
         <v>48</v>
       </c>
@@ -13709,13 +16341,13 @@
       <c r="R92" s="58"/>
     </row>
     <row r="93" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="63" t="s">
+      <c r="A93" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="48" t="s">
@@ -13739,9 +16371,9 @@
       <c r="R93" s="38"/>
     </row>
     <row r="94" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="64"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
       <c r="D94" s="48" t="s">
         <v>46</v>
       </c>
@@ -13773,9 +16405,9 @@
       <c r="R94" s="38"/>
     </row>
     <row r="95" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
       <c r="D95" s="48" t="s">
         <v>48</v>
       </c>
@@ -13823,13 +16455,13 @@
       <c r="R96" s="58"/>
     </row>
     <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="48" t="s">
@@ -13853,9 +16485,9 @@
       <c r="R97" s="38"/>
     </row>
     <row r="98" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="64"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="48" t="s">
         <v>46</v>
       </c>
@@ -13887,9 +16519,9 @@
       <c r="R98" s="38"/>
     </row>
     <row r="99" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
+      <c r="A99" s="71"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="98"/>
       <c r="D99" s="48" t="s">
         <v>48</v>
       </c>
@@ -13935,13 +16567,13 @@
       <c r="R100" s="58"/>
     </row>
     <row r="101" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="48" t="s">
@@ -13965,9 +16597,9 @@
       <c r="R101" s="38"/>
     </row>
     <row r="102" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="64"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="98"/>
       <c r="D102" s="48" t="s">
         <v>46</v>
       </c>
@@ -13999,9 +16631,9 @@
       <c r="R102" s="38"/>
     </row>
     <row r="103" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
       <c r="D103" s="48" t="s">
         <v>48</v>
       </c>
@@ -14150,7 +16782,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14158,7 +16790,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14166,7 +16798,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14174,7 +16806,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14182,7 +16814,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14190,7 +16822,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14198,7 +16830,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14206,7 +16838,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14214,7 +16846,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14222,7 +16854,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14230,7 +16862,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14238,7 +16870,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14246,7 +16878,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14254,7 +16886,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14262,7 +16894,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14270,7 +16902,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14278,7 +16910,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14286,7 +16918,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14294,7 +16926,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14302,7 +16934,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14310,7 +16942,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14318,7 +16950,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14326,7 +16958,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14334,7 +16966,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14342,7 +16974,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14350,7 +16982,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14358,7 +16990,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14366,7 +16998,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14374,7 +17006,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14382,7 +17014,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14390,7 +17022,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14398,7 +17030,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14406,7 +17038,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14414,7 +17046,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14422,7 +17054,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14430,7 +17062,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14438,7 +17070,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14446,7 +17078,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14454,7 +17086,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14462,7 +17094,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14477,13 +17109,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan5"/>
-  <dimension ref="A1:IB11"/>
+  <dimension ref="A1:IC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14493,25 +17125,25 @@
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" customWidth="1"/>
     <col min="5" max="5" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4" style="14" customWidth="1"/>
-    <col min="12" max="12" width="4" style="11" customWidth="1"/>
-    <col min="13" max="20" width="4" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="4" style="12"/>
+    <col min="6" max="9" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4" style="14" customWidth="1"/>
+    <col min="13" max="13" width="4" style="11" customWidth="1"/>
+    <col min="14" max="21" width="4" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="4" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:236" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:237" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="89" t="s">
@@ -14519,12 +17151,12 @@
       </c>
       <c r="G1" s="89"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="60" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="1"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -14749,32 +17381,35 @@
       <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
     </row>
-    <row r="2" spans="1:236" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:237" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
+      <c r="B2" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="1"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="93"/>
+      <c r="K2" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="38"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -14999,24 +17634,25 @@
       <c r="HZ2" s="1"/>
       <c r="IA2" s="1"/>
       <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
     </row>
-    <row r="3" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -15241,20 +17877,21 @@
       <c r="HZ3" s="1"/>
       <c r="IA3" s="1"/>
       <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
     </row>
-    <row r="4" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="1"/>
+    <row r="4" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -15479,8 +18116,9 @@
       <c r="HZ4" s="1"/>
       <c r="IA4" s="1"/>
       <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
     </row>
-    <row r="5" spans="1:236" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:237" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -15489,10 +18127,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -15717,8 +18355,9 @@
       <c r="HZ5" s="1"/>
       <c r="IA5" s="1"/>
       <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
     </row>
-    <row r="6" spans="1:236" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:237" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
@@ -15737,10 +18376,10 @@
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -15965,34 +18604,33 @@
       <c r="HZ6" s="1"/>
       <c r="IA6" s="1"/>
       <c r="IB6" s="1"/>
+      <c r="IC6" s="1"/>
     </row>
-    <row r="7" spans="1:236" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+    <row r="7" spans="1:237" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
         <v>1</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="13"/>
+      <c r="B7" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -16217,516 +18855,298 @@
       <c r="HZ7" s="13"/>
       <c r="IA7" s="13"/>
       <c r="IB7" s="13"/>
+      <c r="IC7" s="13"/>
     </row>
-    <row r="8" spans="1:236" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="13"/>
-      <c r="BY8" s="13"/>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="13"/>
-      <c r="CI8" s="13"/>
-      <c r="CJ8" s="13"/>
-      <c r="CK8" s="13"/>
-      <c r="CL8" s="13"/>
-      <c r="CM8" s="13"/>
-      <c r="CN8" s="13"/>
-      <c r="CO8" s="13"/>
-      <c r="CP8" s="13"/>
-      <c r="CQ8" s="13"/>
-      <c r="CR8" s="13"/>
-      <c r="CS8" s="13"/>
-      <c r="CT8" s="13"/>
-      <c r="CU8" s="13"/>
-      <c r="CV8" s="13"/>
-      <c r="CW8" s="13"/>
-      <c r="CX8" s="13"/>
-      <c r="CY8" s="13"/>
-      <c r="CZ8" s="13"/>
-      <c r="DA8" s="13"/>
-      <c r="DB8" s="13"/>
-      <c r="DC8" s="13"/>
-      <c r="DD8" s="13"/>
-      <c r="DE8" s="13"/>
-      <c r="DF8" s="13"/>
-      <c r="DG8" s="13"/>
-      <c r="DH8" s="13"/>
-      <c r="DI8" s="13"/>
-      <c r="DJ8" s="13"/>
-      <c r="DK8" s="13"/>
-      <c r="DL8" s="13"/>
-      <c r="DM8" s="13"/>
-      <c r="DN8" s="13"/>
-      <c r="DO8" s="13"/>
-      <c r="DP8" s="13"/>
-      <c r="DQ8" s="13"/>
-      <c r="DR8" s="13"/>
-      <c r="DS8" s="13"/>
-      <c r="DT8" s="13"/>
-      <c r="DU8" s="13"/>
-      <c r="DV8" s="13"/>
-      <c r="DW8" s="13"/>
-      <c r="DX8" s="13"/>
-      <c r="DY8" s="13"/>
-      <c r="DZ8" s="13"/>
-      <c r="EA8" s="13"/>
-      <c r="EB8" s="13"/>
-      <c r="EC8" s="13"/>
-      <c r="ED8" s="13"/>
-      <c r="EE8" s="13"/>
-      <c r="EF8" s="13"/>
-      <c r="EG8" s="13"/>
-      <c r="EH8" s="13"/>
-      <c r="EI8" s="13"/>
-      <c r="EJ8" s="13"/>
-      <c r="EK8" s="13"/>
-      <c r="EL8" s="13"/>
-      <c r="EM8" s="13"/>
-      <c r="EN8" s="13"/>
-      <c r="EO8" s="13"/>
-      <c r="EP8" s="13"/>
-      <c r="EQ8" s="13"/>
-      <c r="ER8" s="13"/>
-      <c r="ES8" s="13"/>
-      <c r="ET8" s="13"/>
-      <c r="EU8" s="13"/>
-      <c r="EV8" s="13"/>
-      <c r="EW8" s="13"/>
-      <c r="EX8" s="13"/>
-      <c r="EY8" s="13"/>
-      <c r="EZ8" s="13"/>
-      <c r="FA8" s="13"/>
-      <c r="FB8" s="13"/>
-      <c r="FC8" s="13"/>
-      <c r="FD8" s="13"/>
-      <c r="FE8" s="13"/>
-      <c r="FF8" s="13"/>
-      <c r="FG8" s="13"/>
-      <c r="FH8" s="13"/>
-      <c r="FI8" s="13"/>
-      <c r="FJ8" s="13"/>
-      <c r="FK8" s="13"/>
-      <c r="FL8" s="13"/>
-      <c r="FM8" s="13"/>
-      <c r="FN8" s="13"/>
-      <c r="FO8" s="13"/>
-      <c r="FP8" s="13"/>
-      <c r="FQ8" s="13"/>
-      <c r="FR8" s="13"/>
-      <c r="FS8" s="13"/>
-      <c r="FT8" s="13"/>
-      <c r="FU8" s="13"/>
-      <c r="FV8" s="13"/>
-      <c r="FW8" s="13"/>
-      <c r="FX8" s="13"/>
-      <c r="FY8" s="13"/>
-      <c r="FZ8" s="13"/>
-      <c r="GA8" s="13"/>
-      <c r="GB8" s="13"/>
-      <c r="GC8" s="13"/>
-      <c r="GD8" s="13"/>
-      <c r="GE8" s="13"/>
-      <c r="GF8" s="13"/>
-      <c r="GG8" s="13"/>
-      <c r="GH8" s="13"/>
-      <c r="GI8" s="13"/>
-      <c r="GJ8" s="13"/>
-      <c r="GK8" s="13"/>
-      <c r="GL8" s="13"/>
-      <c r="GM8" s="13"/>
-      <c r="GN8" s="13"/>
-      <c r="GO8" s="13"/>
-      <c r="GP8" s="13"/>
-      <c r="GQ8" s="13"/>
-      <c r="GR8" s="13"/>
-      <c r="GS8" s="13"/>
-      <c r="GT8" s="13"/>
-      <c r="GU8" s="13"/>
-      <c r="GV8" s="13"/>
-      <c r="GW8" s="13"/>
-      <c r="GX8" s="13"/>
-      <c r="GY8" s="13"/>
-      <c r="GZ8" s="13"/>
-      <c r="HA8" s="13"/>
-      <c r="HB8" s="13"/>
-      <c r="HC8" s="13"/>
-      <c r="HD8" s="13"/>
-      <c r="HE8" s="13"/>
-      <c r="HF8" s="13"/>
-      <c r="HG8" s="13"/>
-      <c r="HH8" s="13"/>
-      <c r="HI8" s="13"/>
-      <c r="HJ8" s="13"/>
-      <c r="HK8" s="13"/>
-      <c r="HL8" s="13"/>
-      <c r="HM8" s="13"/>
-      <c r="HN8" s="13"/>
-      <c r="HO8" s="13"/>
-      <c r="HP8" s="13"/>
-      <c r="HQ8" s="13"/>
-      <c r="HR8" s="13"/>
-      <c r="HS8" s="13"/>
-      <c r="HT8" s="13"/>
-      <c r="HU8" s="13"/>
-      <c r="HV8" s="13"/>
-      <c r="HW8" s="13"/>
-      <c r="HX8" s="13"/>
-      <c r="HY8" s="13"/>
-      <c r="HZ8" s="13"/>
-      <c r="IA8" s="13"/>
-      <c r="IB8" s="13"/>
+    <row r="8" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
     </row>
-    <row r="9" spans="1:236" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
-      <c r="BQ9" s="13"/>
-      <c r="BR9" s="13"/>
-      <c r="BS9" s="13"/>
-      <c r="BT9" s="13"/>
-      <c r="BU9" s="13"/>
-      <c r="BV9" s="13"/>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="13"/>
-      <c r="BZ9" s="13"/>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="13"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="13"/>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="13"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="13"/>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="13"/>
-      <c r="CK9" s="13"/>
-      <c r="CL9" s="13"/>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="13"/>
-      <c r="CO9" s="13"/>
-      <c r="CP9" s="13"/>
-      <c r="CQ9" s="13"/>
-      <c r="CR9" s="13"/>
-      <c r="CS9" s="13"/>
-      <c r="CT9" s="13"/>
-      <c r="CU9" s="13"/>
-      <c r="CV9" s="13"/>
-      <c r="CW9" s="13"/>
-      <c r="CX9" s="13"/>
-      <c r="CY9" s="13"/>
-      <c r="CZ9" s="13"/>
-      <c r="DA9" s="13"/>
-      <c r="DB9" s="13"/>
-      <c r="DC9" s="13"/>
-      <c r="DD9" s="13"/>
-      <c r="DE9" s="13"/>
-      <c r="DF9" s="13"/>
-      <c r="DG9" s="13"/>
-      <c r="DH9" s="13"/>
-      <c r="DI9" s="13"/>
-      <c r="DJ9" s="13"/>
-      <c r="DK9" s="13"/>
-      <c r="DL9" s="13"/>
-      <c r="DM9" s="13"/>
-      <c r="DN9" s="13"/>
-      <c r="DO9" s="13"/>
-      <c r="DP9" s="13"/>
-      <c r="DQ9" s="13"/>
-      <c r="DR9" s="13"/>
-      <c r="DS9" s="13"/>
-      <c r="DT9" s="13"/>
-      <c r="DU9" s="13"/>
-      <c r="DV9" s="13"/>
-      <c r="DW9" s="13"/>
-      <c r="DX9" s="13"/>
-      <c r="DY9" s="13"/>
-      <c r="DZ9" s="13"/>
-      <c r="EA9" s="13"/>
-      <c r="EB9" s="13"/>
-      <c r="EC9" s="13"/>
-      <c r="ED9" s="13"/>
-      <c r="EE9" s="13"/>
-      <c r="EF9" s="13"/>
-      <c r="EG9" s="13"/>
-      <c r="EH9" s="13"/>
-      <c r="EI9" s="13"/>
-      <c r="EJ9" s="13"/>
-      <c r="EK9" s="13"/>
-      <c r="EL9" s="13"/>
-      <c r="EM9" s="13"/>
-      <c r="EN9" s="13"/>
-      <c r="EO9" s="13"/>
-      <c r="EP9" s="13"/>
-      <c r="EQ9" s="13"/>
-      <c r="ER9" s="13"/>
-      <c r="ES9" s="13"/>
-      <c r="ET9" s="13"/>
-      <c r="EU9" s="13"/>
-      <c r="EV9" s="13"/>
-      <c r="EW9" s="13"/>
-      <c r="EX9" s="13"/>
-      <c r="EY9" s="13"/>
-      <c r="EZ9" s="13"/>
-      <c r="FA9" s="13"/>
-      <c r="FB9" s="13"/>
-      <c r="FC9" s="13"/>
-      <c r="FD9" s="13"/>
-      <c r="FE9" s="13"/>
-      <c r="FF9" s="13"/>
-      <c r="FG9" s="13"/>
-      <c r="FH9" s="13"/>
-      <c r="FI9" s="13"/>
-      <c r="FJ9" s="13"/>
-      <c r="FK9" s="13"/>
-      <c r="FL9" s="13"/>
-      <c r="FM9" s="13"/>
-      <c r="FN9" s="13"/>
-      <c r="FO9" s="13"/>
-      <c r="FP9" s="13"/>
-      <c r="FQ9" s="13"/>
-      <c r="FR9" s="13"/>
-      <c r="FS9" s="13"/>
-      <c r="FT9" s="13"/>
-      <c r="FU9" s="13"/>
-      <c r="FV9" s="13"/>
-      <c r="FW9" s="13"/>
-      <c r="FX9" s="13"/>
-      <c r="FY9" s="13"/>
-      <c r="FZ9" s="13"/>
-      <c r="GA9" s="13"/>
-      <c r="GB9" s="13"/>
-      <c r="GC9" s="13"/>
-      <c r="GD9" s="13"/>
-      <c r="GE9" s="13"/>
-      <c r="GF9" s="13"/>
-      <c r="GG9" s="13"/>
-      <c r="GH9" s="13"/>
-      <c r="GI9" s="13"/>
-      <c r="GJ9" s="13"/>
-      <c r="GK9" s="13"/>
-      <c r="GL9" s="13"/>
-      <c r="GM9" s="13"/>
-      <c r="GN9" s="13"/>
-      <c r="GO9" s="13"/>
-      <c r="GP9" s="13"/>
-      <c r="GQ9" s="13"/>
-      <c r="GR9" s="13"/>
-      <c r="GS9" s="13"/>
-      <c r="GT9" s="13"/>
-      <c r="GU9" s="13"/>
-      <c r="GV9" s="13"/>
-      <c r="GW9" s="13"/>
-      <c r="GX9" s="13"/>
-      <c r="GY9" s="13"/>
-      <c r="GZ9" s="13"/>
-      <c r="HA9" s="13"/>
-      <c r="HB9" s="13"/>
-      <c r="HC9" s="13"/>
-      <c r="HD9" s="13"/>
-      <c r="HE9" s="13"/>
-      <c r="HF9" s="13"/>
-      <c r="HG9" s="13"/>
-      <c r="HH9" s="13"/>
-      <c r="HI9" s="13"/>
-      <c r="HJ9" s="13"/>
-      <c r="HK9" s="13"/>
-      <c r="HL9" s="13"/>
-      <c r="HM9" s="13"/>
-      <c r="HN9" s="13"/>
-      <c r="HO9" s="13"/>
-      <c r="HP9" s="13"/>
-      <c r="HQ9" s="13"/>
-      <c r="HR9" s="13"/>
-      <c r="HS9" s="13"/>
-      <c r="HT9" s="13"/>
-      <c r="HU9" s="13"/>
-      <c r="HV9" s="13"/>
-      <c r="HW9" s="13"/>
-      <c r="HX9" s="13"/>
-      <c r="HY9" s="13"/>
-      <c r="HZ9" s="13"/>
-      <c r="IA9" s="13"/>
-      <c r="IB9" s="13"/>
+    <row r="9" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
+      <c r="ES9" s="1"/>
+      <c r="ET9" s="1"/>
+      <c r="EU9" s="1"/>
+      <c r="EV9" s="1"/>
+      <c r="EW9" s="1"/>
+      <c r="EX9" s="1"/>
+      <c r="EY9" s="1"/>
+      <c r="EZ9" s="1"/>
+      <c r="FA9" s="1"/>
+      <c r="FB9" s="1"/>
+      <c r="FC9" s="1"/>
+      <c r="FD9" s="1"/>
+      <c r="FE9" s="1"/>
+      <c r="FF9" s="1"/>
+      <c r="FG9" s="1"/>
+      <c r="FH9" s="1"/>
+      <c r="FI9" s="1"/>
+      <c r="FJ9" s="1"/>
+      <c r="FK9" s="1"/>
+      <c r="FL9" s="1"/>
+      <c r="FM9" s="1"/>
+      <c r="FN9" s="1"/>
+      <c r="FO9" s="1"/>
+      <c r="FP9" s="1"/>
+      <c r="FQ9" s="1"/>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+      <c r="FZ9" s="1"/>
+      <c r="GA9" s="1"/>
+      <c r="GB9" s="1"/>
+      <c r="GC9" s="1"/>
+      <c r="GD9" s="1"/>
+      <c r="GE9" s="1"/>
+      <c r="GF9" s="1"/>
+      <c r="GG9" s="1"/>
+      <c r="GH9" s="1"/>
+      <c r="GI9" s="1"/>
+      <c r="GJ9" s="1"/>
+      <c r="GK9" s="1"/>
+      <c r="GL9" s="1"/>
+      <c r="GM9" s="1"/>
+      <c r="GN9" s="1"/>
+      <c r="GO9" s="1"/>
+      <c r="GP9" s="1"/>
+      <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
+      <c r="GZ9" s="1"/>
+      <c r="HA9" s="1"/>
+      <c r="HB9" s="1"/>
+      <c r="HC9" s="1"/>
+      <c r="HD9" s="1"/>
+      <c r="HE9" s="1"/>
+      <c r="HF9" s="1"/>
+      <c r="HG9" s="1"/>
+      <c r="HH9" s="1"/>
+      <c r="HI9" s="1"/>
+      <c r="HJ9" s="1"/>
+      <c r="HK9" s="1"/>
+      <c r="HL9" s="1"/>
+      <c r="HM9" s="1"/>
+      <c r="HN9" s="1"/>
+      <c r="HO9" s="1"/>
+      <c r="HP9" s="1"/>
+      <c r="HQ9" s="1"/>
+      <c r="HR9" s="1"/>
+      <c r="HS9" s="1"/>
+      <c r="HT9" s="1"/>
+      <c r="HU9" s="1"/>
+      <c r="HV9" s="1"/>
+      <c r="HW9" s="1"/>
+      <c r="HX9" s="1"/>
+      <c r="HY9" s="1"/>
+      <c r="HZ9" s="1"/>
+      <c r="IA9" s="1"/>
+      <c r="IB9" s="1"/>
+      <c r="IC9" s="1"/>
     </row>
-    <row r="10" spans="1:236" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="13"/>
+    <row r="10" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="71">
+        <v>2</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="38"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -16951,119 +19371,2142 @@
       <c r="HZ10" s="13"/>
       <c r="IA10" s="13"/>
       <c r="IB10" s="13"/>
+      <c r="IC10" s="13"/>
     </row>
-    <row r="11" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+    <row r="11" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="71"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="13"/>
+      <c r="CM11" s="13"/>
+      <c r="CN11" s="13"/>
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="13"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
+      <c r="CU11" s="13"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="13"/>
+      <c r="DG11" s="13"/>
+      <c r="DH11" s="13"/>
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="13"/>
+      <c r="DK11" s="13"/>
+      <c r="DL11" s="13"/>
+      <c r="DM11" s="13"/>
+      <c r="DN11" s="13"/>
+      <c r="DO11" s="13"/>
+      <c r="DP11" s="13"/>
+      <c r="DQ11" s="13"/>
+      <c r="DR11" s="13"/>
+      <c r="DS11" s="13"/>
+      <c r="DT11" s="13"/>
+      <c r="DU11" s="13"/>
+      <c r="DV11" s="13"/>
+      <c r="DW11" s="13"/>
+      <c r="DX11" s="13"/>
+      <c r="DY11" s="13"/>
+      <c r="DZ11" s="13"/>
+      <c r="EA11" s="13"/>
+      <c r="EB11" s="13"/>
+      <c r="EC11" s="13"/>
+      <c r="ED11" s="13"/>
+      <c r="EE11" s="13"/>
+      <c r="EF11" s="13"/>
+      <c r="EG11" s="13"/>
+      <c r="EH11" s="13"/>
+      <c r="EI11" s="13"/>
+      <c r="EJ11" s="13"/>
+      <c r="EK11" s="13"/>
+      <c r="EL11" s="13"/>
+      <c r="EM11" s="13"/>
+      <c r="EN11" s="13"/>
+      <c r="EO11" s="13"/>
+      <c r="EP11" s="13"/>
+      <c r="EQ11" s="13"/>
+      <c r="ER11" s="13"/>
+      <c r="ES11" s="13"/>
+      <c r="ET11" s="13"/>
+      <c r="EU11" s="13"/>
+      <c r="EV11" s="13"/>
+      <c r="EW11" s="13"/>
+      <c r="EX11" s="13"/>
+      <c r="EY11" s="13"/>
+      <c r="EZ11" s="13"/>
+      <c r="FA11" s="13"/>
+      <c r="FB11" s="13"/>
+      <c r="FC11" s="13"/>
+      <c r="FD11" s="13"/>
+      <c r="FE11" s="13"/>
+      <c r="FF11" s="13"/>
+      <c r="FG11" s="13"/>
+      <c r="FH11" s="13"/>
+      <c r="FI11" s="13"/>
+      <c r="FJ11" s="13"/>
+      <c r="FK11" s="13"/>
+      <c r="FL11" s="13"/>
+      <c r="FM11" s="13"/>
+      <c r="FN11" s="13"/>
+      <c r="FO11" s="13"/>
+      <c r="FP11" s="13"/>
+      <c r="FQ11" s="13"/>
+      <c r="FR11" s="13"/>
+      <c r="FS11" s="13"/>
+      <c r="FT11" s="13"/>
+      <c r="FU11" s="13"/>
+      <c r="FV11" s="13"/>
+      <c r="FW11" s="13"/>
+      <c r="FX11" s="13"/>
+      <c r="FY11" s="13"/>
+      <c r="FZ11" s="13"/>
+      <c r="GA11" s="13"/>
+      <c r="GB11" s="13"/>
+      <c r="GC11" s="13"/>
+      <c r="GD11" s="13"/>
+      <c r="GE11" s="13"/>
+      <c r="GF11" s="13"/>
+      <c r="GG11" s="13"/>
+      <c r="GH11" s="13"/>
+      <c r="GI11" s="13"/>
+      <c r="GJ11" s="13"/>
+      <c r="GK11" s="13"/>
+      <c r="GL11" s="13"/>
+      <c r="GM11" s="13"/>
+      <c r="GN11" s="13"/>
+      <c r="GO11" s="13"/>
+      <c r="GP11" s="13"/>
+      <c r="GQ11" s="13"/>
+      <c r="GR11" s="13"/>
+      <c r="GS11" s="13"/>
+      <c r="GT11" s="13"/>
+      <c r="GU11" s="13"/>
+      <c r="GV11" s="13"/>
+      <c r="GW11" s="13"/>
+      <c r="GX11" s="13"/>
+      <c r="GY11" s="13"/>
+      <c r="GZ11" s="13"/>
+      <c r="HA11" s="13"/>
+      <c r="HB11" s="13"/>
+      <c r="HC11" s="13"/>
+      <c r="HD11" s="13"/>
+      <c r="HE11" s="13"/>
+      <c r="HF11" s="13"/>
+      <c r="HG11" s="13"/>
+      <c r="HH11" s="13"/>
+      <c r="HI11" s="13"/>
+      <c r="HJ11" s="13"/>
+      <c r="HK11" s="13"/>
+      <c r="HL11" s="13"/>
+      <c r="HM11" s="13"/>
+      <c r="HN11" s="13"/>
+      <c r="HO11" s="13"/>
+      <c r="HP11" s="13"/>
+      <c r="HQ11" s="13"/>
+      <c r="HR11" s="13"/>
+      <c r="HS11" s="13"/>
+      <c r="HT11" s="13"/>
+      <c r="HU11" s="13"/>
+      <c r="HV11" s="13"/>
+      <c r="HW11" s="13"/>
+      <c r="HX11" s="13"/>
+      <c r="HY11" s="13"/>
+      <c r="HZ11" s="13"/>
+      <c r="IA11" s="13"/>
+      <c r="IB11" s="13"/>
+      <c r="IC11" s="13"/>
+    </row>
+    <row r="12" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="13"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13"/>
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="13"/>
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="13"/>
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="13"/>
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="13"/>
+      <c r="CU12" s="13"/>
+      <c r="CV12" s="13"/>
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="13"/>
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13"/>
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="13"/>
+      <c r="DC12" s="13"/>
+      <c r="DD12" s="13"/>
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="13"/>
+      <c r="DG12" s="13"/>
+      <c r="DH12" s="13"/>
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="13"/>
+      <c r="DK12" s="13"/>
+      <c r="DL12" s="13"/>
+      <c r="DM12" s="13"/>
+      <c r="DN12" s="13"/>
+      <c r="DO12" s="13"/>
+      <c r="DP12" s="13"/>
+      <c r="DQ12" s="13"/>
+      <c r="DR12" s="13"/>
+      <c r="DS12" s="13"/>
+      <c r="DT12" s="13"/>
+      <c r="DU12" s="13"/>
+      <c r="DV12" s="13"/>
+      <c r="DW12" s="13"/>
+      <c r="DX12" s="13"/>
+      <c r="DY12" s="13"/>
+      <c r="DZ12" s="13"/>
+      <c r="EA12" s="13"/>
+      <c r="EB12" s="13"/>
+      <c r="EC12" s="13"/>
+      <c r="ED12" s="13"/>
+      <c r="EE12" s="13"/>
+      <c r="EF12" s="13"/>
+      <c r="EG12" s="13"/>
+      <c r="EH12" s="13"/>
+      <c r="EI12" s="13"/>
+      <c r="EJ12" s="13"/>
+      <c r="EK12" s="13"/>
+      <c r="EL12" s="13"/>
+      <c r="EM12" s="13"/>
+      <c r="EN12" s="13"/>
+      <c r="EO12" s="13"/>
+      <c r="EP12" s="13"/>
+      <c r="EQ12" s="13"/>
+      <c r="ER12" s="13"/>
+      <c r="ES12" s="13"/>
+      <c r="ET12" s="13"/>
+      <c r="EU12" s="13"/>
+      <c r="EV12" s="13"/>
+      <c r="EW12" s="13"/>
+      <c r="EX12" s="13"/>
+      <c r="EY12" s="13"/>
+      <c r="EZ12" s="13"/>
+      <c r="FA12" s="13"/>
+      <c r="FB12" s="13"/>
+      <c r="FC12" s="13"/>
+      <c r="FD12" s="13"/>
+      <c r="FE12" s="13"/>
+      <c r="FF12" s="13"/>
+      <c r="FG12" s="13"/>
+      <c r="FH12" s="13"/>
+      <c r="FI12" s="13"/>
+      <c r="FJ12" s="13"/>
+      <c r="FK12" s="13"/>
+      <c r="FL12" s="13"/>
+      <c r="FM12" s="13"/>
+      <c r="FN12" s="13"/>
+      <c r="FO12" s="13"/>
+      <c r="FP12" s="13"/>
+      <c r="FQ12" s="13"/>
+      <c r="FR12" s="13"/>
+      <c r="FS12" s="13"/>
+      <c r="FT12" s="13"/>
+      <c r="FU12" s="13"/>
+      <c r="FV12" s="13"/>
+      <c r="FW12" s="13"/>
+      <c r="FX12" s="13"/>
+      <c r="FY12" s="13"/>
+      <c r="FZ12" s="13"/>
+      <c r="GA12" s="13"/>
+      <c r="GB12" s="13"/>
+      <c r="GC12" s="13"/>
+      <c r="GD12" s="13"/>
+      <c r="GE12" s="13"/>
+      <c r="GF12" s="13"/>
+      <c r="GG12" s="13"/>
+      <c r="GH12" s="13"/>
+      <c r="GI12" s="13"/>
+      <c r="GJ12" s="13"/>
+      <c r="GK12" s="13"/>
+      <c r="GL12" s="13"/>
+      <c r="GM12" s="13"/>
+      <c r="GN12" s="13"/>
+      <c r="GO12" s="13"/>
+      <c r="GP12" s="13"/>
+      <c r="GQ12" s="13"/>
+      <c r="GR12" s="13"/>
+      <c r="GS12" s="13"/>
+      <c r="GT12" s="13"/>
+      <c r="GU12" s="13"/>
+      <c r="GV12" s="13"/>
+      <c r="GW12" s="13"/>
+      <c r="GX12" s="13"/>
+      <c r="GY12" s="13"/>
+      <c r="GZ12" s="13"/>
+      <c r="HA12" s="13"/>
+      <c r="HB12" s="13"/>
+      <c r="HC12" s="13"/>
+      <c r="HD12" s="13"/>
+      <c r="HE12" s="13"/>
+      <c r="HF12" s="13"/>
+      <c r="HG12" s="13"/>
+      <c r="HH12" s="13"/>
+      <c r="HI12" s="13"/>
+      <c r="HJ12" s="13"/>
+      <c r="HK12" s="13"/>
+      <c r="HL12" s="13"/>
+      <c r="HM12" s="13"/>
+      <c r="HN12" s="13"/>
+      <c r="HO12" s="13"/>
+      <c r="HP12" s="13"/>
+      <c r="HQ12" s="13"/>
+      <c r="HR12" s="13"/>
+      <c r="HS12" s="13"/>
+      <c r="HT12" s="13"/>
+      <c r="HU12" s="13"/>
+      <c r="HV12" s="13"/>
+      <c r="HW12" s="13"/>
+      <c r="HX12" s="13"/>
+      <c r="HY12" s="13"/>
+      <c r="HZ12" s="13"/>
+      <c r="IA12" s="13"/>
+      <c r="IB12" s="13"/>
+      <c r="IC12" s="13"/>
+    </row>
+    <row r="13" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
+      <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1"/>
+      <c r="DO14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
+      <c r="ES14" s="1"/>
+      <c r="ET14" s="1"/>
+      <c r="EU14" s="1"/>
+      <c r="EV14" s="1"/>
+      <c r="EW14" s="1"/>
+      <c r="EX14" s="1"/>
+      <c r="EY14" s="1"/>
+      <c r="EZ14" s="1"/>
+      <c r="FA14" s="1"/>
+      <c r="FB14" s="1"/>
+      <c r="FC14" s="1"/>
+      <c r="FD14" s="1"/>
+      <c r="FE14" s="1"/>
+      <c r="FF14" s="1"/>
+      <c r="FG14" s="1"/>
+      <c r="FH14" s="1"/>
+      <c r="FI14" s="1"/>
+      <c r="FJ14" s="1"/>
+      <c r="FK14" s="1"/>
+      <c r="FL14" s="1"/>
+      <c r="FM14" s="1"/>
+      <c r="FN14" s="1"/>
+      <c r="FO14" s="1"/>
+      <c r="FP14" s="1"/>
+      <c r="FQ14" s="1"/>
+      <c r="FR14" s="1"/>
+      <c r="FS14" s="1"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" s="1"/>
+      <c r="FW14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="FY14" s="1"/>
+      <c r="FZ14" s="1"/>
+      <c r="GA14" s="1"/>
+      <c r="GB14" s="1"/>
+      <c r="GC14" s="1"/>
+      <c r="GD14" s="1"/>
+      <c r="GE14" s="1"/>
+      <c r="GF14" s="1"/>
+      <c r="GG14" s="1"/>
+      <c r="GH14" s="1"/>
+      <c r="GI14" s="1"/>
+      <c r="GJ14" s="1"/>
+      <c r="GK14" s="1"/>
+      <c r="GL14" s="1"/>
+      <c r="GM14" s="1"/>
+      <c r="GN14" s="1"/>
+      <c r="GO14" s="1"/>
+      <c r="GP14" s="1"/>
+      <c r="GQ14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GS14" s="1"/>
+      <c r="GT14" s="1"/>
+      <c r="GU14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
+      <c r="GY14" s="1"/>
+      <c r="GZ14" s="1"/>
+      <c r="HA14" s="1"/>
+      <c r="HB14" s="1"/>
+      <c r="HC14" s="1"/>
+      <c r="HD14" s="1"/>
+      <c r="HE14" s="1"/>
+      <c r="HF14" s="1"/>
+      <c r="HG14" s="1"/>
+      <c r="HH14" s="1"/>
+      <c r="HI14" s="1"/>
+      <c r="HJ14" s="1"/>
+      <c r="HK14" s="1"/>
+      <c r="HL14" s="1"/>
+      <c r="HM14" s="1"/>
+      <c r="HN14" s="1"/>
+      <c r="HO14" s="1"/>
+      <c r="HP14" s="1"/>
+      <c r="HQ14" s="1"/>
+      <c r="HR14" s="1"/>
+      <c r="HS14" s="1"/>
+      <c r="HT14" s="1"/>
+      <c r="HU14" s="1"/>
+      <c r="HV14" s="1"/>
+      <c r="HW14" s="1"/>
+      <c r="HX14" s="1"/>
+      <c r="HY14" s="1"/>
+      <c r="HZ14" s="1"/>
+      <c r="IA14" s="1"/>
+      <c r="IB14" s="1"/>
+      <c r="IC14" s="1"/>
+    </row>
+    <row r="15" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <v>3</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="13"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+      <c r="CK15" s="13"/>
+      <c r="CL15" s="13"/>
+      <c r="CM15" s="13"/>
+      <c r="CN15" s="13"/>
+      <c r="CO15" s="13"/>
+      <c r="CP15" s="13"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="13"/>
+      <c r="CS15" s="13"/>
+      <c r="CT15" s="13"/>
+      <c r="CU15" s="13"/>
+      <c r="CV15" s="13"/>
+      <c r="CW15" s="13"/>
+      <c r="CX15" s="13"/>
+      <c r="CY15" s="13"/>
+      <c r="CZ15" s="13"/>
+      <c r="DA15" s="13"/>
+      <c r="DB15" s="13"/>
+      <c r="DC15" s="13"/>
+      <c r="DD15" s="13"/>
+      <c r="DE15" s="13"/>
+      <c r="DF15" s="13"/>
+      <c r="DG15" s="13"/>
+      <c r="DH15" s="13"/>
+      <c r="DI15" s="13"/>
+      <c r="DJ15" s="13"/>
+      <c r="DK15" s="13"/>
+      <c r="DL15" s="13"/>
+      <c r="DM15" s="13"/>
+      <c r="DN15" s="13"/>
+      <c r="DO15" s="13"/>
+      <c r="DP15" s="13"/>
+      <c r="DQ15" s="13"/>
+      <c r="DR15" s="13"/>
+      <c r="DS15" s="13"/>
+      <c r="DT15" s="13"/>
+      <c r="DU15" s="13"/>
+      <c r="DV15" s="13"/>
+      <c r="DW15" s="13"/>
+      <c r="DX15" s="13"/>
+      <c r="DY15" s="13"/>
+      <c r="DZ15" s="13"/>
+      <c r="EA15" s="13"/>
+      <c r="EB15" s="13"/>
+      <c r="EC15" s="13"/>
+      <c r="ED15" s="13"/>
+      <c r="EE15" s="13"/>
+      <c r="EF15" s="13"/>
+      <c r="EG15" s="13"/>
+      <c r="EH15" s="13"/>
+      <c r="EI15" s="13"/>
+      <c r="EJ15" s="13"/>
+      <c r="EK15" s="13"/>
+      <c r="EL15" s="13"/>
+      <c r="EM15" s="13"/>
+      <c r="EN15" s="13"/>
+      <c r="EO15" s="13"/>
+      <c r="EP15" s="13"/>
+      <c r="EQ15" s="13"/>
+      <c r="ER15" s="13"/>
+      <c r="ES15" s="13"/>
+      <c r="ET15" s="13"/>
+      <c r="EU15" s="13"/>
+      <c r="EV15" s="13"/>
+      <c r="EW15" s="13"/>
+      <c r="EX15" s="13"/>
+      <c r="EY15" s="13"/>
+      <c r="EZ15" s="13"/>
+      <c r="FA15" s="13"/>
+      <c r="FB15" s="13"/>
+      <c r="FC15" s="13"/>
+      <c r="FD15" s="13"/>
+      <c r="FE15" s="13"/>
+      <c r="FF15" s="13"/>
+      <c r="FG15" s="13"/>
+      <c r="FH15" s="13"/>
+      <c r="FI15" s="13"/>
+      <c r="FJ15" s="13"/>
+      <c r="FK15" s="13"/>
+      <c r="FL15" s="13"/>
+      <c r="FM15" s="13"/>
+      <c r="FN15" s="13"/>
+      <c r="FO15" s="13"/>
+      <c r="FP15" s="13"/>
+      <c r="FQ15" s="13"/>
+      <c r="FR15" s="13"/>
+      <c r="FS15" s="13"/>
+      <c r="FT15" s="13"/>
+      <c r="FU15" s="13"/>
+      <c r="FV15" s="13"/>
+      <c r="FW15" s="13"/>
+      <c r="FX15" s="13"/>
+      <c r="FY15" s="13"/>
+      <c r="FZ15" s="13"/>
+      <c r="GA15" s="13"/>
+      <c r="GB15" s="13"/>
+      <c r="GC15" s="13"/>
+      <c r="GD15" s="13"/>
+      <c r="GE15" s="13"/>
+      <c r="GF15" s="13"/>
+      <c r="GG15" s="13"/>
+      <c r="GH15" s="13"/>
+      <c r="GI15" s="13"/>
+      <c r="GJ15" s="13"/>
+      <c r="GK15" s="13"/>
+      <c r="GL15" s="13"/>
+      <c r="GM15" s="13"/>
+      <c r="GN15" s="13"/>
+      <c r="GO15" s="13"/>
+      <c r="GP15" s="13"/>
+      <c r="GQ15" s="13"/>
+      <c r="GR15" s="13"/>
+      <c r="GS15" s="13"/>
+      <c r="GT15" s="13"/>
+      <c r="GU15" s="13"/>
+      <c r="GV15" s="13"/>
+      <c r="GW15" s="13"/>
+      <c r="GX15" s="13"/>
+      <c r="GY15" s="13"/>
+      <c r="GZ15" s="13"/>
+      <c r="HA15" s="13"/>
+      <c r="HB15" s="13"/>
+      <c r="HC15" s="13"/>
+      <c r="HD15" s="13"/>
+      <c r="HE15" s="13"/>
+      <c r="HF15" s="13"/>
+      <c r="HG15" s="13"/>
+      <c r="HH15" s="13"/>
+      <c r="HI15" s="13"/>
+      <c r="HJ15" s="13"/>
+      <c r="HK15" s="13"/>
+      <c r="HL15" s="13"/>
+      <c r="HM15" s="13"/>
+      <c r="HN15" s="13"/>
+      <c r="HO15" s="13"/>
+      <c r="HP15" s="13"/>
+      <c r="HQ15" s="13"/>
+      <c r="HR15" s="13"/>
+      <c r="HS15" s="13"/>
+      <c r="HT15" s="13"/>
+      <c r="HU15" s="13"/>
+      <c r="HV15" s="13"/>
+      <c r="HW15" s="13"/>
+      <c r="HX15" s="13"/>
+      <c r="HY15" s="13"/>
+      <c r="HZ15" s="13"/>
+      <c r="IA15" s="13"/>
+      <c r="IB15" s="13"/>
+      <c r="IC15" s="13"/>
+    </row>
+    <row r="16" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="1"/>
+      <c r="DK17" s="1"/>
+      <c r="DL17" s="1"/>
+      <c r="DM17" s="1"/>
+      <c r="DN17" s="1"/>
+      <c r="DO17" s="1"/>
+      <c r="DP17" s="1"/>
+      <c r="DQ17" s="1"/>
+      <c r="DR17" s="1"/>
+      <c r="DS17" s="1"/>
+      <c r="DT17" s="1"/>
+      <c r="DU17" s="1"/>
+      <c r="DV17" s="1"/>
+      <c r="DW17" s="1"/>
+      <c r="DX17" s="1"/>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
+      <c r="EA17" s="1"/>
+      <c r="EB17" s="1"/>
+      <c r="EC17" s="1"/>
+      <c r="ED17" s="1"/>
+      <c r="EE17" s="1"/>
+      <c r="EF17" s="1"/>
+      <c r="EG17" s="1"/>
+      <c r="EH17" s="1"/>
+      <c r="EI17" s="1"/>
+      <c r="EJ17" s="1"/>
+      <c r="EK17" s="1"/>
+      <c r="EL17" s="1"/>
+      <c r="EM17" s="1"/>
+      <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
+      <c r="EP17" s="1"/>
+      <c r="EQ17" s="1"/>
+      <c r="ER17" s="1"/>
+      <c r="ES17" s="1"/>
+      <c r="ET17" s="1"/>
+      <c r="EU17" s="1"/>
+      <c r="EV17" s="1"/>
+      <c r="EW17" s="1"/>
+      <c r="EX17" s="1"/>
+      <c r="EY17" s="1"/>
+      <c r="EZ17" s="1"/>
+      <c r="FA17" s="1"/>
+      <c r="FB17" s="1"/>
+      <c r="FC17" s="1"/>
+      <c r="FD17" s="1"/>
+      <c r="FE17" s="1"/>
+      <c r="FF17" s="1"/>
+      <c r="FG17" s="1"/>
+      <c r="FH17" s="1"/>
+      <c r="FI17" s="1"/>
+      <c r="FJ17" s="1"/>
+      <c r="FK17" s="1"/>
+      <c r="FL17" s="1"/>
+      <c r="FM17" s="1"/>
+      <c r="FN17" s="1"/>
+      <c r="FO17" s="1"/>
+      <c r="FP17" s="1"/>
+      <c r="FQ17" s="1"/>
+      <c r="FR17" s="1"/>
+      <c r="FS17" s="1"/>
+      <c r="FT17" s="1"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" s="1"/>
+      <c r="FW17" s="1"/>
+      <c r="FX17" s="1"/>
+      <c r="FY17" s="1"/>
+      <c r="FZ17" s="1"/>
+      <c r="GA17" s="1"/>
+      <c r="GB17" s="1"/>
+      <c r="GC17" s="1"/>
+      <c r="GD17" s="1"/>
+      <c r="GE17" s="1"/>
+      <c r="GF17" s="1"/>
+      <c r="GG17" s="1"/>
+      <c r="GH17" s="1"/>
+      <c r="GI17" s="1"/>
+      <c r="GJ17" s="1"/>
+      <c r="GK17" s="1"/>
+      <c r="GL17" s="1"/>
+      <c r="GM17" s="1"/>
+      <c r="GN17" s="1"/>
+      <c r="GO17" s="1"/>
+      <c r="GP17" s="1"/>
+      <c r="GQ17" s="1"/>
+      <c r="GR17" s="1"/>
+      <c r="GS17" s="1"/>
+      <c r="GT17" s="1"/>
+      <c r="GU17" s="1"/>
+      <c r="GV17" s="1"/>
+      <c r="GW17" s="1"/>
+      <c r="GX17" s="1"/>
+      <c r="GY17" s="1"/>
+      <c r="GZ17" s="1"/>
+      <c r="HA17" s="1"/>
+      <c r="HB17" s="1"/>
+      <c r="HC17" s="1"/>
+      <c r="HD17" s="1"/>
+      <c r="HE17" s="1"/>
+      <c r="HF17" s="1"/>
+      <c r="HG17" s="1"/>
+      <c r="HH17" s="1"/>
+      <c r="HI17" s="1"/>
+      <c r="HJ17" s="1"/>
+      <c r="HK17" s="1"/>
+      <c r="HL17" s="1"/>
+      <c r="HM17" s="1"/>
+      <c r="HN17" s="1"/>
+      <c r="HO17" s="1"/>
+      <c r="HP17" s="1"/>
+      <c r="HQ17" s="1"/>
+      <c r="HR17" s="1"/>
+      <c r="HS17" s="1"/>
+      <c r="HT17" s="1"/>
+      <c r="HU17" s="1"/>
+      <c r="HV17" s="1"/>
+      <c r="HW17" s="1"/>
+      <c r="HX17" s="1"/>
+      <c r="HY17" s="1"/>
+      <c r="HZ17" s="1"/>
+      <c r="IA17" s="1"/>
+      <c r="IB17" s="1"/>
+      <c r="IC17" s="1"/>
+    </row>
+    <row r="18" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71">
+        <v>4</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="13"/>
+      <c r="BR18" s="13"/>
+      <c r="BS18" s="13"/>
+      <c r="BT18" s="13"/>
+      <c r="BU18" s="13"/>
+      <c r="BV18" s="13"/>
+      <c r="BW18" s="13"/>
+      <c r="BX18" s="13"/>
+      <c r="BY18" s="13"/>
+      <c r="BZ18" s="13"/>
+      <c r="CA18" s="13"/>
+      <c r="CB18" s="13"/>
+      <c r="CC18" s="13"/>
+      <c r="CD18" s="13"/>
+      <c r="CE18" s="13"/>
+      <c r="CF18" s="13"/>
+      <c r="CG18" s="13"/>
+      <c r="CH18" s="13"/>
+      <c r="CI18" s="13"/>
+      <c r="CJ18" s="13"/>
+      <c r="CK18" s="13"/>
+      <c r="CL18" s="13"/>
+      <c r="CM18" s="13"/>
+      <c r="CN18" s="13"/>
+      <c r="CO18" s="13"/>
+      <c r="CP18" s="13"/>
+      <c r="CQ18" s="13"/>
+      <c r="CR18" s="13"/>
+      <c r="CS18" s="13"/>
+      <c r="CT18" s="13"/>
+      <c r="CU18" s="13"/>
+      <c r="CV18" s="13"/>
+      <c r="CW18" s="13"/>
+      <c r="CX18" s="13"/>
+      <c r="CY18" s="13"/>
+      <c r="CZ18" s="13"/>
+      <c r="DA18" s="13"/>
+      <c r="DB18" s="13"/>
+      <c r="DC18" s="13"/>
+      <c r="DD18" s="13"/>
+      <c r="DE18" s="13"/>
+      <c r="DF18" s="13"/>
+      <c r="DG18" s="13"/>
+      <c r="DH18" s="13"/>
+      <c r="DI18" s="13"/>
+      <c r="DJ18" s="13"/>
+      <c r="DK18" s="13"/>
+      <c r="DL18" s="13"/>
+      <c r="DM18" s="13"/>
+      <c r="DN18" s="13"/>
+      <c r="DO18" s="13"/>
+      <c r="DP18" s="13"/>
+      <c r="DQ18" s="13"/>
+      <c r="DR18" s="13"/>
+      <c r="DS18" s="13"/>
+      <c r="DT18" s="13"/>
+      <c r="DU18" s="13"/>
+      <c r="DV18" s="13"/>
+      <c r="DW18" s="13"/>
+      <c r="DX18" s="13"/>
+      <c r="DY18" s="13"/>
+      <c r="DZ18" s="13"/>
+      <c r="EA18" s="13"/>
+      <c r="EB18" s="13"/>
+      <c r="EC18" s="13"/>
+      <c r="ED18" s="13"/>
+      <c r="EE18" s="13"/>
+      <c r="EF18" s="13"/>
+      <c r="EG18" s="13"/>
+      <c r="EH18" s="13"/>
+      <c r="EI18" s="13"/>
+      <c r="EJ18" s="13"/>
+      <c r="EK18" s="13"/>
+      <c r="EL18" s="13"/>
+      <c r="EM18" s="13"/>
+      <c r="EN18" s="13"/>
+      <c r="EO18" s="13"/>
+      <c r="EP18" s="13"/>
+      <c r="EQ18" s="13"/>
+      <c r="ER18" s="13"/>
+      <c r="ES18" s="13"/>
+      <c r="ET18" s="13"/>
+      <c r="EU18" s="13"/>
+      <c r="EV18" s="13"/>
+      <c r="EW18" s="13"/>
+      <c r="EX18" s="13"/>
+      <c r="EY18" s="13"/>
+      <c r="EZ18" s="13"/>
+      <c r="FA18" s="13"/>
+      <c r="FB18" s="13"/>
+      <c r="FC18" s="13"/>
+      <c r="FD18" s="13"/>
+      <c r="FE18" s="13"/>
+      <c r="FF18" s="13"/>
+      <c r="FG18" s="13"/>
+      <c r="FH18" s="13"/>
+      <c r="FI18" s="13"/>
+      <c r="FJ18" s="13"/>
+      <c r="FK18" s="13"/>
+      <c r="FL18" s="13"/>
+      <c r="FM18" s="13"/>
+      <c r="FN18" s="13"/>
+      <c r="FO18" s="13"/>
+      <c r="FP18" s="13"/>
+      <c r="FQ18" s="13"/>
+      <c r="FR18" s="13"/>
+      <c r="FS18" s="13"/>
+      <c r="FT18" s="13"/>
+      <c r="FU18" s="13"/>
+      <c r="FV18" s="13"/>
+      <c r="FW18" s="13"/>
+      <c r="FX18" s="13"/>
+      <c r="FY18" s="13"/>
+      <c r="FZ18" s="13"/>
+      <c r="GA18" s="13"/>
+      <c r="GB18" s="13"/>
+      <c r="GC18" s="13"/>
+      <c r="GD18" s="13"/>
+      <c r="GE18" s="13"/>
+      <c r="GF18" s="13"/>
+      <c r="GG18" s="13"/>
+      <c r="GH18" s="13"/>
+      <c r="GI18" s="13"/>
+      <c r="GJ18" s="13"/>
+      <c r="GK18" s="13"/>
+      <c r="GL18" s="13"/>
+      <c r="GM18" s="13"/>
+      <c r="GN18" s="13"/>
+      <c r="GO18" s="13"/>
+      <c r="GP18" s="13"/>
+      <c r="GQ18" s="13"/>
+      <c r="GR18" s="13"/>
+      <c r="GS18" s="13"/>
+      <c r="GT18" s="13"/>
+      <c r="GU18" s="13"/>
+      <c r="GV18" s="13"/>
+      <c r="GW18" s="13"/>
+      <c r="GX18" s="13"/>
+      <c r="GY18" s="13"/>
+      <c r="GZ18" s="13"/>
+      <c r="HA18" s="13"/>
+      <c r="HB18" s="13"/>
+      <c r="HC18" s="13"/>
+      <c r="HD18" s="13"/>
+      <c r="HE18" s="13"/>
+      <c r="HF18" s="13"/>
+      <c r="HG18" s="13"/>
+      <c r="HH18" s="13"/>
+      <c r="HI18" s="13"/>
+      <c r="HJ18" s="13"/>
+      <c r="HK18" s="13"/>
+      <c r="HL18" s="13"/>
+      <c r="HM18" s="13"/>
+      <c r="HN18" s="13"/>
+      <c r="HO18" s="13"/>
+      <c r="HP18" s="13"/>
+      <c r="HQ18" s="13"/>
+      <c r="HR18" s="13"/>
+      <c r="HS18" s="13"/>
+      <c r="HT18" s="13"/>
+      <c r="HU18" s="13"/>
+      <c r="HV18" s="13"/>
+      <c r="HW18" s="13"/>
+      <c r="HX18" s="13"/>
+      <c r="HY18" s="13"/>
+      <c r="HZ18" s="13"/>
+      <c r="IA18" s="13"/>
+      <c r="IB18" s="13"/>
+      <c r="IC18" s="13"/>
+    </row>
+    <row r="19" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="13"/>
+      <c r="BQ19" s="13"/>
+      <c r="BR19" s="13"/>
+      <c r="BS19" s="13"/>
+      <c r="BT19" s="13"/>
+      <c r="BU19" s="13"/>
+      <c r="BV19" s="13"/>
+      <c r="BW19" s="13"/>
+      <c r="BX19" s="13"/>
+      <c r="BY19" s="13"/>
+      <c r="BZ19" s="13"/>
+      <c r="CA19" s="13"/>
+      <c r="CB19" s="13"/>
+      <c r="CC19" s="13"/>
+      <c r="CD19" s="13"/>
+      <c r="CE19" s="13"/>
+      <c r="CF19" s="13"/>
+      <c r="CG19" s="13"/>
+      <c r="CH19" s="13"/>
+      <c r="CI19" s="13"/>
+      <c r="CJ19" s="13"/>
+      <c r="CK19" s="13"/>
+      <c r="CL19" s="13"/>
+      <c r="CM19" s="13"/>
+      <c r="CN19" s="13"/>
+      <c r="CO19" s="13"/>
+      <c r="CP19" s="13"/>
+      <c r="CQ19" s="13"/>
+      <c r="CR19" s="13"/>
+      <c r="CS19" s="13"/>
+      <c r="CT19" s="13"/>
+      <c r="CU19" s="13"/>
+      <c r="CV19" s="13"/>
+      <c r="CW19" s="13"/>
+      <c r="CX19" s="13"/>
+      <c r="CY19" s="13"/>
+      <c r="CZ19" s="13"/>
+      <c r="DA19" s="13"/>
+      <c r="DB19" s="13"/>
+      <c r="DC19" s="13"/>
+      <c r="DD19" s="13"/>
+      <c r="DE19" s="13"/>
+      <c r="DF19" s="13"/>
+      <c r="DG19" s="13"/>
+      <c r="DH19" s="13"/>
+      <c r="DI19" s="13"/>
+      <c r="DJ19" s="13"/>
+      <c r="DK19" s="13"/>
+      <c r="DL19" s="13"/>
+      <c r="DM19" s="13"/>
+      <c r="DN19" s="13"/>
+      <c r="DO19" s="13"/>
+      <c r="DP19" s="13"/>
+      <c r="DQ19" s="13"/>
+      <c r="DR19" s="13"/>
+      <c r="DS19" s="13"/>
+      <c r="DT19" s="13"/>
+      <c r="DU19" s="13"/>
+      <c r="DV19" s="13"/>
+      <c r="DW19" s="13"/>
+      <c r="DX19" s="13"/>
+      <c r="DY19" s="13"/>
+      <c r="DZ19" s="13"/>
+      <c r="EA19" s="13"/>
+      <c r="EB19" s="13"/>
+      <c r="EC19" s="13"/>
+      <c r="ED19" s="13"/>
+      <c r="EE19" s="13"/>
+      <c r="EF19" s="13"/>
+      <c r="EG19" s="13"/>
+      <c r="EH19" s="13"/>
+      <c r="EI19" s="13"/>
+      <c r="EJ19" s="13"/>
+      <c r="EK19" s="13"/>
+      <c r="EL19" s="13"/>
+      <c r="EM19" s="13"/>
+      <c r="EN19" s="13"/>
+      <c r="EO19" s="13"/>
+      <c r="EP19" s="13"/>
+      <c r="EQ19" s="13"/>
+      <c r="ER19" s="13"/>
+      <c r="ES19" s="13"/>
+      <c r="ET19" s="13"/>
+      <c r="EU19" s="13"/>
+      <c r="EV19" s="13"/>
+      <c r="EW19" s="13"/>
+      <c r="EX19" s="13"/>
+      <c r="EY19" s="13"/>
+      <c r="EZ19" s="13"/>
+      <c r="FA19" s="13"/>
+      <c r="FB19" s="13"/>
+      <c r="FC19" s="13"/>
+      <c r="FD19" s="13"/>
+      <c r="FE19" s="13"/>
+      <c r="FF19" s="13"/>
+      <c r="FG19" s="13"/>
+      <c r="FH19" s="13"/>
+      <c r="FI19" s="13"/>
+      <c r="FJ19" s="13"/>
+      <c r="FK19" s="13"/>
+      <c r="FL19" s="13"/>
+      <c r="FM19" s="13"/>
+      <c r="FN19" s="13"/>
+      <c r="FO19" s="13"/>
+      <c r="FP19" s="13"/>
+      <c r="FQ19" s="13"/>
+      <c r="FR19" s="13"/>
+      <c r="FS19" s="13"/>
+      <c r="FT19" s="13"/>
+      <c r="FU19" s="13"/>
+      <c r="FV19" s="13"/>
+      <c r="FW19" s="13"/>
+      <c r="FX19" s="13"/>
+      <c r="FY19" s="13"/>
+      <c r="FZ19" s="13"/>
+      <c r="GA19" s="13"/>
+      <c r="GB19" s="13"/>
+      <c r="GC19" s="13"/>
+      <c r="GD19" s="13"/>
+      <c r="GE19" s="13"/>
+      <c r="GF19" s="13"/>
+      <c r="GG19" s="13"/>
+      <c r="GH19" s="13"/>
+      <c r="GI19" s="13"/>
+      <c r="GJ19" s="13"/>
+      <c r="GK19" s="13"/>
+      <c r="GL19" s="13"/>
+      <c r="GM19" s="13"/>
+      <c r="GN19" s="13"/>
+      <c r="GO19" s="13"/>
+      <c r="GP19" s="13"/>
+      <c r="GQ19" s="13"/>
+      <c r="GR19" s="13"/>
+      <c r="GS19" s="13"/>
+      <c r="GT19" s="13"/>
+      <c r="GU19" s="13"/>
+      <c r="GV19" s="13"/>
+      <c r="GW19" s="13"/>
+      <c r="GX19" s="13"/>
+      <c r="GY19" s="13"/>
+      <c r="GZ19" s="13"/>
+      <c r="HA19" s="13"/>
+      <c r="HB19" s="13"/>
+      <c r="HC19" s="13"/>
+      <c r="HD19" s="13"/>
+      <c r="HE19" s="13"/>
+      <c r="HF19" s="13"/>
+      <c r="HG19" s="13"/>
+      <c r="HH19" s="13"/>
+      <c r="HI19" s="13"/>
+      <c r="HJ19" s="13"/>
+      <c r="HK19" s="13"/>
+      <c r="HL19" s="13"/>
+      <c r="HM19" s="13"/>
+      <c r="HN19" s="13"/>
+      <c r="HO19" s="13"/>
+      <c r="HP19" s="13"/>
+      <c r="HQ19" s="13"/>
+      <c r="HR19" s="13"/>
+      <c r="HS19" s="13"/>
+      <c r="HT19" s="13"/>
+      <c r="HU19" s="13"/>
+      <c r="HV19" s="13"/>
+      <c r="HW19" s="13"/>
+      <c r="HX19" s="13"/>
+      <c r="HY19" s="13"/>
+      <c r="HZ19" s="13"/>
+      <c r="IA19" s="13"/>
+      <c r="IB19" s="13"/>
+      <c r="IC19" s="13"/>
+    </row>
+    <row r="20" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="J2:J4"/>
+  <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:J4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7 G6:H6 J6:J7 J9:J10 F9:F10">
-    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9">
-    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F8 K8">
+    <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="66" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9:H10">
-    <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 J11">
-    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F10 H9:I9 K9 F12">
+    <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H10 H12">
+    <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I10 I12">
+    <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13 K13">
+    <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="100" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="92" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 K6:K7 I6">
+    <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="82" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="80" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="G10 G12">
+    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="72" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="60" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 H14:I14 K14">
+    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="56" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="54" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="50" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16 K16">
+    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="48" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="40" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18 H17:I17 K17">
+    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 K20">
+    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,Negrito"&amp;9&amp;D - &amp;P/&amp;N</oddHeader>
   </headerFooter>

--- a/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
+++ b/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="601" activeTab="3"/>
+    <workbookView xWindow="1215" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="601" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="164">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1083,6 +1083,28 @@
       <t>Tela Principal</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a ser associado uma ou mais Tags</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1727,6 +1749,27 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1784,39 +1827,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1841,6 +1851,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,691 +1873,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="170">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="94">
     <dxf>
       <font>
         <b/>
@@ -4240,20 +3578,20 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="93"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="60" t="s">
         <v>10</v>
       </c>
@@ -4488,23 +3826,23 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="90" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="71" t="s">
         <v>100</v>
       </c>
       <c r="K2" s="38"/>
@@ -4735,20 +4073,20 @@
       <c r="IB2" s="1"/>
     </row>
     <row r="3" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="91"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="38"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4977,16 +4315,16 @@
       <c r="IB3" s="1"/>
     </row>
     <row r="4" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="38"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -6437,13 +5775,13 @@
       <c r="IB9" s="1"/>
     </row>
     <row r="10" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="80" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="62" t="s">
@@ -6687,9 +6025,9 @@
       <c r="IB10" s="13"/>
     </row>
     <row r="11" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="62" t="s">
         <v>140</v>
       </c>
@@ -7419,13 +6757,13 @@
       <c r="IB13" s="1"/>
     </row>
     <row r="14" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+      <c r="A14" s="78">
         <v>3</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="80" t="s">
         <v>138</v>
       </c>
       <c r="D14" s="62" t="s">
@@ -7669,9 +7007,9 @@
       <c r="IB14" s="13"/>
     </row>
     <row r="15" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="62" t="s">
         <v>141</v>
       </c>
@@ -8167,13 +7505,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -8184,13 +7515,20 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F7 J6:J7 H6">
     <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="272" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8198,7 +7536,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8206,7 +7544,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8214,7 +7552,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8222,7 +7560,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8230,7 +7568,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8238,7 +7576,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8246,7 +7584,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8254,7 +7592,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8262,7 +7600,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8270,7 +7608,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8278,7 +7616,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8300,11 +7638,11 @@
   <sheetPr codeName="Plan6"/>
   <dimension ref="A1:II104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8328,30 +7666,30 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="105" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="103"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -8583,44 +7921,44 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="90" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="97" t="s">
         <v>39</v>
       </c>
       <c r="R2" s="38"/>
@@ -8851,27 +8189,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -9100,23 +8438,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -9845,13 +9183,13 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71">
+      <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="80" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="63" t="s">
@@ -10102,9 +9440,9 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="63" t="s">
         <v>46</v>
       </c>
@@ -10351,9 +9689,9 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="63" t="s">
         <v>48</v>
       </c>
@@ -10847,13 +10185,13 @@
       <c r="II10"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="80" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="63" t="s">
@@ -11102,9 +10440,9 @@
       <c r="II11" s="13"/>
     </row>
     <row r="12" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="63" t="s">
         <v>46</v>
       </c>
@@ -11361,9 +10699,9 @@
       <c r="II12" s="13"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="63" t="s">
         <v>48</v>
       </c>
@@ -11616,9 +10954,9 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="63" t="s">
         <v>46</v>
       </c>
@@ -11875,9 +11213,9 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="63" t="s">
         <v>48</v>
       </c>
@@ -12375,13 +11713,13 @@
       <c r="II16"/>
     </row>
     <row r="17" spans="1:243" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
+      <c r="A17" s="78">
         <v>3</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="106" t="s">
         <v>112</v>
       </c>
       <c r="D17" s="48" t="s">
@@ -12630,9 +11968,9 @@
       <c r="II17" s="13"/>
     </row>
     <row r="18" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="48" t="s">
         <v>46</v>
       </c>
@@ -12889,9 +12227,9 @@
       <c r="II18" s="13"/>
     </row>
     <row r="19" spans="1:243" s="9" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="48" t="s">
         <v>48</v>
       </c>
@@ -13387,13 +12725,13 @@
       <c r="II20"/>
     </row>
     <row r="21" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
+      <c r="A21" s="78">
         <v>4</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -13642,9 +12980,9 @@
       <c r="II21" s="13"/>
     </row>
     <row r="22" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="48" t="s">
         <v>46</v>
       </c>
@@ -13901,9 +13239,9 @@
       <c r="II22" s="13"/>
     </row>
     <row r="23" spans="1:243" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="48" t="s">
         <v>48</v>
       </c>
@@ -14405,13 +13743,13 @@
       <c r="II24"/>
     </row>
     <row r="25" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="48" t="s">
@@ -14435,9 +13773,9 @@
       <c r="R25" s="38"/>
     </row>
     <row r="26" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="48" t="s">
         <v>46</v>
       </c>
@@ -14469,9 +13807,9 @@
       <c r="R26" s="38"/>
     </row>
     <row r="27" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="48" t="s">
         <v>48</v>
       </c>
@@ -14517,13 +13855,13 @@
       <c r="R28" s="58"/>
     </row>
     <row r="29" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -14547,9 +13885,9 @@
       <c r="R29" s="38"/>
     </row>
     <row r="30" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="48" t="s">
         <v>46</v>
       </c>
@@ -14581,9 +13919,9 @@
       <c r="R30" s="38"/>
     </row>
     <row r="31" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
@@ -14631,13 +13969,13 @@
       <c r="R32" s="58"/>
     </row>
     <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="107" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -14661,9 +13999,9 @@
       <c r="R33" s="38"/>
     </row>
     <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="48" t="s">
         <v>46</v>
       </c>
@@ -14695,9 +14033,9 @@
       <c r="R34" s="38"/>
     </row>
     <row r="35" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="48" t="s">
         <v>48</v>
       </c>
@@ -14743,13 +14081,13 @@
       <c r="R36" s="58"/>
     </row>
     <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="48" t="s">
@@ -14773,9 +14111,9 @@
       <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="48" t="s">
         <v>46</v>
       </c>
@@ -14807,9 +14145,9 @@
       <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="48" t="s">
         <v>48</v>
       </c>
@@ -14861,13 +14199,13 @@
       <c r="R40" s="58"/>
     </row>
     <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="48" t="s">
@@ -14891,9 +14229,9 @@
       <c r="R41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="48" t="s">
         <v>46</v>
       </c>
@@ -14925,9 +14263,9 @@
       <c r="R42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="48" t="s">
         <v>48</v>
       </c>
@@ -14973,13 +14311,13 @@
       <c r="R44" s="58"/>
     </row>
     <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="48" t="s">
@@ -15003,9 +14341,9 @@
       <c r="R45" s="38"/>
     </row>
     <row r="46" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="48" t="s">
         <v>46</v>
       </c>
@@ -15037,9 +14375,9 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="48" t="s">
         <v>48</v>
       </c>
@@ -15087,13 +14425,13 @@
       <c r="R48" s="58"/>
     </row>
     <row r="49" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="107" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="48" t="s">
@@ -15117,9 +14455,9 @@
       <c r="R49" s="38"/>
     </row>
     <row r="50" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="71"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="48" t="s">
         <v>46</v>
       </c>
@@ -15151,9 +14489,9 @@
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="48" t="s">
         <v>48</v>
       </c>
@@ -15199,13 +14537,13 @@
       <c r="R52" s="58"/>
     </row>
     <row r="53" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="98" t="s">
+      <c r="C53" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -15229,9 +14567,9 @@
       <c r="R53" s="38"/>
     </row>
     <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="71"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="48" t="s">
         <v>46</v>
       </c>
@@ -15263,9 +14601,9 @@
       <c r="R54" s="38"/>
     </row>
     <row r="55" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="48" t="s">
         <v>48</v>
       </c>
@@ -15317,13 +14655,13 @@
       <c r="R56" s="58"/>
     </row>
     <row r="57" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="98" t="s">
+      <c r="C57" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="48" t="s">
@@ -15347,9 +14685,9 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="71"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="48" t="s">
         <v>46</v>
       </c>
@@ -15381,9 +14719,9 @@
       <c r="R58" s="38"/>
     </row>
     <row r="59" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="48" t="s">
         <v>48</v>
       </c>
@@ -15429,13 +14767,13 @@
       <c r="R60" s="58"/>
     </row>
     <row r="61" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="48" t="s">
@@ -15459,9 +14797,9 @@
       <c r="R61" s="38"/>
     </row>
     <row r="62" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="71"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="48" t="s">
         <v>46</v>
       </c>
@@ -15493,9 +14831,9 @@
       <c r="R62" s="38"/>
     </row>
     <row r="63" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="48" t="s">
         <v>48</v>
       </c>
@@ -15543,13 +14881,13 @@
       <c r="R64" s="58"/>
     </row>
     <row r="65" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="107" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="48" t="s">
@@ -15573,9 +14911,9 @@
       <c r="R65" s="38"/>
     </row>
     <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="71"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="48" t="s">
         <v>46</v>
       </c>
@@ -15607,9 +14945,9 @@
       <c r="R66" s="38"/>
     </row>
     <row r="67" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="48" t="s">
         <v>48</v>
       </c>
@@ -15655,13 +14993,13 @@
       <c r="R68" s="58"/>
     </row>
     <row r="69" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="48" t="s">
@@ -15685,9 +15023,9 @@
       <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="71"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="48" t="s">
         <v>46</v>
       </c>
@@ -15719,9 +15057,9 @@
       <c r="R70" s="38"/>
     </row>
     <row r="71" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
+      <c r="A71" s="78"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="48" t="s">
         <v>48</v>
       </c>
@@ -15773,13 +15111,13 @@
       <c r="R72" s="58"/>
     </row>
     <row r="73" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="98" t="s">
+      <c r="B73" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="98" t="s">
+      <c r="C73" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="48" t="s">
@@ -15803,9 +15141,9 @@
       <c r="R73" s="38"/>
     </row>
     <row r="74" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="71"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="48" t="s">
         <v>46</v>
       </c>
@@ -15837,9 +15175,9 @@
       <c r="R74" s="38"/>
     </row>
     <row r="75" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
+      <c r="A75" s="78"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="48" t="s">
         <v>48</v>
       </c>
@@ -15885,13 +15223,13 @@
       <c r="R76" s="58"/>
     </row>
     <row r="77" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="98" t="s">
+      <c r="C77" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="48" t="s">
@@ -15915,9 +15253,9 @@
       <c r="R77" s="38"/>
     </row>
     <row r="78" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="71"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="48" t="s">
         <v>46</v>
       </c>
@@ -15949,9 +15287,9 @@
       <c r="R78" s="38"/>
     </row>
     <row r="79" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="98"/>
+      <c r="A79" s="78"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="48" t="s">
         <v>48</v>
       </c>
@@ -15999,13 +15337,13 @@
       <c r="R80" s="58"/>
     </row>
     <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="97" t="s">
+      <c r="A81" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="98" t="s">
+      <c r="B81" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="107" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="48" t="s">
@@ -16029,9 +15367,9 @@
       <c r="R81" s="38"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="71"/>
-      <c r="B82" s="98"/>
-      <c r="C82" s="98"/>
+      <c r="A82" s="78"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="48" t="s">
         <v>46</v>
       </c>
@@ -16063,9 +15401,9 @@
       <c r="R82" s="38"/>
     </row>
     <row r="83" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="48" t="s">
         <v>48</v>
       </c>
@@ -16111,13 +15449,13 @@
       <c r="R84" s="58"/>
     </row>
     <row r="85" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="98" t="s">
+      <c r="B85" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="98" t="s">
+      <c r="C85" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="48" t="s">
@@ -16141,9 +15479,9 @@
       <c r="R85" s="38"/>
     </row>
     <row r="86" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="71"/>
-      <c r="B86" s="98"/>
-      <c r="C86" s="98"/>
+      <c r="A86" s="78"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="48" t="s">
         <v>46</v>
       </c>
@@ -16175,9 +15513,9 @@
       <c r="R86" s="38"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
+      <c r="A87" s="78"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
       <c r="D87" s="48" t="s">
         <v>48</v>
       </c>
@@ -16229,13 +15567,13 @@
       <c r="R88" s="58"/>
     </row>
     <row r="89" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="97" t="s">
+      <c r="A89" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="98" t="s">
+      <c r="C89" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="48" t="s">
@@ -16259,9 +15597,9 @@
       <c r="R89" s="38"/>
     </row>
     <row r="90" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="71"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
+      <c r="A90" s="78"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
       <c r="D90" s="48" t="s">
         <v>46</v>
       </c>
@@ -16293,9 +15631,9 @@
       <c r="R90" s="38"/>
     </row>
     <row r="91" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="98"/>
-      <c r="C91" s="98"/>
+      <c r="A91" s="78"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
       <c r="D91" s="48" t="s">
         <v>48</v>
       </c>
@@ -16341,13 +15679,13 @@
       <c r="R92" s="58"/>
     </row>
     <row r="93" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="97" t="s">
+      <c r="A93" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="98" t="s">
+      <c r="B93" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="98" t="s">
+      <c r="C93" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="48" t="s">
@@ -16371,9 +15709,9 @@
       <c r="R93" s="38"/>
     </row>
     <row r="94" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="71"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
+      <c r="A94" s="78"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="48" t="s">
         <v>46</v>
       </c>
@@ -16405,9 +15743,9 @@
       <c r="R94" s="38"/>
     </row>
     <row r="95" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
+      <c r="A95" s="78"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="48" t="s">
         <v>48</v>
       </c>
@@ -16455,13 +15793,13 @@
       <c r="R96" s="58"/>
     </row>
     <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="97" t="s">
+      <c r="A97" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="98" t="s">
+      <c r="B97" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="107" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="48" t="s">
@@ -16485,9 +15823,9 @@
       <c r="R97" s="38"/>
     </row>
     <row r="98" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="71"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
+      <c r="A98" s="78"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="48" t="s">
         <v>46</v>
       </c>
@@ -16519,9 +15857,9 @@
       <c r="R98" s="38"/>
     </row>
     <row r="99" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="98"/>
-      <c r="C99" s="98"/>
+      <c r="A99" s="78"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="48" t="s">
         <v>48</v>
       </c>
@@ -16567,13 +15905,13 @@
       <c r="R100" s="58"/>
     </row>
     <row r="101" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="97" t="s">
+      <c r="A101" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="98" t="s">
+      <c r="B101" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="98" t="s">
+      <c r="C101" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="48" t="s">
@@ -16597,9 +15935,9 @@
       <c r="R101" s="38"/>
     </row>
     <row r="102" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="71"/>
-      <c r="B102" s="98"/>
-      <c r="C102" s="98"/>
+      <c r="A102" s="78"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="107"/>
       <c r="D102" s="48" t="s">
         <v>46</v>
       </c>
@@ -16631,9 +15969,9 @@
       <c r="R102" s="38"/>
     </row>
     <row r="103" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71"/>
-      <c r="B103" s="98"/>
-      <c r="C103" s="98"/>
+      <c r="A103" s="78"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="48" t="s">
         <v>48</v>
       </c>
@@ -16686,6 +16024,82 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
@@ -16701,88 +16115,12 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:L6 N6:Q9 F25:F27 F41:F43 F57:F59 F73:F75 F89:F91 N25:Q27 N41:Q43 N57:Q59 N73:Q75 N89:Q91">
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16790,7 +16128,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16798,7 +16136,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16806,7 +16144,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16814,7 +16152,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16822,7 +16160,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16830,7 +16168,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16838,7 +16176,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16846,7 +16184,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16854,7 +16192,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16862,7 +16200,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16870,7 +16208,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16878,7 +16216,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16886,7 +16224,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16894,7 +16232,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16902,7 +16240,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16910,7 +16248,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16918,7 +16256,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16926,7 +16264,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16934,7 +16272,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16942,7 +16280,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16950,7 +16288,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16958,7 +16296,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16966,7 +16304,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16974,7 +16312,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16982,7 +16320,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16990,7 +16328,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16998,7 +16336,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17006,7 +16344,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17014,7 +16352,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17022,7 +16360,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17030,7 +16368,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17038,7 +16376,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17046,7 +16384,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17054,7 +16392,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17062,7 +16400,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17070,7 +16408,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17078,7 +16416,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17086,7 +16424,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17094,7 +16432,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17111,11 +16449,11 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:IC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17138,21 +16476,21 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="93"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
@@ -17387,26 +16725,26 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="90" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="71" t="s">
         <v>100</v>
       </c>
       <c r="L2" s="38"/>
@@ -17637,21 +16975,21 @@
       <c r="IC2" s="1"/>
     </row>
     <row r="3" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="91"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="38"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17880,17 +17218,17 @@
       <c r="IC3" s="1"/>
     </row>
     <row r="4" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="38"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -18617,7 +17955,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>146</v>
@@ -19121,10 +18459,10 @@
       <c r="IC9" s="1"/>
     </row>
     <row r="10" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="80" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="109" t="s">
@@ -19374,8 +18712,8 @@
       <c r="IC10" s="13"/>
     </row>
     <row r="11" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="110"/>
       <c r="D11" s="62" t="s">
         <v>149</v>
@@ -19621,8 +18959,8 @@
       <c r="IC11" s="13"/>
     </row>
     <row r="12" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="110"/>
       <c r="D12" s="62" t="s">
         <v>151</v>
@@ -20643,10 +19981,10 @@
       <c r="IC17" s="1"/>
     </row>
     <row r="18" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71">
+      <c r="A18" s="78">
         <v>4</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="80" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="109" t="s">
@@ -20892,8 +20230,8 @@
       <c r="IC18" s="13"/>
     </row>
     <row r="19" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="110"/>
       <c r="D19" s="62" t="s">
         <v>159</v>
@@ -21150,12 +20488,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="B1:D1"/>
@@ -21166,14 +20500,18 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21181,7 +20519,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21189,7 +20527,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21197,7 +20535,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21205,7 +20543,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21213,7 +20551,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21221,7 +20559,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21229,7 +20567,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21237,7 +20575,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21245,7 +20583,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21253,7 +20591,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21261,7 +20599,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21269,7 +20607,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21277,7 +20615,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21285,7 +20623,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21293,7 +20631,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21301,7 +20639,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21309,7 +20647,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21317,7 +20655,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21325,7 +20663,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21333,7 +20671,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21341,7 +20679,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21349,7 +20687,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21357,7 +20695,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21365,7 +20703,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21373,7 +20711,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21381,7 +20719,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21389,7 +20727,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21397,7 +20735,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21405,7 +20743,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21413,7 +20751,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21421,7 +20759,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21429,7 +20767,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21437,7 +20775,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21445,7 +20783,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21453,7 +20791,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21461,7 +20799,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21469,7 +20807,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21477,7 +20815,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21485,7 +20823,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21493,7 +20831,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
+++ b/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="601" activeTab="4"/>
+    <workbookView xWindow="1215" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="601" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>CAMPO</t>
   </si>
@@ -69,95 +69,13 @@
     <t>CT002</t>
   </si>
   <si>
-    <t>Inscrição em curso</t>
-  </si>
-  <si>
-    <t>Desistir de curso</t>
-  </si>
-  <si>
-    <t>00720013</t>
-  </si>
-  <si>
-    <t>Seleção cheia</t>
-  </si>
-  <si>
-    <t>Nenhum aluno cadastrado</t>
-  </si>
-  <si>
-    <t>Número máximo de alunos cadastrados</t>
-  </si>
-  <si>
-    <t>00820013</t>
-  </si>
-  <si>
-    <t>TSW01</t>
-  </si>
-  <si>
-    <t>Teste de Software</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>Terças/Quintas</t>
-  </si>
-  <si>
-    <t>18:30 - 22:00</t>
-  </si>
-  <si>
-    <t>O sistema deverá adicionar este aluno na lista de espera na classe e atualizar o número de estudantes na lista de espera conforme dado de saída.</t>
-  </si>
-  <si>
     <t>N. Lista de Espera</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá adicionar este aluno na lista de inscritos na classe e atualizar o número de estudantes inscritos conforme dado de saída.
-</t>
   </si>
   <si>
     <t>N. Lista de Inscritos</t>
   </si>
   <si>
-    <t>O sistema deverá retirar este aluno da lista de inscritos na classe e atualizar o número de estudantes inscritos conforme dado de saída.</t>
-  </si>
-  <si>
-    <t>&lt;valor máximo&gt;</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Aluno inscrito em um curso, lista de inscritos com 30 alunos e sem lista de espera</t>
-  </si>
-  <si>
-    <t>Desistir de curso com alunos em lista de espera</t>
-  </si>
-  <si>
-    <t>Aluno inscrito em um curso, lista de inscritos com 30 alunos e lista de espera com 20 alunos.</t>
-  </si>
-  <si>
-    <t>01520013</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>O sistema deverá retirar este aluno da lista de inscritos, atualizar o número da lista de inscritos, o número da lista de espera e mover o primeiro aluno da lista de espera para a lista de inscritos conforme dado de saída.</t>
-  </si>
-  <si>
     <t>Nome</t>
-  </si>
-  <si>
-    <t>0122013</t>
-  </si>
-  <si>
-    <t>João da Silva</t>
   </si>
   <si>
     <t>Projeto de Teste</t>
@@ -166,311 +84,7 @@
     <t>Equipe:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Selecionar a opção do menu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tela Principal &gt; Inscrição em curso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O sistema deverá exibir os campos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CursoID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Descrição</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SeçãoID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> e </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Horários </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>preenchidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Selecionar o </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> conforme dados de entrada.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O sistema deverá solicitar o </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> do aluno.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Inserir o </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> do aluno conforme dado de entrada.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Selecionar a opção do menu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tela Principal &gt;  Desistir de curso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>CT005</t>
-  </si>
-  <si>
-    <t>CT006</t>
-  </si>
-  <si>
-    <t>CT007</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>CT008</t>
-  </si>
-  <si>
-    <t>CT009</t>
-  </si>
-  <si>
-    <t>CT010</t>
-  </si>
-  <si>
-    <t>CT011</t>
-  </si>
-  <si>
-    <t>CT012</t>
-  </si>
-  <si>
-    <t>CT013</t>
-  </si>
-  <si>
-    <t>CT014</t>
-  </si>
-  <si>
-    <t>CT015</t>
-  </si>
-  <si>
-    <t>CT016</t>
-  </si>
-  <si>
-    <t>CT017</t>
-  </si>
-  <si>
-    <t>CT018</t>
-  </si>
-  <si>
-    <t>CT019</t>
-  </si>
-  <si>
-    <t>CT020</t>
-  </si>
-  <si>
-    <t>CT021</t>
-  </si>
-  <si>
-    <t>CT022</t>
-  </si>
-  <si>
-    <t>CT023</t>
-  </si>
-  <si>
-    <t>CT024</t>
   </si>
   <si>
     <t>eLibrary</t>
@@ -553,43 +167,13 @@
     <t>Tela de Pesquisa de Livros</t>
   </si>
   <si>
-    <t>Ter Categorias e Livros cadastrados</t>
-  </si>
-  <si>
     <t>Testar as funcionalidades para navegar pelos livros, no sistema</t>
-  </si>
-  <si>
-    <t>Livros por Categoria</t>
-  </si>
-  <si>
-    <t>Apresentação dos Livros</t>
   </si>
   <si>
     <t>Pesquisa</t>
   </si>
   <si>
-    <t>Categorias</t>
-  </si>
-  <si>
     <t>Selecionar qualquer uma das Categorias</t>
-  </si>
-  <si>
-    <t>Apresentar Detalhes sobre o Livro</t>
-  </si>
-  <si>
-    <t>Ocutar Detalhes sobre o Livro</t>
-  </si>
-  <si>
-    <t>Filtrar por Autor</t>
-  </si>
-  <si>
-    <t>Filtrar por Título</t>
-  </si>
-  <si>
-    <t>Filtrar por Data de Publicação</t>
-  </si>
-  <si>
-    <t>Filtrar por Palavra Pesquisada</t>
   </si>
   <si>
     <t>Details</t>
@@ -1071,20 +655,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Apresentar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tela Principal</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Selecionar </t>
     </r>
     <r>
@@ -1104,6 +674,669 @@
       </rPr>
       <t xml:space="preserve"> a ser associado uma ou mais Tags</t>
     </r>
+  </si>
+  <si>
+    <t>Navegar pelos Livros</t>
+  </si>
+  <si>
+    <t>Execulta o Sistema</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Tags</t>
+    </r>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Tags</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pertencentes a Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pertencentes a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada</t>
+    </r>
+  </si>
+  <si>
+    <t>Modo de Visão</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ter selecionar um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção do Modo de Visão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Details</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção do Modo de Visão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Large Cover</t>
+    </r>
+  </si>
+  <si>
+    <t>Selecionar opção</t>
+  </si>
+  <si>
+    <t>Ordenação</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção do Modo de Ordenação </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção do Modo de Ordenação </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção do Modo de Ordenação </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Publication</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancelamento</t>
+  </si>
+  <si>
+    <t>Buscar por termo no campo de Pesquisa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, ordenada de forma alfabetica pela </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data de Publicação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dos Livros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, com Detalhes sobre o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, com Capa em tamanho Grande do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Livro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, ordenada de forma alfabetica pelo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Autor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dos Livros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, ordenada de forma alfabetica pelo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Título</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dos Livros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lista de Livros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Categoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcategoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selecionada, filtrados pelo termo pesquisado entre os títutlos dos Livros</t>
+    </r>
+  </si>
+  <si>
+    <t>De</t>
   </si>
 </sst>
 </file>
@@ -1725,9 +1958,6 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,40 +1973,25 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,6 +2042,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1851,18 +2096,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1873,7 +2106,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3243,11 +3485,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="E13" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -3256,9 +3498,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -3278,11 +3520,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="E16" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -3291,9 +3533,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -3304,7 +3546,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="29"/>
@@ -3328,7 +3570,7 @@
       <c r="D20" s="28"/>
       <c r="E20" s="33"/>
       <c r="F20" s="35" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="29"/>
@@ -3341,7 +3583,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="33"/>
       <c r="F21" s="35" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="29"/>
@@ -3354,7 +3596,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="33"/>
       <c r="F22" s="35" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="29"/>
@@ -3367,7 +3609,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="33"/>
       <c r="F23" s="35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="29"/>
@@ -3380,7 +3622,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="29"/>
@@ -3555,7 +3797,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3578,20 +3820,20 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="84" t="s">
+      <c r="B1" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="74"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="60" t="s">
         <v>10</v>
       </c>
@@ -3826,24 +4068,24 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="71" t="s">
-        <v>100</v>
+      <c r="B2" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="91" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="1"/>
@@ -4073,20 +4315,20 @@
       <c r="IB2" s="1"/>
     </row>
     <row r="3" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="72"/>
+      <c r="B3" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="38"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4315,16 +4557,16 @@
       <c r="IB3" s="1"/>
     </row>
     <row r="4" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="38"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5039,23 +5281,23 @@
       <c r="IB6" s="1"/>
     </row>
     <row r="7" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>135</v>
+      <c r="B7" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="50"/>
@@ -5775,27 +6017,27 @@
       <c r="IB9" s="1"/>
     </row>
     <row r="10" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78">
+      <c r="A10" s="72">
         <v>2</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>138</v>
+      <c r="B10" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
       <c r="H10" s="50"/>
       <c r="I10" s="51"/>
       <c r="J10" s="52" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="13"/>
@@ -6025,23 +6267,23 @@
       <c r="IB10" s="13"/>
     </row>
     <row r="11" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="62" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="61" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="51"/>
       <c r="J11" s="52" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="13"/>
@@ -6757,27 +6999,27 @@
       <c r="IB13" s="1"/>
     </row>
     <row r="14" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78">
+      <c r="A14" s="72">
         <v>3</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>138</v>
+      <c r="B14" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
       <c r="J14" s="52" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="13"/>
@@ -7007,23 +7249,23 @@
       <c r="IB14" s="13"/>
     </row>
     <row r="15" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="62" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="61" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="52" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="13"/>
@@ -7505,6 +7747,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -7515,20 +7764,13 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F7 J6:J7 H6">
     <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="272" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7536,7 +7778,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7544,7 +7786,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7552,7 +7794,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7560,7 +7802,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7568,7 +7810,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,7 +7818,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7584,7 +7826,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7592,7 +7834,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7600,7 +7842,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7608,7 +7850,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7616,7 +7858,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7636,13 +7878,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan6"/>
-  <dimension ref="A1:II104"/>
+  <dimension ref="A1:II22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7666,30 +7908,30 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="84" t="s">
+      <c r="B1" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="101" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="103"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="107"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -7921,45 +8163,45 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="97" t="s">
+      <c r="B2" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="94"/>
+      <c r="N2" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="97" t="s">
-        <v>39</v>
+      <c r="Q2" s="101" t="s">
+        <v>14</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -8189,27 +8431,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="B3" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -8438,23 +8680,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -9183,23 +9425,23 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78">
+      <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>44</v>
+      <c r="B7" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -9439,17 +9681,19 @@
       <c r="IH7" s="13"/>
       <c r="II7" s="13"/>
     </row>
-    <row r="8" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="49"/>
+    <row r="8" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="49"/>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -9688,530 +9932,532 @@
       <c r="IH8" s="13"/>
       <c r="II8" s="13"/>
     </row>
-    <row r="9" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
-      <c r="BQ9" s="13"/>
-      <c r="BR9" s="13"/>
-      <c r="BS9" s="13"/>
-      <c r="BT9" s="13"/>
-      <c r="BU9" s="13"/>
-      <c r="BV9" s="13"/>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="13"/>
-      <c r="BZ9" s="13"/>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="13"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="13"/>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="13"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="13"/>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="13"/>
-      <c r="CK9" s="13"/>
-      <c r="CL9" s="13"/>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="13"/>
-      <c r="CO9" s="13"/>
-      <c r="CP9" s="13"/>
-      <c r="CQ9" s="13"/>
-      <c r="CR9" s="13"/>
-      <c r="CS9" s="13"/>
-      <c r="CT9" s="13"/>
-      <c r="CU9" s="13"/>
-      <c r="CV9" s="13"/>
-      <c r="CW9" s="13"/>
-      <c r="CX9" s="13"/>
-      <c r="CY9" s="13"/>
-      <c r="CZ9" s="13"/>
-      <c r="DA9" s="13"/>
-      <c r="DB9" s="13"/>
-      <c r="DC9" s="13"/>
-      <c r="DD9" s="13"/>
-      <c r="DE9" s="13"/>
-      <c r="DF9" s="13"/>
-      <c r="DG9" s="13"/>
-      <c r="DH9" s="13"/>
-      <c r="DI9" s="13"/>
-      <c r="DJ9" s="13"/>
-      <c r="DK9" s="13"/>
-      <c r="DL9" s="13"/>
-      <c r="DM9" s="13"/>
-      <c r="DN9" s="13"/>
-      <c r="DO9" s="13"/>
-      <c r="DP9" s="13"/>
-      <c r="DQ9" s="13"/>
-      <c r="DR9" s="13"/>
-      <c r="DS9" s="13"/>
-      <c r="DT9" s="13"/>
-      <c r="DU9" s="13"/>
-      <c r="DV9" s="13"/>
-      <c r="DW9" s="13"/>
-      <c r="DX9" s="13"/>
-      <c r="DY9" s="13"/>
-      <c r="DZ9" s="13"/>
-      <c r="EA9" s="13"/>
-      <c r="EB9" s="13"/>
-      <c r="EC9" s="13"/>
-      <c r="ED9" s="13"/>
-      <c r="EE9" s="13"/>
-      <c r="EF9" s="13"/>
-      <c r="EG9" s="13"/>
-      <c r="EH9" s="13"/>
-      <c r="EI9" s="13"/>
-      <c r="EJ9" s="13"/>
-      <c r="EK9" s="13"/>
-      <c r="EL9" s="13"/>
-      <c r="EM9" s="13"/>
-      <c r="EN9" s="13"/>
-      <c r="EO9" s="13"/>
-      <c r="EP9" s="13"/>
-      <c r="EQ9" s="13"/>
-      <c r="ER9" s="13"/>
-      <c r="ES9" s="13"/>
-      <c r="ET9" s="13"/>
-      <c r="EU9" s="13"/>
-      <c r="EV9" s="13"/>
-      <c r="EW9" s="13"/>
-      <c r="EX9" s="13"/>
-      <c r="EY9" s="13"/>
-      <c r="EZ9" s="13"/>
-      <c r="FA9" s="13"/>
-      <c r="FB9" s="13"/>
-      <c r="FC9" s="13"/>
-      <c r="FD9" s="13"/>
-      <c r="FE9" s="13"/>
-      <c r="FF9" s="13"/>
-      <c r="FG9" s="13"/>
-      <c r="FH9" s="13"/>
-      <c r="FI9" s="13"/>
-      <c r="FJ9" s="13"/>
-      <c r="FK9" s="13"/>
-      <c r="FL9" s="13"/>
-      <c r="FM9" s="13"/>
-      <c r="FN9" s="13"/>
-      <c r="FO9" s="13"/>
-      <c r="FP9" s="13"/>
-      <c r="FQ9" s="13"/>
-      <c r="FR9" s="13"/>
-      <c r="FS9" s="13"/>
-      <c r="FT9" s="13"/>
-      <c r="FU9" s="13"/>
-      <c r="FV9" s="13"/>
-      <c r="FW9" s="13"/>
-      <c r="FX9" s="13"/>
-      <c r="FY9" s="13"/>
-      <c r="FZ9" s="13"/>
-      <c r="GA9" s="13"/>
-      <c r="GB9" s="13"/>
-      <c r="GC9" s="13"/>
-      <c r="GD9" s="13"/>
-      <c r="GE9" s="13"/>
-      <c r="GF9" s="13"/>
-      <c r="GG9" s="13"/>
-      <c r="GH9" s="13"/>
-      <c r="GI9" s="13"/>
-      <c r="GJ9" s="13"/>
-      <c r="GK9" s="13"/>
-      <c r="GL9" s="13"/>
-      <c r="GM9" s="13"/>
-      <c r="GN9" s="13"/>
-      <c r="GO9" s="13"/>
-      <c r="GP9" s="13"/>
-      <c r="GQ9" s="13"/>
-      <c r="GR9" s="13"/>
-      <c r="GS9" s="13"/>
-      <c r="GT9" s="13"/>
-      <c r="GU9" s="13"/>
-      <c r="GV9" s="13"/>
-      <c r="GW9" s="13"/>
-      <c r="GX9" s="13"/>
-      <c r="GY9" s="13"/>
-      <c r="GZ9" s="13"/>
-      <c r="HA9" s="13"/>
-      <c r="HB9" s="13"/>
-      <c r="HC9" s="13"/>
-      <c r="HD9" s="13"/>
-      <c r="HE9" s="13"/>
-      <c r="HF9" s="13"/>
-      <c r="HG9" s="13"/>
-      <c r="HH9" s="13"/>
-      <c r="HI9" s="13"/>
-      <c r="HJ9" s="13"/>
-      <c r="HK9" s="13"/>
-      <c r="HL9" s="13"/>
-      <c r="HM9" s="13"/>
-      <c r="HN9" s="13"/>
-      <c r="HO9" s="13"/>
-      <c r="HP9" s="13"/>
-      <c r="HQ9" s="13"/>
-      <c r="HR9" s="13"/>
-      <c r="HS9" s="13"/>
-      <c r="HT9" s="13"/>
-      <c r="HU9" s="13"/>
-      <c r="HV9" s="13"/>
-      <c r="HW9" s="13"/>
-      <c r="HX9" s="13"/>
-      <c r="HY9" s="13"/>
-      <c r="HZ9" s="13"/>
-      <c r="IA9" s="13"/>
-      <c r="IB9" s="13"/>
-      <c r="IC9" s="13"/>
-      <c r="ID9" s="13"/>
-      <c r="IE9" s="13"/>
-      <c r="IF9" s="13"/>
-      <c r="IG9" s="13"/>
-      <c r="IH9" s="13"/>
-      <c r="II9" s="13"/>
+    <row r="9" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9"/>
+      <c r="FJ9"/>
+      <c r="FK9"/>
+      <c r="FL9"/>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9"/>
+      <c r="FR9"/>
+      <c r="FS9"/>
+      <c r="FT9"/>
+      <c r="FU9"/>
+      <c r="FV9"/>
+      <c r="FW9"/>
+      <c r="FX9"/>
+      <c r="FY9"/>
+      <c r="FZ9"/>
+      <c r="GA9"/>
+      <c r="GB9"/>
+      <c r="GC9"/>
+      <c r="GD9"/>
+      <c r="GE9"/>
+      <c r="GF9"/>
+      <c r="GG9"/>
+      <c r="GH9"/>
+      <c r="GI9"/>
+      <c r="GJ9"/>
+      <c r="GK9"/>
+      <c r="GL9"/>
+      <c r="GM9"/>
+      <c r="GN9"/>
+      <c r="GO9"/>
+      <c r="GP9"/>
+      <c r="GQ9"/>
+      <c r="GR9"/>
+      <c r="GS9"/>
+      <c r="GT9"/>
+      <c r="GU9"/>
+      <c r="GV9"/>
+      <c r="GW9"/>
+      <c r="GX9"/>
+      <c r="GY9"/>
+      <c r="GZ9"/>
+      <c r="HA9"/>
+      <c r="HB9"/>
+      <c r="HC9"/>
+      <c r="HD9"/>
+      <c r="HE9"/>
+      <c r="HF9"/>
+      <c r="HG9"/>
+      <c r="HH9"/>
+      <c r="HI9"/>
+      <c r="HJ9"/>
+      <c r="HK9"/>
+      <c r="HL9"/>
+      <c r="HM9"/>
+      <c r="HN9"/>
+      <c r="HO9"/>
+      <c r="HP9"/>
+      <c r="HQ9"/>
+      <c r="HR9"/>
+      <c r="HS9"/>
+      <c r="HT9"/>
+      <c r="HU9"/>
+      <c r="HV9"/>
+      <c r="HW9"/>
+      <c r="HX9"/>
+      <c r="HY9"/>
+      <c r="HZ9"/>
+      <c r="IA9"/>
+      <c r="IB9"/>
+      <c r="IC9"/>
+      <c r="ID9"/>
+      <c r="IE9"/>
+      <c r="IF9"/>
+      <c r="IG9"/>
+      <c r="IH9"/>
+      <c r="II9"/>
     </row>
-    <row r="10" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
-      <c r="ED10"/>
-      <c r="EE10"/>
-      <c r="EF10"/>
-      <c r="EG10"/>
-      <c r="EH10"/>
-      <c r="EI10"/>
-      <c r="EJ10"/>
-      <c r="EK10"/>
-      <c r="EL10"/>
-      <c r="EM10"/>
-      <c r="EN10"/>
-      <c r="EO10"/>
-      <c r="EP10"/>
-      <c r="EQ10"/>
-      <c r="ER10"/>
-      <c r="ES10"/>
-      <c r="ET10"/>
-      <c r="EU10"/>
-      <c r="EV10"/>
-      <c r="EW10"/>
-      <c r="EX10"/>
-      <c r="EY10"/>
-      <c r="EZ10"/>
-      <c r="FA10"/>
-      <c r="FB10"/>
-      <c r="FC10"/>
-      <c r="FD10"/>
-      <c r="FE10"/>
-      <c r="FF10"/>
-      <c r="FG10"/>
-      <c r="FH10"/>
-      <c r="FI10"/>
-      <c r="FJ10"/>
-      <c r="FK10"/>
-      <c r="FL10"/>
-      <c r="FM10"/>
-      <c r="FN10"/>
-      <c r="FO10"/>
-      <c r="FP10"/>
-      <c r="FQ10"/>
-      <c r="FR10"/>
-      <c r="FS10"/>
-      <c r="FT10"/>
-      <c r="FU10"/>
-      <c r="FV10"/>
-      <c r="FW10"/>
-      <c r="FX10"/>
-      <c r="FY10"/>
-      <c r="FZ10"/>
-      <c r="GA10"/>
-      <c r="GB10"/>
-      <c r="GC10"/>
-      <c r="GD10"/>
-      <c r="GE10"/>
-      <c r="GF10"/>
-      <c r="GG10"/>
-      <c r="GH10"/>
-      <c r="GI10"/>
-      <c r="GJ10"/>
-      <c r="GK10"/>
-      <c r="GL10"/>
-      <c r="GM10"/>
-      <c r="GN10"/>
-      <c r="GO10"/>
-      <c r="GP10"/>
-      <c r="GQ10"/>
-      <c r="GR10"/>
-      <c r="GS10"/>
-      <c r="GT10"/>
-      <c r="GU10"/>
-      <c r="GV10"/>
-      <c r="GW10"/>
-      <c r="GX10"/>
-      <c r="GY10"/>
-      <c r="GZ10"/>
-      <c r="HA10"/>
-      <c r="HB10"/>
-      <c r="HC10"/>
-      <c r="HD10"/>
-      <c r="HE10"/>
-      <c r="HF10"/>
-      <c r="HG10"/>
-      <c r="HH10"/>
-      <c r="HI10"/>
-      <c r="HJ10"/>
-      <c r="HK10"/>
-      <c r="HL10"/>
-      <c r="HM10"/>
-      <c r="HN10"/>
-      <c r="HO10"/>
-      <c r="HP10"/>
-      <c r="HQ10"/>
-      <c r="HR10"/>
-      <c r="HS10"/>
-      <c r="HT10"/>
-      <c r="HU10"/>
-      <c r="HV10"/>
-      <c r="HW10"/>
-      <c r="HX10"/>
-      <c r="HY10"/>
-      <c r="HZ10"/>
-      <c r="IA10"/>
-      <c r="IB10"/>
-      <c r="IC10"/>
-      <c r="ID10"/>
-      <c r="IE10"/>
-      <c r="IF10"/>
-      <c r="IG10"/>
-      <c r="IH10"/>
-      <c r="II10"/>
+    <row r="10" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="13"/>
+      <c r="CM10" s="13"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="13"/>
+      <c r="DK10" s="13"/>
+      <c r="DL10" s="13"/>
+      <c r="DM10" s="13"/>
+      <c r="DN10" s="13"/>
+      <c r="DO10" s="13"/>
+      <c r="DP10" s="13"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="13"/>
+      <c r="DS10" s="13"/>
+      <c r="DT10" s="13"/>
+      <c r="DU10" s="13"/>
+      <c r="DV10" s="13"/>
+      <c r="DW10" s="13"/>
+      <c r="DX10" s="13"/>
+      <c r="DY10" s="13"/>
+      <c r="DZ10" s="13"/>
+      <c r="EA10" s="13"/>
+      <c r="EB10" s="13"/>
+      <c r="EC10" s="13"/>
+      <c r="ED10" s="13"/>
+      <c r="EE10" s="13"/>
+      <c r="EF10" s="13"/>
+      <c r="EG10" s="13"/>
+      <c r="EH10" s="13"/>
+      <c r="EI10" s="13"/>
+      <c r="EJ10" s="13"/>
+      <c r="EK10" s="13"/>
+      <c r="EL10" s="13"/>
+      <c r="EM10" s="13"/>
+      <c r="EN10" s="13"/>
+      <c r="EO10" s="13"/>
+      <c r="EP10" s="13"/>
+      <c r="EQ10" s="13"/>
+      <c r="ER10" s="13"/>
+      <c r="ES10" s="13"/>
+      <c r="ET10" s="13"/>
+      <c r="EU10" s="13"/>
+      <c r="EV10" s="13"/>
+      <c r="EW10" s="13"/>
+      <c r="EX10" s="13"/>
+      <c r="EY10" s="13"/>
+      <c r="EZ10" s="13"/>
+      <c r="FA10" s="13"/>
+      <c r="FB10" s="13"/>
+      <c r="FC10" s="13"/>
+      <c r="FD10" s="13"/>
+      <c r="FE10" s="13"/>
+      <c r="FF10" s="13"/>
+      <c r="FG10" s="13"/>
+      <c r="FH10" s="13"/>
+      <c r="FI10" s="13"/>
+      <c r="FJ10" s="13"/>
+      <c r="FK10" s="13"/>
+      <c r="FL10" s="13"/>
+      <c r="FM10" s="13"/>
+      <c r="FN10" s="13"/>
+      <c r="FO10" s="13"/>
+      <c r="FP10" s="13"/>
+      <c r="FQ10" s="13"/>
+      <c r="FR10" s="13"/>
+      <c r="FS10" s="13"/>
+      <c r="FT10" s="13"/>
+      <c r="FU10" s="13"/>
+      <c r="FV10" s="13"/>
+      <c r="FW10" s="13"/>
+      <c r="FX10" s="13"/>
+      <c r="FY10" s="13"/>
+      <c r="FZ10" s="13"/>
+      <c r="GA10" s="13"/>
+      <c r="GB10" s="13"/>
+      <c r="GC10" s="13"/>
+      <c r="GD10" s="13"/>
+      <c r="GE10" s="13"/>
+      <c r="GF10" s="13"/>
+      <c r="GG10" s="13"/>
+      <c r="GH10" s="13"/>
+      <c r="GI10" s="13"/>
+      <c r="GJ10" s="13"/>
+      <c r="GK10" s="13"/>
+      <c r="GL10" s="13"/>
+      <c r="GM10" s="13"/>
+      <c r="GN10" s="13"/>
+      <c r="GO10" s="13"/>
+      <c r="GP10" s="13"/>
+      <c r="GQ10" s="13"/>
+      <c r="GR10" s="13"/>
+      <c r="GS10" s="13"/>
+      <c r="GT10" s="13"/>
+      <c r="GU10" s="13"/>
+      <c r="GV10" s="13"/>
+      <c r="GW10" s="13"/>
+      <c r="GX10" s="13"/>
+      <c r="GY10" s="13"/>
+      <c r="GZ10" s="13"/>
+      <c r="HA10" s="13"/>
+      <c r="HB10" s="13"/>
+      <c r="HC10" s="13"/>
+      <c r="HD10" s="13"/>
+      <c r="HE10" s="13"/>
+      <c r="HF10" s="13"/>
+      <c r="HG10" s="13"/>
+      <c r="HH10" s="13"/>
+      <c r="HI10" s="13"/>
+      <c r="HJ10" s="13"/>
+      <c r="HK10" s="13"/>
+      <c r="HL10" s="13"/>
+      <c r="HM10" s="13"/>
+      <c r="HN10" s="13"/>
+      <c r="HO10" s="13"/>
+      <c r="HP10" s="13"/>
+      <c r="HQ10" s="13"/>
+      <c r="HR10" s="13"/>
+      <c r="HS10" s="13"/>
+      <c r="HT10" s="13"/>
+      <c r="HU10" s="13"/>
+      <c r="HV10" s="13"/>
+      <c r="HW10" s="13"/>
+      <c r="HX10" s="13"/>
+      <c r="HY10" s="13"/>
+      <c r="HZ10" s="13"/>
+      <c r="IA10" s="13"/>
+      <c r="IB10" s="13"/>
+      <c r="IC10" s="13"/>
+      <c r="ID10" s="13"/>
+      <c r="IE10" s="13"/>
+      <c r="IF10" s="13"/>
+      <c r="IG10" s="13"/>
+      <c r="IH10" s="13"/>
+      <c r="II10" s="13"/>
     </row>
-    <row r="11" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>44</v>
+    <row r="11" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="50"/>
       <c r="L11" s="50"/>
       <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
       <c r="R11" s="38"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -10439,293 +10685,281 @@
       <c r="IH11" s="13"/>
       <c r="II11" s="13"/>
     </row>
-    <row r="12" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="13"/>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="13"/>
-      <c r="BQ12" s="13"/>
-      <c r="BR12" s="13"/>
-      <c r="BS12" s="13"/>
-      <c r="BT12" s="13"/>
-      <c r="BU12" s="13"/>
-      <c r="BV12" s="13"/>
-      <c r="BW12" s="13"/>
-      <c r="BX12" s="13"/>
-      <c r="BY12" s="13"/>
-      <c r="BZ12" s="13"/>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="13"/>
-      <c r="CC12" s="13"/>
-      <c r="CD12" s="13"/>
-      <c r="CE12" s="13"/>
-      <c r="CF12" s="13"/>
-      <c r="CG12" s="13"/>
-      <c r="CH12" s="13"/>
-      <c r="CI12" s="13"/>
-      <c r="CJ12" s="13"/>
-      <c r="CK12" s="13"/>
-      <c r="CL12" s="13"/>
-      <c r="CM12" s="13"/>
-      <c r="CN12" s="13"/>
-      <c r="CO12" s="13"/>
-      <c r="CP12" s="13"/>
-      <c r="CQ12" s="13"/>
-      <c r="CR12" s="13"/>
-      <c r="CS12" s="13"/>
-      <c r="CT12" s="13"/>
-      <c r="CU12" s="13"/>
-      <c r="CV12" s="13"/>
-      <c r="CW12" s="13"/>
-      <c r="CX12" s="13"/>
-      <c r="CY12" s="13"/>
-      <c r="CZ12" s="13"/>
-      <c r="DA12" s="13"/>
-      <c r="DB12" s="13"/>
-      <c r="DC12" s="13"/>
-      <c r="DD12" s="13"/>
-      <c r="DE12" s="13"/>
-      <c r="DF12" s="13"/>
-      <c r="DG12" s="13"/>
-      <c r="DH12" s="13"/>
-      <c r="DI12" s="13"/>
-      <c r="DJ12" s="13"/>
-      <c r="DK12" s="13"/>
-      <c r="DL12" s="13"/>
-      <c r="DM12" s="13"/>
-      <c r="DN12" s="13"/>
-      <c r="DO12" s="13"/>
-      <c r="DP12" s="13"/>
-      <c r="DQ12" s="13"/>
-      <c r="DR12" s="13"/>
-      <c r="DS12" s="13"/>
-      <c r="DT12" s="13"/>
-      <c r="DU12" s="13"/>
-      <c r="DV12" s="13"/>
-      <c r="DW12" s="13"/>
-      <c r="DX12" s="13"/>
-      <c r="DY12" s="13"/>
-      <c r="DZ12" s="13"/>
-      <c r="EA12" s="13"/>
-      <c r="EB12" s="13"/>
-      <c r="EC12" s="13"/>
-      <c r="ED12" s="13"/>
-      <c r="EE12" s="13"/>
-      <c r="EF12" s="13"/>
-      <c r="EG12" s="13"/>
-      <c r="EH12" s="13"/>
-      <c r="EI12" s="13"/>
-      <c r="EJ12" s="13"/>
-      <c r="EK12" s="13"/>
-      <c r="EL12" s="13"/>
-      <c r="EM12" s="13"/>
-      <c r="EN12" s="13"/>
-      <c r="EO12" s="13"/>
-      <c r="EP12" s="13"/>
-      <c r="EQ12" s="13"/>
-      <c r="ER12" s="13"/>
-      <c r="ES12" s="13"/>
-      <c r="ET12" s="13"/>
-      <c r="EU12" s="13"/>
-      <c r="EV12" s="13"/>
-      <c r="EW12" s="13"/>
-      <c r="EX12" s="13"/>
-      <c r="EY12" s="13"/>
-      <c r="EZ12" s="13"/>
-      <c r="FA12" s="13"/>
-      <c r="FB12" s="13"/>
-      <c r="FC12" s="13"/>
-      <c r="FD12" s="13"/>
-      <c r="FE12" s="13"/>
-      <c r="FF12" s="13"/>
-      <c r="FG12" s="13"/>
-      <c r="FH12" s="13"/>
-      <c r="FI12" s="13"/>
-      <c r="FJ12" s="13"/>
-      <c r="FK12" s="13"/>
-      <c r="FL12" s="13"/>
-      <c r="FM12" s="13"/>
-      <c r="FN12" s="13"/>
-      <c r="FO12" s="13"/>
-      <c r="FP12" s="13"/>
-      <c r="FQ12" s="13"/>
-      <c r="FR12" s="13"/>
-      <c r="FS12" s="13"/>
-      <c r="FT12" s="13"/>
-      <c r="FU12" s="13"/>
-      <c r="FV12" s="13"/>
-      <c r="FW12" s="13"/>
-      <c r="FX12" s="13"/>
-      <c r="FY12" s="13"/>
-      <c r="FZ12" s="13"/>
-      <c r="GA12" s="13"/>
-      <c r="GB12" s="13"/>
-      <c r="GC12" s="13"/>
-      <c r="GD12" s="13"/>
-      <c r="GE12" s="13"/>
-      <c r="GF12" s="13"/>
-      <c r="GG12" s="13"/>
-      <c r="GH12" s="13"/>
-      <c r="GI12" s="13"/>
-      <c r="GJ12" s="13"/>
-      <c r="GK12" s="13"/>
-      <c r="GL12" s="13"/>
-      <c r="GM12" s="13"/>
-      <c r="GN12" s="13"/>
-      <c r="GO12" s="13"/>
-      <c r="GP12" s="13"/>
-      <c r="GQ12" s="13"/>
-      <c r="GR12" s="13"/>
-      <c r="GS12" s="13"/>
-      <c r="GT12" s="13"/>
-      <c r="GU12" s="13"/>
-      <c r="GV12" s="13"/>
-      <c r="GW12" s="13"/>
-      <c r="GX12" s="13"/>
-      <c r="GY12" s="13"/>
-      <c r="GZ12" s="13"/>
-      <c r="HA12" s="13"/>
-      <c r="HB12" s="13"/>
-      <c r="HC12" s="13"/>
-      <c r="HD12" s="13"/>
-      <c r="HE12" s="13"/>
-      <c r="HF12" s="13"/>
-      <c r="HG12" s="13"/>
-      <c r="HH12" s="13"/>
-      <c r="HI12" s="13"/>
-      <c r="HJ12" s="13"/>
-      <c r="HK12" s="13"/>
-      <c r="HL12" s="13"/>
-      <c r="HM12" s="13"/>
-      <c r="HN12" s="13"/>
-      <c r="HO12" s="13"/>
-      <c r="HP12" s="13"/>
-      <c r="HQ12" s="13"/>
-      <c r="HR12" s="13"/>
-      <c r="HS12" s="13"/>
-      <c r="HT12" s="13"/>
-      <c r="HU12" s="13"/>
-      <c r="HV12" s="13"/>
-      <c r="HW12" s="13"/>
-      <c r="HX12" s="13"/>
-      <c r="HY12" s="13"/>
-      <c r="HZ12" s="13"/>
-      <c r="IA12" s="13"/>
-      <c r="IB12" s="13"/>
-      <c r="IC12" s="13"/>
-      <c r="ID12" s="13"/>
-      <c r="IE12" s="13"/>
-      <c r="IF12" s="13"/>
-      <c r="IG12" s="13"/>
-      <c r="IH12" s="13"/>
-      <c r="II12" s="13"/>
+    <row r="12" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="58"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
+      <c r="GB12"/>
+      <c r="GC12"/>
+      <c r="GD12"/>
+      <c r="GE12"/>
+      <c r="GF12"/>
+      <c r="GG12"/>
+      <c r="GH12"/>
+      <c r="GI12"/>
+      <c r="GJ12"/>
+      <c r="GK12"/>
+      <c r="GL12"/>
+      <c r="GM12"/>
+      <c r="GN12"/>
+      <c r="GO12"/>
+      <c r="GP12"/>
+      <c r="GQ12"/>
+      <c r="GR12"/>
+      <c r="GS12"/>
+      <c r="GT12"/>
+      <c r="GU12"/>
+      <c r="GV12"/>
+      <c r="GW12"/>
+      <c r="GX12"/>
+      <c r="GY12"/>
+      <c r="GZ12"/>
+      <c r="HA12"/>
+      <c r="HB12"/>
+      <c r="HC12"/>
+      <c r="HD12"/>
+      <c r="HE12"/>
+      <c r="HF12"/>
+      <c r="HG12"/>
+      <c r="HH12"/>
+      <c r="HI12"/>
+      <c r="HJ12"/>
+      <c r="HK12"/>
+      <c r="HL12"/>
+      <c r="HM12"/>
+      <c r="HN12"/>
+      <c r="HO12"/>
+      <c r="HP12"/>
+      <c r="HQ12"/>
+      <c r="HR12"/>
+      <c r="HS12"/>
+      <c r="HT12"/>
+      <c r="HU12"/>
+      <c r="HV12"/>
+      <c r="HW12"/>
+      <c r="HX12"/>
+      <c r="HY12"/>
+      <c r="HZ12"/>
+      <c r="IA12"/>
+      <c r="IB12"/>
+      <c r="IC12"/>
+      <c r="ID12"/>
+      <c r="IE12"/>
+      <c r="IF12"/>
+      <c r="IG12"/>
+      <c r="IH12"/>
+      <c r="II12"/>
     </row>
-    <row r="13" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="63" t="s">
-        <v>48</v>
+    <row r="13" spans="1:243" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72">
+        <v>3</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="50"/>
+        <v>103</v>
+      </c>
+      <c r="F13" s="49"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="63" t="s">
+        <v>93</v>
+      </c>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="L13" s="50"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -10953,32 +11187,24 @@
       <c r="IH13" s="13"/>
       <c r="II13" s="13"/>
     </row>
-    <row r="14" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="63" t="s">
-        <v>46</v>
+    <row r="14" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="72"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
-        <v>23</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="50"/>
       <c r="M14" s="51"/>
       <c r="N14" s="53"/>
@@ -11212,32 +11438,28 @@
       <c r="IH14" s="13"/>
       <c r="II14" s="13"/>
     </row>
-    <row r="15" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="63" t="s">
-        <v>48</v>
+    <row r="15" spans="1:243" s="9" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="K15" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="51"/>
-      <c r="N15" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="53" t="s">
-        <v>26</v>
-      </c>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
       <c r="R15" s="38"/>
@@ -11712,22 +11934,16 @@
       <c r="IH16"/>
       <c r="II16"/>
     </row>
-    <row r="17" spans="1:243" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78">
-        <v>3</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>124</v>
-      </c>
+    <row r="17" spans="1:243" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="72">
+        <v>4</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -11967,32 +12183,18 @@
       <c r="IH17" s="13"/>
       <c r="II17" s="13"/>
     </row>
-    <row r="18" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>22</v>
-      </c>
+    <row r="18" spans="1:243" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="72"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="50" t="s">
-        <v>23</v>
-      </c>
+      <c r="K18" s="50"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
       <c r="N18" s="53"/>
@@ -12226,32 +12428,24 @@
       <c r="IH18" s="13"/>
       <c r="II18" s="13"/>
     </row>
-    <row r="19" spans="1:243" s="9" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>29</v>
-      </c>
+    <row r="19" spans="1:243" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="50" t="s">
-        <v>14</v>
-      </c>
+      <c r="L19" s="50"/>
       <c r="M19" s="51"/>
-      <c r="N19" s="53" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -12724,21 +12918,21 @@
       <c r="IH20"/>
       <c r="II20"/>
     </row>
-    <row r="21" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="78">
-        <v>4</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>45</v>
+    <row r="21" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="50"/>
@@ -12746,3360 +12940,38 @@
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="L21" s="63" t="s">
+        <v>106</v>
+      </c>
       <c r="M21" s="51"/>
       <c r="N21" s="52"/>
       <c r="O21" s="52"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="38"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="13"/>
-      <c r="BP21" s="13"/>
-      <c r="BQ21" s="13"/>
-      <c r="BR21" s="13"/>
-      <c r="BS21" s="13"/>
-      <c r="BT21" s="13"/>
-      <c r="BU21" s="13"/>
-      <c r="BV21" s="13"/>
-      <c r="BW21" s="13"/>
-      <c r="BX21" s="13"/>
-      <c r="BY21" s="13"/>
-      <c r="BZ21" s="13"/>
-      <c r="CA21" s="13"/>
-      <c r="CB21" s="13"/>
-      <c r="CC21" s="13"/>
-      <c r="CD21" s="13"/>
-      <c r="CE21" s="13"/>
-      <c r="CF21" s="13"/>
-      <c r="CG21" s="13"/>
-      <c r="CH21" s="13"/>
-      <c r="CI21" s="13"/>
-      <c r="CJ21" s="13"/>
-      <c r="CK21" s="13"/>
-      <c r="CL21" s="13"/>
-      <c r="CM21" s="13"/>
-      <c r="CN21" s="13"/>
-      <c r="CO21" s="13"/>
-      <c r="CP21" s="13"/>
-      <c r="CQ21" s="13"/>
-      <c r="CR21" s="13"/>
-      <c r="CS21" s="13"/>
-      <c r="CT21" s="13"/>
-      <c r="CU21" s="13"/>
-      <c r="CV21" s="13"/>
-      <c r="CW21" s="13"/>
-      <c r="CX21" s="13"/>
-      <c r="CY21" s="13"/>
-      <c r="CZ21" s="13"/>
-      <c r="DA21" s="13"/>
-      <c r="DB21" s="13"/>
-      <c r="DC21" s="13"/>
-      <c r="DD21" s="13"/>
-      <c r="DE21" s="13"/>
-      <c r="DF21" s="13"/>
-      <c r="DG21" s="13"/>
-      <c r="DH21" s="13"/>
-      <c r="DI21" s="13"/>
-      <c r="DJ21" s="13"/>
-      <c r="DK21" s="13"/>
-      <c r="DL21" s="13"/>
-      <c r="DM21" s="13"/>
-      <c r="DN21" s="13"/>
-      <c r="DO21" s="13"/>
-      <c r="DP21" s="13"/>
-      <c r="DQ21" s="13"/>
-      <c r="DR21" s="13"/>
-      <c r="DS21" s="13"/>
-      <c r="DT21" s="13"/>
-      <c r="DU21" s="13"/>
-      <c r="DV21" s="13"/>
-      <c r="DW21" s="13"/>
-      <c r="DX21" s="13"/>
-      <c r="DY21" s="13"/>
-      <c r="DZ21" s="13"/>
-      <c r="EA21" s="13"/>
-      <c r="EB21" s="13"/>
-      <c r="EC21" s="13"/>
-      <c r="ED21" s="13"/>
-      <c r="EE21" s="13"/>
-      <c r="EF21" s="13"/>
-      <c r="EG21" s="13"/>
-      <c r="EH21" s="13"/>
-      <c r="EI21" s="13"/>
-      <c r="EJ21" s="13"/>
-      <c r="EK21" s="13"/>
-      <c r="EL21" s="13"/>
-      <c r="EM21" s="13"/>
-      <c r="EN21" s="13"/>
-      <c r="EO21" s="13"/>
-      <c r="EP21" s="13"/>
-      <c r="EQ21" s="13"/>
-      <c r="ER21" s="13"/>
-      <c r="ES21" s="13"/>
-      <c r="ET21" s="13"/>
-      <c r="EU21" s="13"/>
-      <c r="EV21" s="13"/>
-      <c r="EW21" s="13"/>
-      <c r="EX21" s="13"/>
-      <c r="EY21" s="13"/>
-      <c r="EZ21" s="13"/>
-      <c r="FA21" s="13"/>
-      <c r="FB21" s="13"/>
-      <c r="FC21" s="13"/>
-      <c r="FD21" s="13"/>
-      <c r="FE21" s="13"/>
-      <c r="FF21" s="13"/>
-      <c r="FG21" s="13"/>
-      <c r="FH21" s="13"/>
-      <c r="FI21" s="13"/>
-      <c r="FJ21" s="13"/>
-      <c r="FK21" s="13"/>
-      <c r="FL21" s="13"/>
-      <c r="FM21" s="13"/>
-      <c r="FN21" s="13"/>
-      <c r="FO21" s="13"/>
-      <c r="FP21" s="13"/>
-      <c r="FQ21" s="13"/>
-      <c r="FR21" s="13"/>
-      <c r="FS21" s="13"/>
-      <c r="FT21" s="13"/>
-      <c r="FU21" s="13"/>
-      <c r="FV21" s="13"/>
-      <c r="FW21" s="13"/>
-      <c r="FX21" s="13"/>
-      <c r="FY21" s="13"/>
-      <c r="FZ21" s="13"/>
-      <c r="GA21" s="13"/>
-      <c r="GB21" s="13"/>
-      <c r="GC21" s="13"/>
-      <c r="GD21" s="13"/>
-      <c r="GE21" s="13"/>
-      <c r="GF21" s="13"/>
-      <c r="GG21" s="13"/>
-      <c r="GH21" s="13"/>
-      <c r="GI21" s="13"/>
-      <c r="GJ21" s="13"/>
-      <c r="GK21" s="13"/>
-      <c r="GL21" s="13"/>
-      <c r="GM21" s="13"/>
-      <c r="GN21" s="13"/>
-      <c r="GO21" s="13"/>
-      <c r="GP21" s="13"/>
-      <c r="GQ21" s="13"/>
-      <c r="GR21" s="13"/>
-      <c r="GS21" s="13"/>
-      <c r="GT21" s="13"/>
-      <c r="GU21" s="13"/>
-      <c r="GV21" s="13"/>
-      <c r="GW21" s="13"/>
-      <c r="GX21" s="13"/>
-      <c r="GY21" s="13"/>
-      <c r="GZ21" s="13"/>
-      <c r="HA21" s="13"/>
-      <c r="HB21" s="13"/>
-      <c r="HC21" s="13"/>
-      <c r="HD21" s="13"/>
-      <c r="HE21" s="13"/>
-      <c r="HF21" s="13"/>
-      <c r="HG21" s="13"/>
-      <c r="HH21" s="13"/>
-      <c r="HI21" s="13"/>
-      <c r="HJ21" s="13"/>
-      <c r="HK21" s="13"/>
-      <c r="HL21" s="13"/>
-      <c r="HM21" s="13"/>
-      <c r="HN21" s="13"/>
-      <c r="HO21" s="13"/>
-      <c r="HP21" s="13"/>
-      <c r="HQ21" s="13"/>
-      <c r="HR21" s="13"/>
-      <c r="HS21" s="13"/>
-      <c r="HT21" s="13"/>
-      <c r="HU21" s="13"/>
-      <c r="HV21" s="13"/>
-      <c r="HW21" s="13"/>
-      <c r="HX21" s="13"/>
-      <c r="HY21" s="13"/>
-      <c r="HZ21" s="13"/>
-      <c r="IA21" s="13"/>
-      <c r="IB21" s="13"/>
-      <c r="IC21" s="13"/>
-      <c r="ID21" s="13"/>
-      <c r="IE21" s="13"/>
-      <c r="IF21" s="13"/>
-      <c r="IG21" s="13"/>
-      <c r="IH21" s="13"/>
-      <c r="II21" s="13"/>
     </row>
-    <row r="22" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-      <c r="BP22" s="13"/>
-      <c r="BQ22" s="13"/>
-      <c r="BR22" s="13"/>
-      <c r="BS22" s="13"/>
-      <c r="BT22" s="13"/>
-      <c r="BU22" s="13"/>
-      <c r="BV22" s="13"/>
-      <c r="BW22" s="13"/>
-      <c r="BX22" s="13"/>
-      <c r="BY22" s="13"/>
-      <c r="BZ22" s="13"/>
-      <c r="CA22" s="13"/>
-      <c r="CB22" s="13"/>
-      <c r="CC22" s="13"/>
-      <c r="CD22" s="13"/>
-      <c r="CE22" s="13"/>
-      <c r="CF22" s="13"/>
-      <c r="CG22" s="13"/>
-      <c r="CH22" s="13"/>
-      <c r="CI22" s="13"/>
-      <c r="CJ22" s="13"/>
-      <c r="CK22" s="13"/>
-      <c r="CL22" s="13"/>
-      <c r="CM22" s="13"/>
-      <c r="CN22" s="13"/>
-      <c r="CO22" s="13"/>
-      <c r="CP22" s="13"/>
-      <c r="CQ22" s="13"/>
-      <c r="CR22" s="13"/>
-      <c r="CS22" s="13"/>
-      <c r="CT22" s="13"/>
-      <c r="CU22" s="13"/>
-      <c r="CV22" s="13"/>
-      <c r="CW22" s="13"/>
-      <c r="CX22" s="13"/>
-      <c r="CY22" s="13"/>
-      <c r="CZ22" s="13"/>
-      <c r="DA22" s="13"/>
-      <c r="DB22" s="13"/>
-      <c r="DC22" s="13"/>
-      <c r="DD22" s="13"/>
-      <c r="DE22" s="13"/>
-      <c r="DF22" s="13"/>
-      <c r="DG22" s="13"/>
-      <c r="DH22" s="13"/>
-      <c r="DI22" s="13"/>
-      <c r="DJ22" s="13"/>
-      <c r="DK22" s="13"/>
-      <c r="DL22" s="13"/>
-      <c r="DM22" s="13"/>
-      <c r="DN22" s="13"/>
-      <c r="DO22" s="13"/>
-      <c r="DP22" s="13"/>
-      <c r="DQ22" s="13"/>
-      <c r="DR22" s="13"/>
-      <c r="DS22" s="13"/>
-      <c r="DT22" s="13"/>
-      <c r="DU22" s="13"/>
-      <c r="DV22" s="13"/>
-      <c r="DW22" s="13"/>
-      <c r="DX22" s="13"/>
-      <c r="DY22" s="13"/>
-      <c r="DZ22" s="13"/>
-      <c r="EA22" s="13"/>
-      <c r="EB22" s="13"/>
-      <c r="EC22" s="13"/>
-      <c r="ED22" s="13"/>
-      <c r="EE22" s="13"/>
-      <c r="EF22" s="13"/>
-      <c r="EG22" s="13"/>
-      <c r="EH22" s="13"/>
-      <c r="EI22" s="13"/>
-      <c r="EJ22" s="13"/>
-      <c r="EK22" s="13"/>
-      <c r="EL22" s="13"/>
-      <c r="EM22" s="13"/>
-      <c r="EN22" s="13"/>
-      <c r="EO22" s="13"/>
-      <c r="EP22" s="13"/>
-      <c r="EQ22" s="13"/>
-      <c r="ER22" s="13"/>
-      <c r="ES22" s="13"/>
-      <c r="ET22" s="13"/>
-      <c r="EU22" s="13"/>
-      <c r="EV22" s="13"/>
-      <c r="EW22" s="13"/>
-      <c r="EX22" s="13"/>
-      <c r="EY22" s="13"/>
-      <c r="EZ22" s="13"/>
-      <c r="FA22" s="13"/>
-      <c r="FB22" s="13"/>
-      <c r="FC22" s="13"/>
-      <c r="FD22" s="13"/>
-      <c r="FE22" s="13"/>
-      <c r="FF22" s="13"/>
-      <c r="FG22" s="13"/>
-      <c r="FH22" s="13"/>
-      <c r="FI22" s="13"/>
-      <c r="FJ22" s="13"/>
-      <c r="FK22" s="13"/>
-      <c r="FL22" s="13"/>
-      <c r="FM22" s="13"/>
-      <c r="FN22" s="13"/>
-      <c r="FO22" s="13"/>
-      <c r="FP22" s="13"/>
-      <c r="FQ22" s="13"/>
-      <c r="FR22" s="13"/>
-      <c r="FS22" s="13"/>
-      <c r="FT22" s="13"/>
-      <c r="FU22" s="13"/>
-      <c r="FV22" s="13"/>
-      <c r="FW22" s="13"/>
-      <c r="FX22" s="13"/>
-      <c r="FY22" s="13"/>
-      <c r="FZ22" s="13"/>
-      <c r="GA22" s="13"/>
-      <c r="GB22" s="13"/>
-      <c r="GC22" s="13"/>
-      <c r="GD22" s="13"/>
-      <c r="GE22" s="13"/>
-      <c r="GF22" s="13"/>
-      <c r="GG22" s="13"/>
-      <c r="GH22" s="13"/>
-      <c r="GI22" s="13"/>
-      <c r="GJ22" s="13"/>
-      <c r="GK22" s="13"/>
-      <c r="GL22" s="13"/>
-      <c r="GM22" s="13"/>
-      <c r="GN22" s="13"/>
-      <c r="GO22" s="13"/>
-      <c r="GP22" s="13"/>
-      <c r="GQ22" s="13"/>
-      <c r="GR22" s="13"/>
-      <c r="GS22" s="13"/>
-      <c r="GT22" s="13"/>
-      <c r="GU22" s="13"/>
-      <c r="GV22" s="13"/>
-      <c r="GW22" s="13"/>
-      <c r="GX22" s="13"/>
-      <c r="GY22" s="13"/>
-      <c r="GZ22" s="13"/>
-      <c r="HA22" s="13"/>
-      <c r="HB22" s="13"/>
-      <c r="HC22" s="13"/>
-      <c r="HD22" s="13"/>
-      <c r="HE22" s="13"/>
-      <c r="HF22" s="13"/>
-      <c r="HG22" s="13"/>
-      <c r="HH22" s="13"/>
-      <c r="HI22" s="13"/>
-      <c r="HJ22" s="13"/>
-      <c r="HK22" s="13"/>
-      <c r="HL22" s="13"/>
-      <c r="HM22" s="13"/>
-      <c r="HN22" s="13"/>
-      <c r="HO22" s="13"/>
-      <c r="HP22" s="13"/>
-      <c r="HQ22" s="13"/>
-      <c r="HR22" s="13"/>
-      <c r="HS22" s="13"/>
-      <c r="HT22" s="13"/>
-      <c r="HU22" s="13"/>
-      <c r="HV22" s="13"/>
-      <c r="HW22" s="13"/>
-      <c r="HX22" s="13"/>
-      <c r="HY22" s="13"/>
-      <c r="HZ22" s="13"/>
-      <c r="IA22" s="13"/>
-      <c r="IB22" s="13"/>
-      <c r="IC22" s="13"/>
-      <c r="ID22" s="13"/>
-      <c r="IE22" s="13"/>
-      <c r="IF22" s="13"/>
-      <c r="IG22" s="13"/>
-      <c r="IH22" s="13"/>
-      <c r="II22" s="13"/>
-    </row>
-    <row r="23" spans="1:243" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="13"/>
-      <c r="BR23" s="13"/>
-      <c r="BS23" s="13"/>
-      <c r="BT23" s="13"/>
-      <c r="BU23" s="13"/>
-      <c r="BV23" s="13"/>
-      <c r="BW23" s="13"/>
-      <c r="BX23" s="13"/>
-      <c r="BY23" s="13"/>
-      <c r="BZ23" s="13"/>
-      <c r="CA23" s="13"/>
-      <c r="CB23" s="13"/>
-      <c r="CC23" s="13"/>
-      <c r="CD23" s="13"/>
-      <c r="CE23" s="13"/>
-      <c r="CF23" s="13"/>
-      <c r="CG23" s="13"/>
-      <c r="CH23" s="13"/>
-      <c r="CI23" s="13"/>
-      <c r="CJ23" s="13"/>
-      <c r="CK23" s="13"/>
-      <c r="CL23" s="13"/>
-      <c r="CM23" s="13"/>
-      <c r="CN23" s="13"/>
-      <c r="CO23" s="13"/>
-      <c r="CP23" s="13"/>
-      <c r="CQ23" s="13"/>
-      <c r="CR23" s="13"/>
-      <c r="CS23" s="13"/>
-      <c r="CT23" s="13"/>
-      <c r="CU23" s="13"/>
-      <c r="CV23" s="13"/>
-      <c r="CW23" s="13"/>
-      <c r="CX23" s="13"/>
-      <c r="CY23" s="13"/>
-      <c r="CZ23" s="13"/>
-      <c r="DA23" s="13"/>
-      <c r="DB23" s="13"/>
-      <c r="DC23" s="13"/>
-      <c r="DD23" s="13"/>
-      <c r="DE23" s="13"/>
-      <c r="DF23" s="13"/>
-      <c r="DG23" s="13"/>
-      <c r="DH23" s="13"/>
-      <c r="DI23" s="13"/>
-      <c r="DJ23" s="13"/>
-      <c r="DK23" s="13"/>
-      <c r="DL23" s="13"/>
-      <c r="DM23" s="13"/>
-      <c r="DN23" s="13"/>
-      <c r="DO23" s="13"/>
-      <c r="DP23" s="13"/>
-      <c r="DQ23" s="13"/>
-      <c r="DR23" s="13"/>
-      <c r="DS23" s="13"/>
-      <c r="DT23" s="13"/>
-      <c r="DU23" s="13"/>
-      <c r="DV23" s="13"/>
-      <c r="DW23" s="13"/>
-      <c r="DX23" s="13"/>
-      <c r="DY23" s="13"/>
-      <c r="DZ23" s="13"/>
-      <c r="EA23" s="13"/>
-      <c r="EB23" s="13"/>
-      <c r="EC23" s="13"/>
-      <c r="ED23" s="13"/>
-      <c r="EE23" s="13"/>
-      <c r="EF23" s="13"/>
-      <c r="EG23" s="13"/>
-      <c r="EH23" s="13"/>
-      <c r="EI23" s="13"/>
-      <c r="EJ23" s="13"/>
-      <c r="EK23" s="13"/>
-      <c r="EL23" s="13"/>
-      <c r="EM23" s="13"/>
-      <c r="EN23" s="13"/>
-      <c r="EO23" s="13"/>
-      <c r="EP23" s="13"/>
-      <c r="EQ23" s="13"/>
-      <c r="ER23" s="13"/>
-      <c r="ES23" s="13"/>
-      <c r="ET23" s="13"/>
-      <c r="EU23" s="13"/>
-      <c r="EV23" s="13"/>
-      <c r="EW23" s="13"/>
-      <c r="EX23" s="13"/>
-      <c r="EY23" s="13"/>
-      <c r="EZ23" s="13"/>
-      <c r="FA23" s="13"/>
-      <c r="FB23" s="13"/>
-      <c r="FC23" s="13"/>
-      <c r="FD23" s="13"/>
-      <c r="FE23" s="13"/>
-      <c r="FF23" s="13"/>
-      <c r="FG23" s="13"/>
-      <c r="FH23" s="13"/>
-      <c r="FI23" s="13"/>
-      <c r="FJ23" s="13"/>
-      <c r="FK23" s="13"/>
-      <c r="FL23" s="13"/>
-      <c r="FM23" s="13"/>
-      <c r="FN23" s="13"/>
-      <c r="FO23" s="13"/>
-      <c r="FP23" s="13"/>
-      <c r="FQ23" s="13"/>
-      <c r="FR23" s="13"/>
-      <c r="FS23" s="13"/>
-      <c r="FT23" s="13"/>
-      <c r="FU23" s="13"/>
-      <c r="FV23" s="13"/>
-      <c r="FW23" s="13"/>
-      <c r="FX23" s="13"/>
-      <c r="FY23" s="13"/>
-      <c r="FZ23" s="13"/>
-      <c r="GA23" s="13"/>
-      <c r="GB23" s="13"/>
-      <c r="GC23" s="13"/>
-      <c r="GD23" s="13"/>
-      <c r="GE23" s="13"/>
-      <c r="GF23" s="13"/>
-      <c r="GG23" s="13"/>
-      <c r="GH23" s="13"/>
-      <c r="GI23" s="13"/>
-      <c r="GJ23" s="13"/>
-      <c r="GK23" s="13"/>
-      <c r="GL23" s="13"/>
-      <c r="GM23" s="13"/>
-      <c r="GN23" s="13"/>
-      <c r="GO23" s="13"/>
-      <c r="GP23" s="13"/>
-      <c r="GQ23" s="13"/>
-      <c r="GR23" s="13"/>
-      <c r="GS23" s="13"/>
-      <c r="GT23" s="13"/>
-      <c r="GU23" s="13"/>
-      <c r="GV23" s="13"/>
-      <c r="GW23" s="13"/>
-      <c r="GX23" s="13"/>
-      <c r="GY23" s="13"/>
-      <c r="GZ23" s="13"/>
-      <c r="HA23" s="13"/>
-      <c r="HB23" s="13"/>
-      <c r="HC23" s="13"/>
-      <c r="HD23" s="13"/>
-      <c r="HE23" s="13"/>
-      <c r="HF23" s="13"/>
-      <c r="HG23" s="13"/>
-      <c r="HH23" s="13"/>
-      <c r="HI23" s="13"/>
-      <c r="HJ23" s="13"/>
-      <c r="HK23" s="13"/>
-      <c r="HL23" s="13"/>
-      <c r="HM23" s="13"/>
-      <c r="HN23" s="13"/>
-      <c r="HO23" s="13"/>
-      <c r="HP23" s="13"/>
-      <c r="HQ23" s="13"/>
-      <c r="HR23" s="13"/>
-      <c r="HS23" s="13"/>
-      <c r="HT23" s="13"/>
-      <c r="HU23" s="13"/>
-      <c r="HV23" s="13"/>
-      <c r="HW23" s="13"/>
-      <c r="HX23" s="13"/>
-      <c r="HY23" s="13"/>
-      <c r="HZ23" s="13"/>
-      <c r="IA23" s="13"/>
-      <c r="IB23" s="13"/>
-      <c r="IC23" s="13"/>
-      <c r="ID23" s="13"/>
-      <c r="IE23" s="13"/>
-      <c r="IF23" s="13"/>
-      <c r="IG23" s="13"/>
-      <c r="IH23" s="13"/>
-      <c r="II23" s="13"/>
-    </row>
-    <row r="24" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
-      <c r="AL24"/>
-      <c r="AM24"/>
-      <c r="AN24"/>
-      <c r="AO24"/>
-      <c r="AP24"/>
-      <c r="AQ24"/>
-      <c r="AR24"/>
-      <c r="AS24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
-      <c r="AW24"/>
-      <c r="AX24"/>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="BA24"/>
-      <c r="BB24"/>
-      <c r="BC24"/>
-      <c r="BD24"/>
-      <c r="BE24"/>
-      <c r="BF24"/>
-      <c r="BG24"/>
-      <c r="BH24"/>
-      <c r="BI24"/>
-      <c r="BJ24"/>
-      <c r="BK24"/>
-      <c r="BL24"/>
-      <c r="BM24"/>
-      <c r="BN24"/>
-      <c r="BO24"/>
-      <c r="BP24"/>
-      <c r="BQ24"/>
-      <c r="BR24"/>
-      <c r="BS24"/>
-      <c r="BT24"/>
-      <c r="BU24"/>
-      <c r="BV24"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
-      <c r="BY24"/>
-      <c r="BZ24"/>
-      <c r="CA24"/>
-      <c r="CB24"/>
-      <c r="CC24"/>
-      <c r="CD24"/>
-      <c r="CE24"/>
-      <c r="CF24"/>
-      <c r="CG24"/>
-      <c r="CH24"/>
-      <c r="CI24"/>
-      <c r="CJ24"/>
-      <c r="CK24"/>
-      <c r="CL24"/>
-      <c r="CM24"/>
-      <c r="CN24"/>
-      <c r="CO24"/>
-      <c r="CP24"/>
-      <c r="CQ24"/>
-      <c r="CR24"/>
-      <c r="CS24"/>
-      <c r="CT24"/>
-      <c r="CU24"/>
-      <c r="CV24"/>
-      <c r="CW24"/>
-      <c r="CX24"/>
-      <c r="CY24"/>
-      <c r="CZ24"/>
-      <c r="DA24"/>
-      <c r="DB24"/>
-      <c r="DC24"/>
-      <c r="DD24"/>
-      <c r="DE24"/>
-      <c r="DF24"/>
-      <c r="DG24"/>
-      <c r="DH24"/>
-      <c r="DI24"/>
-      <c r="DJ24"/>
-      <c r="DK24"/>
-      <c r="DL24"/>
-      <c r="DM24"/>
-      <c r="DN24"/>
-      <c r="DO24"/>
-      <c r="DP24"/>
-      <c r="DQ24"/>
-      <c r="DR24"/>
-      <c r="DS24"/>
-      <c r="DT24"/>
-      <c r="DU24"/>
-      <c r="DV24"/>
-      <c r="DW24"/>
-      <c r="DX24"/>
-      <c r="DY24"/>
-      <c r="DZ24"/>
-      <c r="EA24"/>
-      <c r="EB24"/>
-      <c r="EC24"/>
-      <c r="ED24"/>
-      <c r="EE24"/>
-      <c r="EF24"/>
-      <c r="EG24"/>
-      <c r="EH24"/>
-      <c r="EI24"/>
-      <c r="EJ24"/>
-      <c r="EK24"/>
-      <c r="EL24"/>
-      <c r="EM24"/>
-      <c r="EN24"/>
-      <c r="EO24"/>
-      <c r="EP24"/>
-      <c r="EQ24"/>
-      <c r="ER24"/>
-      <c r="ES24"/>
-      <c r="ET24"/>
-      <c r="EU24"/>
-      <c r="EV24"/>
-      <c r="EW24"/>
-      <c r="EX24"/>
-      <c r="EY24"/>
-      <c r="EZ24"/>
-      <c r="FA24"/>
-      <c r="FB24"/>
-      <c r="FC24"/>
-      <c r="FD24"/>
-      <c r="FE24"/>
-      <c r="FF24"/>
-      <c r="FG24"/>
-      <c r="FH24"/>
-      <c r="FI24"/>
-      <c r="FJ24"/>
-      <c r="FK24"/>
-      <c r="FL24"/>
-      <c r="FM24"/>
-      <c r="FN24"/>
-      <c r="FO24"/>
-      <c r="FP24"/>
-      <c r="FQ24"/>
-      <c r="FR24"/>
-      <c r="FS24"/>
-      <c r="FT24"/>
-      <c r="FU24"/>
-      <c r="FV24"/>
-      <c r="FW24"/>
-      <c r="FX24"/>
-      <c r="FY24"/>
-      <c r="FZ24"/>
-      <c r="GA24"/>
-      <c r="GB24"/>
-      <c r="GC24"/>
-      <c r="GD24"/>
-      <c r="GE24"/>
-      <c r="GF24"/>
-      <c r="GG24"/>
-      <c r="GH24"/>
-      <c r="GI24"/>
-      <c r="GJ24"/>
-      <c r="GK24"/>
-      <c r="GL24"/>
-      <c r="GM24"/>
-      <c r="GN24"/>
-      <c r="GO24"/>
-      <c r="GP24"/>
-      <c r="GQ24"/>
-      <c r="GR24"/>
-      <c r="GS24"/>
-      <c r="GT24"/>
-      <c r="GU24"/>
-      <c r="GV24"/>
-      <c r="GW24"/>
-      <c r="GX24"/>
-      <c r="GY24"/>
-      <c r="GZ24"/>
-      <c r="HA24"/>
-      <c r="HB24"/>
-      <c r="HC24"/>
-      <c r="HD24"/>
-      <c r="HE24"/>
-      <c r="HF24"/>
-      <c r="HG24"/>
-      <c r="HH24"/>
-      <c r="HI24"/>
-      <c r="HJ24"/>
-      <c r="HK24"/>
-      <c r="HL24"/>
-      <c r="HM24"/>
-      <c r="HN24"/>
-      <c r="HO24"/>
-      <c r="HP24"/>
-      <c r="HQ24"/>
-      <c r="HR24"/>
-      <c r="HS24"/>
-      <c r="HT24"/>
-      <c r="HU24"/>
-      <c r="HV24"/>
-      <c r="HW24"/>
-      <c r="HX24"/>
-      <c r="HY24"/>
-      <c r="HZ24"/>
-      <c r="IA24"/>
-      <c r="IB24"/>
-      <c r="IC24"/>
-      <c r="ID24"/>
-      <c r="IE24"/>
-      <c r="IF24"/>
-      <c r="IG24"/>
-      <c r="IH24"/>
-      <c r="II24"/>
-    </row>
-    <row r="25" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="38"/>
-    </row>
-    <row r="27" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="38"/>
-    </row>
-    <row r="28" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
-    </row>
-    <row r="29" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="38"/>
-    </row>
-    <row r="30" spans="1:243" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="38"/>
-    </row>
-    <row r="31" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="51"/>
-      <c r="N31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="58"/>
-    </row>
-    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="38"/>
-    </row>
-    <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="58"/>
-    </row>
-    <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="38"/>
-    </row>
-    <row r="38" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="50"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="38"/>
-    </row>
-    <row r="39" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="O39" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="38"/>
-    </row>
-    <row r="40" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="58"/>
-    </row>
-    <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="38"/>
-    </row>
-    <row r="42" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="50"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="38"/>
-    </row>
-    <row r="43" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="51"/>
-      <c r="N43" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="58"/>
-    </row>
-    <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="50"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="38"/>
-    </row>
-    <row r="47" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="51"/>
-      <c r="N47" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="38"/>
-    </row>
-    <row r="48" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="58"/>
-    </row>
-    <row r="49" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="50"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="38"/>
-    </row>
-    <row r="51" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="51"/>
-      <c r="N51" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="38"/>
-    </row>
-    <row r="52" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="58"/>
-    </row>
-    <row r="53" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="38"/>
-    </row>
-    <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="50"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="38"/>
-    </row>
-    <row r="55" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="51"/>
-      <c r="N55" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="O55" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R55" s="38"/>
-    </row>
-    <row r="56" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="58"/>
-    </row>
-    <row r="57" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="38"/>
-    </row>
-    <row r="58" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="49"/>
-      <c r="K58" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L58" s="50"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="38"/>
-    </row>
-    <row r="59" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="51"/>
-      <c r="N59" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="38"/>
-    </row>
-    <row r="60" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="58"/>
-    </row>
-    <row r="61" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="38"/>
-    </row>
-    <row r="62" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="78"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="38"/>
-    </row>
-    <row r="63" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" s="51"/>
-      <c r="N63" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="38"/>
-    </row>
-    <row r="64" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="58"/>
-    </row>
-    <row r="65" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="38"/>
-    </row>
-    <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" s="50"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="38"/>
-    </row>
-    <row r="67" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="51"/>
-      <c r="N67" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="38"/>
-    </row>
-    <row r="68" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="58"/>
-    </row>
-    <row r="69" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="38"/>
-    </row>
-    <row r="70" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="78"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" s="49"/>
-      <c r="K70" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" s="50"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="38"/>
-    </row>
-    <row r="71" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71" s="51"/>
-      <c r="N71" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="O71" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="P71" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R71" s="38"/>
-    </row>
-    <row r="72" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="58"/>
-    </row>
-    <row r="73" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="38"/>
-    </row>
-    <row r="74" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="78"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" s="50"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="38"/>
-    </row>
-    <row r="75" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M75" s="51"/>
-      <c r="N75" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="38"/>
-    </row>
-    <row r="76" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="58"/>
-    </row>
-    <row r="77" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="38"/>
-    </row>
-    <row r="78" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="78"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="49"/>
-      <c r="K78" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" s="50"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="38"/>
-    </row>
-    <row r="79" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" s="51"/>
-      <c r="N79" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O79" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="38"/>
-    </row>
-    <row r="80" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="58"/>
-    </row>
-    <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="38"/>
-    </row>
-    <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="78"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="49"/>
-      <c r="K82" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L82" s="50"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-      <c r="P82" s="53"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="38"/>
-    </row>
-    <row r="83" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M83" s="51"/>
-      <c r="N83" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="O83" s="53"/>
-      <c r="P83" s="53"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="38"/>
-    </row>
-    <row r="84" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="58"/>
-    </row>
-    <row r="85" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="51"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="38"/>
-    </row>
-    <row r="86" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="78"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="49"/>
-      <c r="K86" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L86" s="50"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="38"/>
-    </row>
-    <row r="87" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M87" s="51"/>
-      <c r="N87" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="O87" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="P87" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q87" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R87" s="38"/>
-    </row>
-    <row r="88" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="58"/>
-    </row>
-    <row r="89" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="38"/>
-    </row>
-    <row r="90" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="78"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="49"/>
-      <c r="K90" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L90" s="50"/>
-      <c r="M90" s="51"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="38"/>
-    </row>
-    <row r="91" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="78"/>
-      <c r="B91" s="107"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M91" s="51"/>
-      <c r="N91" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="38"/>
-    </row>
-    <row r="92" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="58"/>
-    </row>
-    <row r="93" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="38"/>
-    </row>
-    <row r="94" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="78"/>
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
-      <c r="D94" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L94" s="50"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="38"/>
-    </row>
-    <row r="95" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
-      <c r="B95" s="107"/>
-      <c r="C95" s="107"/>
-      <c r="D95" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" s="51"/>
-      <c r="N95" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O95" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="38"/>
-    </row>
-    <row r="96" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="57"/>
-      <c r="N96" s="57"/>
-      <c r="O96" s="57"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="57"/>
-      <c r="R96" s="58"/>
-    </row>
-    <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="38"/>
-    </row>
-    <row r="98" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="78"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="107"/>
-      <c r="D98" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L98" s="50"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="38"/>
-    </row>
-    <row r="99" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="78"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M99" s="51"/>
-      <c r="N99" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="O99" s="53"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="38"/>
-    </row>
-    <row r="100" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="57"/>
-      <c r="O100" s="57"/>
-      <c r="P100" s="57"/>
-      <c r="Q100" s="57"/>
-      <c r="R100" s="58"/>
-    </row>
-    <row r="101" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="52"/>
-      <c r="O101" s="52"/>
-      <c r="P101" s="52"/>
-      <c r="Q101" s="52"/>
-      <c r="R101" s="38"/>
-    </row>
-    <row r="102" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="78"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" s="49"/>
-      <c r="K102" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L102" s="50"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="38"/>
-    </row>
-    <row r="103" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M103" s="51"/>
-      <c r="N103" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="O103" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="P103" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q103" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R103" s="38"/>
-    </row>
-    <row r="104" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="57"/>
-      <c r="N104" s="57"/>
-      <c r="O104" s="57"/>
-      <c r="P104" s="57"/>
-      <c r="Q104" s="57"/>
-      <c r="R104" s="58"/>
+    <row r="22" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="31">
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
@@ -16115,272 +12987,224 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F9 G6:L6 N6:Q9 F25:F27 F41:F43 F57:F59 F73:F75 F89:F91 N25:Q27 N41:Q43 N57:Q59 N73:Q75 N89:Q91">
-    <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G6:L6 N6:Q8 F21 N21:Q21 F7:F8">
+    <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L8 G7:G8 I9:K9 I25:L26 I41:L42 I57:L58 I73:L74 I89:L90 G25:G26 G41:G42 G57:G58 G73:G74 G89:G90 I27:K27 I43:K43 I59:K59 I75:K75 I91:K91">
+  <conditionalFormatting sqref="I7:L8 G7:G8 I21:L21 G21">
+    <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="96" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8 H21">
+    <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="94" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:Q10">
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9 H25:H27 H41:H43 H57:H59 H73:H75 H89:H91">
+  <conditionalFormatting sqref="H13 H15">
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15 N31:Q31 N47:Q47 N63:Q63 N79:Q79 N95:Q95">
+  <conditionalFormatting sqref="J13:L13 G13 N15:Q15 G15 L14 I15:J15">
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:Q11 N29:Q30 N45:Q46 N61:Q62 N77:Q78 N93:Q94 N14:Q14">
+  <conditionalFormatting sqref="F13 N13:Q14">
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H19 H33 H49 H65 H81 H97 H35 H51 H67 H83 H99">
+  <conditionalFormatting sqref="F15">
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:L17 G17 N19:Q19 G19 L18 I19:K19 I33:L33 I49:L49 I65:L65 I81:L81 I97:L97 G33 G49 G65 G81 G97 N35:Q35 N51:Q51 N67:Q67 N83:Q83 N99:Q99 G35 G51 G67 G83 G99 L34 L50 L66 L82 L98 I35:K35 I51:K51 I67:K67 I83:K83 I99:K99">
+  <conditionalFormatting sqref="I17:L17 G17 N19:Q19 L18">
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 N17:Q18 F33 F49 F65 F81 F97 N33:Q34 N49:Q50 N65:Q66 N81:Q82 N97:Q98">
+  <conditionalFormatting sqref="H17 H20 H22">
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F35 F51 F67 F83 F99">
+  <conditionalFormatting sqref="F17 N17:Q18 F20 F22 N20:Q22">
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:L21 G21 N23:Q23 L22 I37:L37 I53:L53 I69:L69 I85:L85 I101:L101 G37 G53 G69 G85 G101 N39:Q39 N55:Q55 N71:Q71 N87:Q87 N103:Q103 L38 L54 L70 L86 L102">
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H24 H27 H30 H33 H36:H37 H53 H69 H85 H101 H39:H40 H56 H72 H88 H104">
-    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 N21:Q22 F24 F27 F30 F33 N24:Q25 N27:Q28 N30:Q31 N33:Q34 F36:F37 F53 F69 F85 F101 N53:Q54 N69:Q70 N85:Q86 N101:Q102 F39:F40 F56 F72 F88 F104 N36:Q40 N56:Q56 N72:Q72 N88:Q88 N104:Q104">
-    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F29:F31 F45:F47 F61:F63 F77:F79 F93:F95 F14:F15">
-    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I14 G14 K14">
+    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G31 G47 G63 G79 G95">
-    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H29:H31 H45:H47 H61:H63 H77:H79 H93:H95 H14:H15">
-    <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I10:L10 G10">
+    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18 F34 F50 F66 F82 F98">
-    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L27 L43 L59 L75 L91">
-    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F18 F21">
+    <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G27 G43 G59 G75 G91">
-    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:K18 G18 I34:K34 I50:K50 I66:K66 I82:K82 I98:K98 G34 G50 G66 G82 G98">
-    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H18 H21">
+    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15 L31 L47 L63 L79 L95">
-    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19 L35 L51 L67 L83 L99">
-    <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:L11 G11 I15:K15 I29:L30 I45:L46 I61:L62 I77:L78 I93:L94 G29:G30 G45:G46 G61:G62 G77:G78 G93:G94 I31:K31 I47:K47 I63:K63 I79:K79 I95:K95 G14 I14:L14">
-    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G19 I19:K19">
+    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H26 H29 H32 H35 H41 H38:H39 H55 H71 H87 H103">
-    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I18:K18 G18 I21:K21 G21">
+    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F25 F28 F31 F34 F40 F37:F38 F54 F70 F86 F102">
-    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="46" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H34 H50 H66 H82 H98">
-    <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="44" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H25 H28 H31 H34 H40 H37:H38 H54 H70 H86 H102">
-    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F26 F29 F32 F35 F41 F38:F39 F55 F71 F87 F103">
-    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="40" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23 L26 L29 L32 L35 L41 L38:L39 L55 L71 L87 L103">
-    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="38" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 I23:K23 G26 G29 G32 G35 G41 I26:K26 I29:K29 I32:K32 I35:K35 I41:K41 G38:G39 G55 G71 G87 G103 I38:K39 I55:K55 I71:K71 I87:K87 I103:K103">
-    <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:K22 G22 I25:K25 I28:K28 I31:K31 I34:K34 I40:K40 G25 G28 G31 G34 G40 I37:K38 I54:K54 I70:K70 I86:K86 I102:K102 G37:G38 G54 G70 G86 G102">
-    <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="34" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:Q13">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="18" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="N11:Q11">
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16388,7 +13212,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="F11">
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16396,7 +13220,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:K13">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16404,7 +13228,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:Q12">
+  <conditionalFormatting sqref="G11 I11:L11">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16412,7 +13236,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="I13">
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16420,7 +13244,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16428,7 +13252,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12 I12:L12">
+  <conditionalFormatting sqref="K15">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -16437,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,Negrito"&amp;9&amp;D - &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -16449,11 +13273,11 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:IC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16476,21 +13300,21 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="84" t="s">
+      <c r="B1" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="74"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
@@ -16725,27 +13549,27 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="71" t="s">
-        <v>100</v>
+      <c r="B2" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="91" t="s">
+        <v>29</v>
       </c>
       <c r="L2" s="38"/>
       <c r="M2" s="1"/>
@@ -16975,21 +13799,21 @@
       <c r="IC2" s="1"/>
     </row>
     <row r="3" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="38"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17218,17 +14042,17 @@
       <c r="IC3" s="1"/>
     </row>
     <row r="4" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="38"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -17945,23 +14769,23 @@
       <c r="IC6" s="1"/>
     </row>
     <row r="7" spans="1:237" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>135</v>
+      <c r="B7" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -18459,30 +15283,30 @@
       <c r="IC9" s="1"/>
     </row>
     <row r="10" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78">
+      <c r="A10" s="72">
         <v>2</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>104</v>
+      <c r="B10" s="73" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
       <c r="K10" s="52" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="13"/>
@@ -18712,24 +15536,24 @@
       <c r="IC10" s="13"/>
     </row>
     <row r="11" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="110"/>
       <c r="D11" s="62" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="61" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="51"/>
       <c r="K11" s="52" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="13"/>
@@ -18959,14 +15783,14 @@
       <c r="IC11" s="13"/>
     </row>
     <row r="12" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="110"/>
       <c r="D12" s="62" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -18974,7 +15798,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
       <c r="K12" s="52" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="13"/>
@@ -19467,25 +16291,25 @@
       <c r="IC14" s="1"/>
     </row>
     <row r="15" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="64">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>138</v>
+      <c r="B15" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
-      <c r="H15" s="64" t="s">
-        <v>156</v>
+      <c r="H15" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
@@ -19981,20 +16805,20 @@
       <c r="IC17" s="1"/>
     </row>
     <row r="18" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78">
+      <c r="A18" s="72">
         <v>4</v>
       </c>
-      <c r="B18" s="80" t="s">
-        <v>157</v>
+      <c r="B18" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
@@ -20230,14 +17054,14 @@
       <c r="IC18" s="13"/>
     </row>
     <row r="19" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="110"/>
       <c r="D19" s="62" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
@@ -20488,6 +17312,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="G2:G4"/>
@@ -20500,12 +17330,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">

--- a/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
+++ b/Projeto de Teste - Exclusão, Browsers e Tags.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>CAMPO</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>Navegar pelos Livros</t>
-  </si>
-  <si>
-    <t>Execulta o Sistema</t>
   </si>
   <si>
     <r>
@@ -1338,6 +1335,51 @@
   <si>
     <t>De</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar a opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sair</t>
+    </r>
+  </si>
+  <si>
+    <t>Sair do Sistema</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estar utilizando o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Executar o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sistema</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1818,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1913,9 +1955,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1946,9 +1985,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1973,16 +2009,7 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1991,7 +2018,40 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,36 +2102,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2096,98 +2126,26 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <font>
         <b/>
@@ -3485,11 +3443,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -3498,9 +3456,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -3520,11 +3478,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -3533,9 +3491,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -3820,21 +3778,21 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="58" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="38"/>
@@ -4068,23 +4026,23 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="75" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="91" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="71" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="38"/>
@@ -4315,20 +4273,20 @@
       <c r="IB2" s="1"/>
     </row>
     <row r="3" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="38"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4557,16 +4515,16 @@
       <c r="IB3" s="1"/>
     </row>
     <row r="4" spans="1:236" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="93"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="38"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5281,28 +5239,28 @@
       <c r="IB6" s="1"/>
     </row>
     <row r="7" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="38"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -5531,17 +5489,17 @@
       <c r="IB7" s="13"/>
     </row>
     <row r="8" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -6017,26 +5975,26 @@
       <c r="IB9" s="1"/>
     </row>
     <row r="10" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="38"/>
@@ -6267,22 +6225,22 @@
       <c r="IB10" s="13"/>
     </row>
     <row r="11" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="62" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="48"/>
+      <c r="G11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="K11" s="38"/>
@@ -6513,17 +6471,17 @@
       <c r="IB11" s="13"/>
     </row>
     <row r="12" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -6999,26 +6957,26 @@
       <c r="IB13" s="1"/>
     </row>
     <row r="14" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72">
+      <c r="A14" s="78">
         <v>3</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="38"/>
@@ -7249,22 +7207,22 @@
       <c r="IB14" s="13"/>
     </row>
     <row r="15" spans="1:236" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="62" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="61" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="38"/>
@@ -7495,17 +7453,17 @@
       <c r="IB15" s="13"/>
     </row>
     <row r="16" spans="1:236" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -7733,27 +7691,20 @@
       <c r="IB16"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -7764,13 +7715,20 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F7 J6:J7 H6">
     <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="272" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7778,7 +7736,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7786,7 +7744,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7794,7 +7752,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7802,7 +7760,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7810,7 +7768,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7818,7 +7776,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7826,7 +7784,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7834,7 +7792,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7842,7 +7800,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7850,7 +7808,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7858,7 +7816,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7878,13 +7836,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan6"/>
-  <dimension ref="A1:II22"/>
+  <dimension ref="A1:II20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7908,30 +7866,30 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="105" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="103"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -8163,44 +8121,44 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="91" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="97" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="38"/>
@@ -8431,27 +8389,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -8680,23 +8638,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -9425,35 +9383,35 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72">
+      <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="38"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -9682,29 +9640,29 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="62" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
       <c r="R8" s="38"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -9933,24 +9891,24 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -10178,35 +10136,35 @@
       <c r="II9"/>
     </row>
     <row r="10" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="D10" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="E10" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -10435,29 +10393,29 @@
       <c r="II10" s="13"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="62" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="38"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -10686,24 +10644,24 @@
       <c r="II11" s="13"/>
     </row>
     <row r="12" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
@@ -10931,35 +10889,35 @@
       <c r="II12"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72">
+      <c r="A13" s="78">
         <v>3</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="E13" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="38"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -11188,29 +11146,29 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="38"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -11439,29 +11397,29 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="38"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -11690,24 +11648,24 @@
       <c r="II15" s="13"/>
     </row>
     <row r="16" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -11934,28 +11892,34 @@
       <c r="IH16"/>
       <c r="II16"/>
     </row>
-    <row r="17" spans="1:243" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72">
+    <row r="17" spans="1:243" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67">
         <v>4</v>
       </c>
-      <c r="B17" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="B17" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="38"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -12183,795 +12147,318 @@
       <c r="IH17" s="13"/>
       <c r="II17" s="13"/>
     </row>
-    <row r="18" spans="1:243" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="13"/>
-      <c r="BQ18" s="13"/>
-      <c r="BR18" s="13"/>
-      <c r="BS18" s="13"/>
-      <c r="BT18" s="13"/>
-      <c r="BU18" s="13"/>
-      <c r="BV18" s="13"/>
-      <c r="BW18" s="13"/>
-      <c r="BX18" s="13"/>
-      <c r="BY18" s="13"/>
-      <c r="BZ18" s="13"/>
-      <c r="CA18" s="13"/>
-      <c r="CB18" s="13"/>
-      <c r="CC18" s="13"/>
-      <c r="CD18" s="13"/>
-      <c r="CE18" s="13"/>
-      <c r="CF18" s="13"/>
-      <c r="CG18" s="13"/>
-      <c r="CH18" s="13"/>
-      <c r="CI18" s="13"/>
-      <c r="CJ18" s="13"/>
-      <c r="CK18" s="13"/>
-      <c r="CL18" s="13"/>
-      <c r="CM18" s="13"/>
-      <c r="CN18" s="13"/>
-      <c r="CO18" s="13"/>
-      <c r="CP18" s="13"/>
-      <c r="CQ18" s="13"/>
-      <c r="CR18" s="13"/>
-      <c r="CS18" s="13"/>
-      <c r="CT18" s="13"/>
-      <c r="CU18" s="13"/>
-      <c r="CV18" s="13"/>
-      <c r="CW18" s="13"/>
-      <c r="CX18" s="13"/>
-      <c r="CY18" s="13"/>
-      <c r="CZ18" s="13"/>
-      <c r="DA18" s="13"/>
-      <c r="DB18" s="13"/>
-      <c r="DC18" s="13"/>
-      <c r="DD18" s="13"/>
-      <c r="DE18" s="13"/>
-      <c r="DF18" s="13"/>
-      <c r="DG18" s="13"/>
-      <c r="DH18" s="13"/>
-      <c r="DI18" s="13"/>
-      <c r="DJ18" s="13"/>
-      <c r="DK18" s="13"/>
-      <c r="DL18" s="13"/>
-      <c r="DM18" s="13"/>
-      <c r="DN18" s="13"/>
-      <c r="DO18" s="13"/>
-      <c r="DP18" s="13"/>
-      <c r="DQ18" s="13"/>
-      <c r="DR18" s="13"/>
-      <c r="DS18" s="13"/>
-      <c r="DT18" s="13"/>
-      <c r="DU18" s="13"/>
-      <c r="DV18" s="13"/>
-      <c r="DW18" s="13"/>
-      <c r="DX18" s="13"/>
-      <c r="DY18" s="13"/>
-      <c r="DZ18" s="13"/>
-      <c r="EA18" s="13"/>
-      <c r="EB18" s="13"/>
-      <c r="EC18" s="13"/>
-      <c r="ED18" s="13"/>
-      <c r="EE18" s="13"/>
-      <c r="EF18" s="13"/>
-      <c r="EG18" s="13"/>
-      <c r="EH18" s="13"/>
-      <c r="EI18" s="13"/>
-      <c r="EJ18" s="13"/>
-      <c r="EK18" s="13"/>
-      <c r="EL18" s="13"/>
-      <c r="EM18" s="13"/>
-      <c r="EN18" s="13"/>
-      <c r="EO18" s="13"/>
-      <c r="EP18" s="13"/>
-      <c r="EQ18" s="13"/>
-      <c r="ER18" s="13"/>
-      <c r="ES18" s="13"/>
-      <c r="ET18" s="13"/>
-      <c r="EU18" s="13"/>
-      <c r="EV18" s="13"/>
-      <c r="EW18" s="13"/>
-      <c r="EX18" s="13"/>
-      <c r="EY18" s="13"/>
-      <c r="EZ18" s="13"/>
-      <c r="FA18" s="13"/>
-      <c r="FB18" s="13"/>
-      <c r="FC18" s="13"/>
-      <c r="FD18" s="13"/>
-      <c r="FE18" s="13"/>
-      <c r="FF18" s="13"/>
-      <c r="FG18" s="13"/>
-      <c r="FH18" s="13"/>
-      <c r="FI18" s="13"/>
-      <c r="FJ18" s="13"/>
-      <c r="FK18" s="13"/>
-      <c r="FL18" s="13"/>
-      <c r="FM18" s="13"/>
-      <c r="FN18" s="13"/>
-      <c r="FO18" s="13"/>
-      <c r="FP18" s="13"/>
-      <c r="FQ18" s="13"/>
-      <c r="FR18" s="13"/>
-      <c r="FS18" s="13"/>
-      <c r="FT18" s="13"/>
-      <c r="FU18" s="13"/>
-      <c r="FV18" s="13"/>
-      <c r="FW18" s="13"/>
-      <c r="FX18" s="13"/>
-      <c r="FY18" s="13"/>
-      <c r="FZ18" s="13"/>
-      <c r="GA18" s="13"/>
-      <c r="GB18" s="13"/>
-      <c r="GC18" s="13"/>
-      <c r="GD18" s="13"/>
-      <c r="GE18" s="13"/>
-      <c r="GF18" s="13"/>
-      <c r="GG18" s="13"/>
-      <c r="GH18" s="13"/>
-      <c r="GI18" s="13"/>
-      <c r="GJ18" s="13"/>
-      <c r="GK18" s="13"/>
-      <c r="GL18" s="13"/>
-      <c r="GM18" s="13"/>
-      <c r="GN18" s="13"/>
-      <c r="GO18" s="13"/>
-      <c r="GP18" s="13"/>
-      <c r="GQ18" s="13"/>
-      <c r="GR18" s="13"/>
-      <c r="GS18" s="13"/>
-      <c r="GT18" s="13"/>
-      <c r="GU18" s="13"/>
-      <c r="GV18" s="13"/>
-      <c r="GW18" s="13"/>
-      <c r="GX18" s="13"/>
-      <c r="GY18" s="13"/>
-      <c r="GZ18" s="13"/>
-      <c r="HA18" s="13"/>
-      <c r="HB18" s="13"/>
-      <c r="HC18" s="13"/>
-      <c r="HD18" s="13"/>
-      <c r="HE18" s="13"/>
-      <c r="HF18" s="13"/>
-      <c r="HG18" s="13"/>
-      <c r="HH18" s="13"/>
-      <c r="HI18" s="13"/>
-      <c r="HJ18" s="13"/>
-      <c r="HK18" s="13"/>
-      <c r="HL18" s="13"/>
-      <c r="HM18" s="13"/>
-      <c r="HN18" s="13"/>
-      <c r="HO18" s="13"/>
-      <c r="HP18" s="13"/>
-      <c r="HQ18" s="13"/>
-      <c r="HR18" s="13"/>
-      <c r="HS18" s="13"/>
-      <c r="HT18" s="13"/>
-      <c r="HU18" s="13"/>
-      <c r="HV18" s="13"/>
-      <c r="HW18" s="13"/>
-      <c r="HX18" s="13"/>
-      <c r="HY18" s="13"/>
-      <c r="HZ18" s="13"/>
-      <c r="IA18" s="13"/>
-      <c r="IB18" s="13"/>
-      <c r="IC18" s="13"/>
-      <c r="ID18" s="13"/>
-      <c r="IE18" s="13"/>
-      <c r="IF18" s="13"/>
-      <c r="IG18" s="13"/>
-      <c r="IH18" s="13"/>
-      <c r="II18" s="13"/>
+    <row r="18" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+      <c r="ED18"/>
+      <c r="EE18"/>
+      <c r="EF18"/>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18"/>
+      <c r="EJ18"/>
+      <c r="EK18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EN18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="EQ18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18"/>
+      <c r="FG18"/>
+      <c r="FH18"/>
+      <c r="FI18"/>
+      <c r="FJ18"/>
+      <c r="FK18"/>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
+      <c r="FO18"/>
+      <c r="FP18"/>
+      <c r="FQ18"/>
+      <c r="FR18"/>
+      <c r="FS18"/>
+      <c r="FT18"/>
+      <c r="FU18"/>
+      <c r="FV18"/>
+      <c r="FW18"/>
+      <c r="FX18"/>
+      <c r="FY18"/>
+      <c r="FZ18"/>
+      <c r="GA18"/>
+      <c r="GB18"/>
+      <c r="GC18"/>
+      <c r="GD18"/>
+      <c r="GE18"/>
+      <c r="GF18"/>
+      <c r="GG18"/>
+      <c r="GH18"/>
+      <c r="GI18"/>
+      <c r="GJ18"/>
+      <c r="GK18"/>
+      <c r="GL18"/>
+      <c r="GM18"/>
+      <c r="GN18"/>
+      <c r="GO18"/>
+      <c r="GP18"/>
+      <c r="GQ18"/>
+      <c r="GR18"/>
+      <c r="GS18"/>
+      <c r="GT18"/>
+      <c r="GU18"/>
+      <c r="GV18"/>
+      <c r="GW18"/>
+      <c r="GX18"/>
+      <c r="GY18"/>
+      <c r="GZ18"/>
+      <c r="HA18"/>
+      <c r="HB18"/>
+      <c r="HC18"/>
+      <c r="HD18"/>
+      <c r="HE18"/>
+      <c r="HF18"/>
+      <c r="HG18"/>
+      <c r="HH18"/>
+      <c r="HI18"/>
+      <c r="HJ18"/>
+      <c r="HK18"/>
+      <c r="HL18"/>
+      <c r="HM18"/>
+      <c r="HN18"/>
+      <c r="HO18"/>
+      <c r="HP18"/>
+      <c r="HQ18"/>
+      <c r="HR18"/>
+      <c r="HS18"/>
+      <c r="HT18"/>
+      <c r="HU18"/>
+      <c r="HV18"/>
+      <c r="HW18"/>
+      <c r="HX18"/>
+      <c r="HY18"/>
+      <c r="HZ18"/>
+      <c r="IA18"/>
+      <c r="IB18"/>
+      <c r="IC18"/>
+      <c r="ID18"/>
+      <c r="IE18"/>
+      <c r="IF18"/>
+      <c r="IG18"/>
+      <c r="IH18"/>
+      <c r="II18"/>
     </row>
-    <row r="19" spans="1:243" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="52"/>
+    <row r="19" spans="1:243" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="38"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-      <c r="BO19" s="13"/>
-      <c r="BP19" s="13"/>
-      <c r="BQ19" s="13"/>
-      <c r="BR19" s="13"/>
-      <c r="BS19" s="13"/>
-      <c r="BT19" s="13"/>
-      <c r="BU19" s="13"/>
-      <c r="BV19" s="13"/>
-      <c r="BW19" s="13"/>
-      <c r="BX19" s="13"/>
-      <c r="BY19" s="13"/>
-      <c r="BZ19" s="13"/>
-      <c r="CA19" s="13"/>
-      <c r="CB19" s="13"/>
-      <c r="CC19" s="13"/>
-      <c r="CD19" s="13"/>
-      <c r="CE19" s="13"/>
-      <c r="CF19" s="13"/>
-      <c r="CG19" s="13"/>
-      <c r="CH19" s="13"/>
-      <c r="CI19" s="13"/>
-      <c r="CJ19" s="13"/>
-      <c r="CK19" s="13"/>
-      <c r="CL19" s="13"/>
-      <c r="CM19" s="13"/>
-      <c r="CN19" s="13"/>
-      <c r="CO19" s="13"/>
-      <c r="CP19" s="13"/>
-      <c r="CQ19" s="13"/>
-      <c r="CR19" s="13"/>
-      <c r="CS19" s="13"/>
-      <c r="CT19" s="13"/>
-      <c r="CU19" s="13"/>
-      <c r="CV19" s="13"/>
-      <c r="CW19" s="13"/>
-      <c r="CX19" s="13"/>
-      <c r="CY19" s="13"/>
-      <c r="CZ19" s="13"/>
-      <c r="DA19" s="13"/>
-      <c r="DB19" s="13"/>
-      <c r="DC19" s="13"/>
-      <c r="DD19" s="13"/>
-      <c r="DE19" s="13"/>
-      <c r="DF19" s="13"/>
-      <c r="DG19" s="13"/>
-      <c r="DH19" s="13"/>
-      <c r="DI19" s="13"/>
-      <c r="DJ19" s="13"/>
-      <c r="DK19" s="13"/>
-      <c r="DL19" s="13"/>
-      <c r="DM19" s="13"/>
-      <c r="DN19" s="13"/>
-      <c r="DO19" s="13"/>
-      <c r="DP19" s="13"/>
-      <c r="DQ19" s="13"/>
-      <c r="DR19" s="13"/>
-      <c r="DS19" s="13"/>
-      <c r="DT19" s="13"/>
-      <c r="DU19" s="13"/>
-      <c r="DV19" s="13"/>
-      <c r="DW19" s="13"/>
-      <c r="DX19" s="13"/>
-      <c r="DY19" s="13"/>
-      <c r="DZ19" s="13"/>
-      <c r="EA19" s="13"/>
-      <c r="EB19" s="13"/>
-      <c r="EC19" s="13"/>
-      <c r="ED19" s="13"/>
-      <c r="EE19" s="13"/>
-      <c r="EF19" s="13"/>
-      <c r="EG19" s="13"/>
-      <c r="EH19" s="13"/>
-      <c r="EI19" s="13"/>
-      <c r="EJ19" s="13"/>
-      <c r="EK19" s="13"/>
-      <c r="EL19" s="13"/>
-      <c r="EM19" s="13"/>
-      <c r="EN19" s="13"/>
-      <c r="EO19" s="13"/>
-      <c r="EP19" s="13"/>
-      <c r="EQ19" s="13"/>
-      <c r="ER19" s="13"/>
-      <c r="ES19" s="13"/>
-      <c r="ET19" s="13"/>
-      <c r="EU19" s="13"/>
-      <c r="EV19" s="13"/>
-      <c r="EW19" s="13"/>
-      <c r="EX19" s="13"/>
-      <c r="EY19" s="13"/>
-      <c r="EZ19" s="13"/>
-      <c r="FA19" s="13"/>
-      <c r="FB19" s="13"/>
-      <c r="FC19" s="13"/>
-      <c r="FD19" s="13"/>
-      <c r="FE19" s="13"/>
-      <c r="FF19" s="13"/>
-      <c r="FG19" s="13"/>
-      <c r="FH19" s="13"/>
-      <c r="FI19" s="13"/>
-      <c r="FJ19" s="13"/>
-      <c r="FK19" s="13"/>
-      <c r="FL19" s="13"/>
-      <c r="FM19" s="13"/>
-      <c r="FN19" s="13"/>
-      <c r="FO19" s="13"/>
-      <c r="FP19" s="13"/>
-      <c r="FQ19" s="13"/>
-      <c r="FR19" s="13"/>
-      <c r="FS19" s="13"/>
-      <c r="FT19" s="13"/>
-      <c r="FU19" s="13"/>
-      <c r="FV19" s="13"/>
-      <c r="FW19" s="13"/>
-      <c r="FX19" s="13"/>
-      <c r="FY19" s="13"/>
-      <c r="FZ19" s="13"/>
-      <c r="GA19" s="13"/>
-      <c r="GB19" s="13"/>
-      <c r="GC19" s="13"/>
-      <c r="GD19" s="13"/>
-      <c r="GE19" s="13"/>
-      <c r="GF19" s="13"/>
-      <c r="GG19" s="13"/>
-      <c r="GH19" s="13"/>
-      <c r="GI19" s="13"/>
-      <c r="GJ19" s="13"/>
-      <c r="GK19" s="13"/>
-      <c r="GL19" s="13"/>
-      <c r="GM19" s="13"/>
-      <c r="GN19" s="13"/>
-      <c r="GO19" s="13"/>
-      <c r="GP19" s="13"/>
-      <c r="GQ19" s="13"/>
-      <c r="GR19" s="13"/>
-      <c r="GS19" s="13"/>
-      <c r="GT19" s="13"/>
-      <c r="GU19" s="13"/>
-      <c r="GV19" s="13"/>
-      <c r="GW19" s="13"/>
-      <c r="GX19" s="13"/>
-      <c r="GY19" s="13"/>
-      <c r="GZ19" s="13"/>
-      <c r="HA19" s="13"/>
-      <c r="HB19" s="13"/>
-      <c r="HC19" s="13"/>
-      <c r="HD19" s="13"/>
-      <c r="HE19" s="13"/>
-      <c r="HF19" s="13"/>
-      <c r="HG19" s="13"/>
-      <c r="HH19" s="13"/>
-      <c r="HI19" s="13"/>
-      <c r="HJ19" s="13"/>
-      <c r="HK19" s="13"/>
-      <c r="HL19" s="13"/>
-      <c r="HM19" s="13"/>
-      <c r="HN19" s="13"/>
-      <c r="HO19" s="13"/>
-      <c r="HP19" s="13"/>
-      <c r="HQ19" s="13"/>
-      <c r="HR19" s="13"/>
-      <c r="HS19" s="13"/>
-      <c r="HT19" s="13"/>
-      <c r="HU19" s="13"/>
-      <c r="HV19" s="13"/>
-      <c r="HW19" s="13"/>
-      <c r="HX19" s="13"/>
-      <c r="HY19" s="13"/>
-      <c r="HZ19" s="13"/>
-      <c r="IA19" s="13"/>
-      <c r="IB19" s="13"/>
-      <c r="IC19" s="13"/>
-      <c r="ID19" s="13"/>
-      <c r="IE19" s="13"/>
-      <c r="IF19" s="13"/>
-      <c r="IG19" s="13"/>
-      <c r="IH19" s="13"/>
-      <c r="II19" s="13"/>
     </row>
     <row r="20" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20"/>
-      <c r="AN20"/>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
-      <c r="AX20"/>
-      <c r="AY20"/>
-      <c r="AZ20"/>
-      <c r="BA20"/>
-      <c r="BB20"/>
-      <c r="BC20"/>
-      <c r="BD20"/>
-      <c r="BE20"/>
-      <c r="BF20"/>
-      <c r="BG20"/>
-      <c r="BH20"/>
-      <c r="BI20"/>
-      <c r="BJ20"/>
-      <c r="BK20"/>
-      <c r="BL20"/>
-      <c r="BM20"/>
-      <c r="BN20"/>
-      <c r="BO20"/>
-      <c r="BP20"/>
-      <c r="BQ20"/>
-      <c r="BR20"/>
-      <c r="BS20"/>
-      <c r="BT20"/>
-      <c r="BU20"/>
-      <c r="BV20"/>
-      <c r="BW20"/>
-      <c r="BX20"/>
-      <c r="BY20"/>
-      <c r="BZ20"/>
-      <c r="CA20"/>
-      <c r="CB20"/>
-      <c r="CC20"/>
-      <c r="CD20"/>
-      <c r="CE20"/>
-      <c r="CF20"/>
-      <c r="CG20"/>
-      <c r="CH20"/>
-      <c r="CI20"/>
-      <c r="CJ20"/>
-      <c r="CK20"/>
-      <c r="CL20"/>
-      <c r="CM20"/>
-      <c r="CN20"/>
-      <c r="CO20"/>
-      <c r="CP20"/>
-      <c r="CQ20"/>
-      <c r="CR20"/>
-      <c r="CS20"/>
-      <c r="CT20"/>
-      <c r="CU20"/>
-      <c r="CV20"/>
-      <c r="CW20"/>
-      <c r="CX20"/>
-      <c r="CY20"/>
-      <c r="CZ20"/>
-      <c r="DA20"/>
-      <c r="DB20"/>
-      <c r="DC20"/>
-      <c r="DD20"/>
-      <c r="DE20"/>
-      <c r="DF20"/>
-      <c r="DG20"/>
-      <c r="DH20"/>
-      <c r="DI20"/>
-      <c r="DJ20"/>
-      <c r="DK20"/>
-      <c r="DL20"/>
-      <c r="DM20"/>
-      <c r="DN20"/>
-      <c r="DO20"/>
-      <c r="DP20"/>
-      <c r="DQ20"/>
-      <c r="DR20"/>
-      <c r="DS20"/>
-      <c r="DT20"/>
-      <c r="DU20"/>
-      <c r="DV20"/>
-      <c r="DW20"/>
-      <c r="DX20"/>
-      <c r="DY20"/>
-      <c r="DZ20"/>
-      <c r="EA20"/>
-      <c r="EB20"/>
-      <c r="EC20"/>
-      <c r="ED20"/>
-      <c r="EE20"/>
-      <c r="EF20"/>
-      <c r="EG20"/>
-      <c r="EH20"/>
-      <c r="EI20"/>
-      <c r="EJ20"/>
-      <c r="EK20"/>
-      <c r="EL20"/>
-      <c r="EM20"/>
-      <c r="EN20"/>
-      <c r="EO20"/>
-      <c r="EP20"/>
-      <c r="EQ20"/>
-      <c r="ER20"/>
-      <c r="ES20"/>
-      <c r="ET20"/>
-      <c r="EU20"/>
-      <c r="EV20"/>
-      <c r="EW20"/>
-      <c r="EX20"/>
-      <c r="EY20"/>
-      <c r="EZ20"/>
-      <c r="FA20"/>
-      <c r="FB20"/>
-      <c r="FC20"/>
-      <c r="FD20"/>
-      <c r="FE20"/>
-      <c r="FF20"/>
-      <c r="FG20"/>
-      <c r="FH20"/>
-      <c r="FI20"/>
-      <c r="FJ20"/>
-      <c r="FK20"/>
-      <c r="FL20"/>
-      <c r="FM20"/>
-      <c r="FN20"/>
-      <c r="FO20"/>
-      <c r="FP20"/>
-      <c r="FQ20"/>
-      <c r="FR20"/>
-      <c r="FS20"/>
-      <c r="FT20"/>
-      <c r="FU20"/>
-      <c r="FV20"/>
-      <c r="FW20"/>
-      <c r="FX20"/>
-      <c r="FY20"/>
-      <c r="FZ20"/>
-      <c r="GA20"/>
-      <c r="GB20"/>
-      <c r="GC20"/>
-      <c r="GD20"/>
-      <c r="GE20"/>
-      <c r="GF20"/>
-      <c r="GG20"/>
-      <c r="GH20"/>
-      <c r="GI20"/>
-      <c r="GJ20"/>
-      <c r="GK20"/>
-      <c r="GL20"/>
-      <c r="GM20"/>
-      <c r="GN20"/>
-      <c r="GO20"/>
-      <c r="GP20"/>
-      <c r="GQ20"/>
-      <c r="GR20"/>
-      <c r="GS20"/>
-      <c r="GT20"/>
-      <c r="GU20"/>
-      <c r="GV20"/>
-      <c r="GW20"/>
-      <c r="GX20"/>
-      <c r="GY20"/>
-      <c r="GZ20"/>
-      <c r="HA20"/>
-      <c r="HB20"/>
-      <c r="HC20"/>
-      <c r="HD20"/>
-      <c r="HE20"/>
-      <c r="HF20"/>
-      <c r="HG20"/>
-      <c r="HH20"/>
-      <c r="HI20"/>
-      <c r="HJ20"/>
-      <c r="HK20"/>
-      <c r="HL20"/>
-      <c r="HM20"/>
-      <c r="HN20"/>
-      <c r="HO20"/>
-      <c r="HP20"/>
-      <c r="HQ20"/>
-      <c r="HR20"/>
-      <c r="HS20"/>
-      <c r="HT20"/>
-      <c r="HU20"/>
-      <c r="HV20"/>
-      <c r="HW20"/>
-      <c r="HX20"/>
-      <c r="HY20"/>
-      <c r="HZ20"/>
-      <c r="IA20"/>
-      <c r="IB20"/>
-      <c r="IC20"/>
-      <c r="ID20"/>
-      <c r="IE20"/>
-      <c r="IF20"/>
-      <c r="IG20"/>
-      <c r="IH20"/>
-      <c r="II20"/>
-    </row>
-    <row r="21" spans="1:243" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:243" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="28">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
@@ -12987,44 +12474,28 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:L6 N6:Q8 F21 N21:Q21 F7:F8">
+  <conditionalFormatting sqref="G6:L6 N6:Q8 F19 N19:Q19 F7:F8">
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L8 G7:G8 I21:L21 G21">
+  <conditionalFormatting sqref="I7:L8 G7:G8 I19:L19 G19">
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8 H21">
+  <conditionalFormatting sqref="H7:H8 H19">
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13032,7 +12503,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13040,7 +12511,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13048,7 +12519,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13056,7 +12527,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13064,31 +12535,31 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:L17 G17 N19:Q19 L18">
+  <conditionalFormatting sqref="I17:L17 G17">
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H20 H22">
+  <conditionalFormatting sqref="H17:H18 H20">
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 N17:Q18 F20 F22 N20:Q22">
+  <conditionalFormatting sqref="F17:F18 F20 N17:Q20">
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13096,7 +12567,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13104,7 +12575,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13112,7 +12583,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13120,7 +12591,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13140,15 +12611,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18 F21">
+  <conditionalFormatting sqref="F19">
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -13164,7 +12627,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H21">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -13172,31 +12635,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="44" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19 I19:K19">
-    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="42" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:K18 G18 I21:K21 G21">
+  <conditionalFormatting sqref="I19:K19 G19">
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -13300,22 +12739,22 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="60" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="38"/>
@@ -13549,26 +12988,26 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="75" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="91" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="71" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="38"/>
@@ -13799,21 +13238,21 @@
       <c r="IC2" s="1"/>
     </row>
     <row r="3" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="38"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -14042,17 +13481,17 @@
       <c r="IC3" s="1"/>
     </row>
     <row r="4" spans="1:237" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="38"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -14769,29 +14208,29 @@
       <c r="IC6" s="1"/>
     </row>
     <row r="7" spans="1:237" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="38"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -15020,18 +14459,18 @@
       <c r="IC7" s="13"/>
     </row>
     <row r="8" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
@@ -15283,29 +14722,29 @@
       <c r="IC9" s="1"/>
     </row>
     <row r="10" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52" t="s">
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="38"/>
@@ -15536,23 +14975,23 @@
       <c r="IC10" s="13"/>
     </row>
     <row r="11" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="62" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52" t="s">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="38"/>
@@ -15783,21 +15222,21 @@
       <c r="IC11" s="13"/>
     </row>
     <row r="12" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="62" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L12" s="38"/>
@@ -16028,18 +15467,18 @@
       <c r="IC12" s="13"/>
     </row>
     <row r="13" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
@@ -16291,29 +15730,29 @@
       <c r="IC14" s="1"/>
     </row>
     <row r="15" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+      <c r="A15" s="62">
         <v>3</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="63" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="38"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -16542,18 +15981,18 @@
       <c r="IC15" s="13"/>
     </row>
     <row r="16" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:237" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
@@ -16805,27 +16244,27 @@
       <c r="IC17" s="1"/>
     </row>
     <row r="18" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72">
+      <c r="A18" s="78">
         <v>4</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="38"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -17054,21 +16493,21 @@
       <c r="IC18" s="13"/>
     </row>
     <row r="19" spans="1:237" s="9" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="62" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="38"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -17297,27 +16736,21 @@
       <c r="IC19" s="13"/>
     </row>
     <row r="20" spans="1:237" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="G2:G4"/>
@@ -17330,6 +16763,12 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
